--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IE santa rosa.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IE santa rosa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\5. IOARR IEP 54411 SANTA ROSA\16.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0005-SANTA-ROSA\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6903F9FE-4E90-4274-8B3A-5CE90EF395C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="13440" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="13440" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54411 SR" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54411 SR'!$A$2:$K$540</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1075,9 +1073,6 @@
     <t>N:-8435637.54;  E:-733100.07 ALTITUD 3550 msnm</t>
   </si>
   <si>
-    <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA I.E.  INTEGRADO ANDRES AVELINO CACERES (IEP N° 54411) – SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU - REGION APURIMAC</t>
-  </si>
-  <si>
     <t>OOPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA I.E.  INTEGRADO ANDRES AVELINO CACERES (IEP N° 54411) – SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU - REGION APURIMAC</t>
   </si>
   <si>
@@ -1085,14 +1080,17 @@
   </si>
   <si>
     <t>CADA 2 AÑOS</t>
+  </si>
+  <si>
+    <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411, "ANDRES AVELINO CACERES SANTA ROSA", DISTRITO SANTA ROSA, PROVINCIA GRAU - REGION APURIMAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1940,7 +1938,7 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1955,18 +1953,321 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1976,15 +2277,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1992,15 +2284,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2008,297 +2291,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2576,14 +2574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:O543"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2605,49 +2603,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="210" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="177"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="214" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="217"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2679,17 +2677,17 @@
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="223" t="s">
-        <v>340</v>
-      </c>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
+      <c r="B8" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2873,10 +2871,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="243" t="s">
+      <c r="D21" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="243"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2903,10 +2901,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="243" t="s">
+      <c r="D23" s="146" t="s">
         <v>331</v>
       </c>
-      <c r="E23" s="243"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2964,13 +2962,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="244" t="s">
+      <c r="F27" s="150" t="s">
         <v>338</v>
       </c>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="244"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
       <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2987,21 +2985,21 @@
     </row>
     <row r="29" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="245" t="s">
+      <c r="G29" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="H29" s="246"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="246"/>
-      <c r="K29" s="247"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="153"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3019,11 +3017,11 @@
     </row>
     <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="241"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3175,12 +3173,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="213" t="s">
+      <c r="G40" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="214"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="215"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="181"/>
       <c r="K40" s="78"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3192,12 +3190,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="213" t="s">
+      <c r="G41" s="179" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="214"/>
-      <c r="I41" s="214"/>
-      <c r="J41" s="215"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="181"/>
       <c r="K41" s="78"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3209,12 +3207,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="213" t="s">
+      <c r="G42" s="179" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="214"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="215"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181"/>
       <c r="K42" s="78"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3226,12 +3224,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="213" t="s">
+      <c r="G43" s="179" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="214"/>
-      <c r="I43" s="214"/>
-      <c r="J43" s="215"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="181"/>
       <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3272,12 +3270,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="213" t="s">
+      <c r="G46" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="214"/>
-      <c r="I46" s="214"/>
-      <c r="J46" s="215"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="181"/>
       <c r="K46" s="78"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3289,12 +3287,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="213" t="s">
+      <c r="G47" s="179" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="214"/>
-      <c r="I47" s="214"/>
-      <c r="J47" s="215"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="180"/>
+      <c r="J47" s="181"/>
       <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3306,12 +3304,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="210" t="s">
+      <c r="G48" s="184" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="212"/>
+      <c r="H48" s="248"/>
+      <c r="I48" s="248"/>
+      <c r="J48" s="185"/>
       <c r="K48" s="78"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -3374,12 +3372,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="213" t="s">
+      <c r="G52" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="214"/>
-      <c r="I52" s="214"/>
-      <c r="J52" s="215"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
+      <c r="J52" s="181"/>
       <c r="K52" s="78"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -3391,12 +3389,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="213" t="s">
+      <c r="G53" s="179" t="s">
         <v>327</v>
       </c>
-      <c r="H53" s="214"/>
-      <c r="I53" s="214"/>
-      <c r="J53" s="215"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="180"/>
+      <c r="J53" s="181"/>
       <c r="K53" s="78"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3630,14 +3628,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="227" t="s">
+      <c r="E68" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="229"/>
+      <c r="F68" s="178"/>
+      <c r="G68" s="178"/>
+      <c r="H68" s="178"/>
+      <c r="I68" s="178"/>
+      <c r="J68" s="155"/>
       <c r="K68" s="137"/>
     </row>
     <row r="69" spans="1:11" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3698,11 +3696,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="145" t="s">
+      <c r="F72" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="145"/>
-      <c r="H72" s="145"/>
+      <c r="G72" s="202"/>
+      <c r="H72" s="202"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3719,11 +3717,11 @@
         <v>330</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="146" t="s">
+      <c r="F73" s="249" t="s">
         <v>339</v>
       </c>
-      <c r="G73" s="146"/>
-      <c r="H73" s="146"/>
+      <c r="G73" s="249"/>
+      <c r="H73" s="249"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3846,10 +3844,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="217" t="s">
+      <c r="D82" s="188" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="217"/>
+      <c r="E82" s="188"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -3930,17 +3928,17 @@
     </row>
     <row r="87" spans="1:11" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="150" t="s">
+      <c r="B87" s="251" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="150"/>
-      <c r="D87" s="150"/>
-      <c r="E87" s="150"/>
-      <c r="F87" s="150"/>
-      <c r="G87" s="150"/>
-      <c r="H87" s="150"/>
-      <c r="I87" s="150"/>
-      <c r="J87" s="150"/>
+      <c r="C87" s="251"/>
+      <c r="D87" s="251"/>
+      <c r="E87" s="251"/>
+      <c r="F87" s="251"/>
+      <c r="G87" s="251"/>
+      <c r="H87" s="251"/>
+      <c r="I87" s="251"/>
+      <c r="J87" s="251"/>
       <c r="K87" s="79"/>
     </row>
     <row r="88" spans="1:11" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4096,10 +4094,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="155" t="s">
+      <c r="E98" s="253" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="156"/>
+      <c r="F98" s="254"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4267,13 +4265,13 @@
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="201" t="s">
+      <c r="B110" s="236" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="201"/>
-      <c r="D110" s="201"/>
-      <c r="E110" s="201"/>
-      <c r="F110" s="202"/>
+      <c r="C110" s="236"/>
+      <c r="D110" s="236"/>
+      <c r="E110" s="236"/>
+      <c r="F110" s="237"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4287,21 +4285,21 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="203"/>
-      <c r="H111" s="203"/>
+      <c r="G111" s="238"/>
+      <c r="H111" s="238"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="79"/>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="201" t="s">
+      <c r="B112" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="201"/>
-      <c r="D112" s="201"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="202"/>
+      <c r="C112" s="236"/>
+      <c r="D112" s="236"/>
+      <c r="E112" s="236"/>
+      <c r="F112" s="237"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4424,44 +4422,44 @@
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="204" t="s">
+      <c r="B121" s="239" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="205"/>
-      <c r="D121" s="205"/>
-      <c r="E121" s="205"/>
-      <c r="F121" s="205"/>
-      <c r="G121" s="205"/>
-      <c r="H121" s="205"/>
-      <c r="I121" s="205"/>
-      <c r="J121" s="205"/>
-      <c r="K121" s="206"/>
+      <c r="C121" s="240"/>
+      <c r="D121" s="240"/>
+      <c r="E121" s="240"/>
+      <c r="F121" s="240"/>
+      <c r="G121" s="240"/>
+      <c r="H121" s="240"/>
+      <c r="I121" s="240"/>
+      <c r="J121" s="240"/>
+      <c r="K121" s="241"/>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="157"/>
-      <c r="C122" s="158"/>
-      <c r="D122" s="158"/>
-      <c r="E122" s="158"/>
-      <c r="F122" s="158"/>
-      <c r="G122" s="158"/>
-      <c r="H122" s="158"/>
-      <c r="I122" s="158"/>
-      <c r="J122" s="158"/>
-      <c r="K122" s="159"/>
+      <c r="B122" s="242"/>
+      <c r="C122" s="243"/>
+      <c r="D122" s="243"/>
+      <c r="E122" s="243"/>
+      <c r="F122" s="243"/>
+      <c r="G122" s="243"/>
+      <c r="H122" s="243"/>
+      <c r="I122" s="243"/>
+      <c r="J122" s="243"/>
+      <c r="K122" s="244"/>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="207"/>
-      <c r="C123" s="208"/>
-      <c r="D123" s="208"/>
-      <c r="E123" s="208"/>
-      <c r="F123" s="208"/>
-      <c r="G123" s="208"/>
-      <c r="H123" s="208"/>
-      <c r="I123" s="208"/>
-      <c r="J123" s="208"/>
-      <c r="K123" s="209"/>
+      <c r="B123" s="245"/>
+      <c r="C123" s="246"/>
+      <c r="D123" s="246"/>
+      <c r="E123" s="246"/>
+      <c r="F123" s="246"/>
+      <c r="G123" s="246"/>
+      <c r="H123" s="246"/>
+      <c r="I123" s="246"/>
+      <c r="J123" s="246"/>
+      <c r="K123" s="247"/>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4493,18 +4491,18 @@
     </row>
     <row r="126" spans="1:11" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="194" t="s">
+      <c r="B126" s="229" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="195"/>
-      <c r="D126" s="195"/>
-      <c r="E126" s="195"/>
-      <c r="F126" s="195"/>
-      <c r="G126" s="195"/>
-      <c r="H126" s="195"/>
-      <c r="I126" s="195"/>
-      <c r="J126" s="195"/>
-      <c r="K126" s="196"/>
+      <c r="C126" s="230"/>
+      <c r="D126" s="230"/>
+      <c r="E126" s="230"/>
+      <c r="F126" s="230"/>
+      <c r="G126" s="230"/>
+      <c r="H126" s="230"/>
+      <c r="I126" s="230"/>
+      <c r="J126" s="230"/>
+      <c r="K126" s="231"/>
     </row>
     <row r="127" spans="1:11" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4536,18 +4534,18 @@
     </row>
     <row r="129" spans="1:11" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="197" t="s">
+      <c r="B129" s="232" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="198"/>
-      <c r="D129" s="198"/>
-      <c r="E129" s="198"/>
-      <c r="F129" s="198"/>
-      <c r="G129" s="198"/>
-      <c r="H129" s="198"/>
-      <c r="I129" s="198"/>
-      <c r="J129" s="198"/>
-      <c r="K129" s="199"/>
+      <c r="C129" s="233"/>
+      <c r="D129" s="233"/>
+      <c r="E129" s="233"/>
+      <c r="F129" s="233"/>
+      <c r="G129" s="233"/>
+      <c r="H129" s="233"/>
+      <c r="I129" s="233"/>
+      <c r="J129" s="233"/>
+      <c r="K129" s="234"/>
     </row>
     <row r="130" spans="1:11" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4733,18 +4731,18 @@
     </row>
     <row r="143" spans="1:11" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="200" t="s">
+      <c r="B143" s="235" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="200"/>
-      <c r="D143" s="200"/>
-      <c r="E143" s="200"/>
-      <c r="F143" s="200"/>
-      <c r="G143" s="200"/>
-      <c r="H143" s="200"/>
-      <c r="I143" s="200"/>
-      <c r="J143" s="200"/>
-      <c r="K143" s="200"/>
+      <c r="C143" s="235"/>
+      <c r="D143" s="235"/>
+      <c r="E143" s="235"/>
+      <c r="F143" s="235"/>
+      <c r="G143" s="235"/>
+      <c r="H143" s="235"/>
+      <c r="I143" s="235"/>
+      <c r="J143" s="235"/>
+      <c r="K143" s="235"/>
     </row>
     <row r="144" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4761,11 +4759,11 @@
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="147" t="s">
+      <c r="B145" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="147"/>
-      <c r="D145" s="147"/>
+      <c r="C145" s="157"/>
+      <c r="D145" s="157"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4787,11 +4785,11 @@
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="147" t="s">
+      <c r="B147" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="147"/>
-      <c r="D147" s="147"/>
+      <c r="C147" s="157"/>
+      <c r="D147" s="157"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -4813,11 +4811,11 @@
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="147" t="s">
+      <c r="B149" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="147"/>
-      <c r="D149" s="147"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="157"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -4837,12 +4835,12 @@
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="147" t="s">
+      <c r="B151" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="147"/>
-      <c r="D151" s="147"/>
-      <c r="E151" s="147"/>
+      <c r="C151" s="157"/>
+      <c r="D151" s="157"/>
+      <c r="E151" s="157"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -4863,13 +4861,13 @@
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="147" t="s">
+      <c r="B153" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="147"/>
-      <c r="D153" s="147"/>
-      <c r="E153" s="147"/>
-      <c r="F153" s="148"/>
+      <c r="C153" s="157"/>
+      <c r="D153" s="157"/>
+      <c r="E153" s="157"/>
+      <c r="F153" s="158"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -4989,18 +4987,18 @@
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="160" t="s">
+      <c r="B162" s="255" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="161"/>
-      <c r="D162" s="161"/>
-      <c r="E162" s="161"/>
-      <c r="F162" s="161"/>
-      <c r="G162" s="161"/>
-      <c r="H162" s="161"/>
-      <c r="I162" s="161"/>
-      <c r="J162" s="161"/>
-      <c r="K162" s="162"/>
+      <c r="C162" s="256"/>
+      <c r="D162" s="256"/>
+      <c r="E162" s="256"/>
+      <c r="F162" s="256"/>
+      <c r="G162" s="256"/>
+      <c r="H162" s="256"/>
+      <c r="I162" s="256"/>
+      <c r="J162" s="256"/>
+      <c r="K162" s="257"/>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5202,12 +5200,12 @@
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="147" t="s">
+      <c r="B179" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="147"/>
-      <c r="D179" s="147"/>
-      <c r="E179" s="147"/>
+      <c r="C179" s="157"/>
+      <c r="D179" s="157"/>
+      <c r="E179" s="157"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5232,13 +5230,13 @@
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="147" t="s">
+      <c r="B181" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="147"/>
-      <c r="D181" s="147"/>
-      <c r="E181" s="147"/>
-      <c r="F181" s="148"/>
+      <c r="C181" s="157"/>
+      <c r="D181" s="157"/>
+      <c r="E181" s="157"/>
+      <c r="F181" s="158"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5288,13 +5286,13 @@
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="147" t="s">
+      <c r="B185" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="147"/>
-      <c r="D185" s="147"/>
-      <c r="E185" s="147"/>
-      <c r="F185" s="148"/>
+      <c r="C185" s="157"/>
+      <c r="D185" s="157"/>
+      <c r="E185" s="157"/>
+      <c r="F185" s="158"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5399,74 +5397,74 @@
     </row>
     <row r="193" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="163" t="s">
+      <c r="B193" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="164"/>
-      <c r="D193" s="164"/>
-      <c r="E193" s="164"/>
-      <c r="F193" s="164"/>
-      <c r="G193" s="164"/>
-      <c r="H193" s="164"/>
-      <c r="I193" s="164"/>
-      <c r="J193" s="164"/>
-      <c r="K193" s="165"/>
+      <c r="C193" s="161"/>
+      <c r="D193" s="161"/>
+      <c r="E193" s="161"/>
+      <c r="F193" s="161"/>
+      <c r="G193" s="161"/>
+      <c r="H193" s="161"/>
+      <c r="I193" s="161"/>
+      <c r="J193" s="161"/>
+      <c r="K193" s="162"/>
       <c r="L193" s="20"/>
     </row>
     <row r="194" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="166"/>
-      <c r="C194" s="167"/>
-      <c r="D194" s="167"/>
-      <c r="E194" s="167"/>
-      <c r="F194" s="167"/>
-      <c r="G194" s="167"/>
-      <c r="H194" s="167"/>
-      <c r="I194" s="167"/>
-      <c r="J194" s="167"/>
-      <c r="K194" s="168"/>
+      <c r="B194" s="163"/>
+      <c r="C194" s="164"/>
+      <c r="D194" s="164"/>
+      <c r="E194" s="164"/>
+      <c r="F194" s="164"/>
+      <c r="G194" s="164"/>
+      <c r="H194" s="164"/>
+      <c r="I194" s="164"/>
+      <c r="J194" s="164"/>
+      <c r="K194" s="165"/>
       <c r="L194" s="2"/>
     </row>
     <row r="195" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="166"/>
-      <c r="C195" s="167"/>
-      <c r="D195" s="167"/>
-      <c r="E195" s="167"/>
-      <c r="F195" s="167"/>
-      <c r="G195" s="167"/>
-      <c r="H195" s="167"/>
-      <c r="I195" s="167"/>
-      <c r="J195" s="167"/>
-      <c r="K195" s="168"/>
+      <c r="B195" s="163"/>
+      <c r="C195" s="164"/>
+      <c r="D195" s="164"/>
+      <c r="E195" s="164"/>
+      <c r="F195" s="164"/>
+      <c r="G195" s="164"/>
+      <c r="H195" s="164"/>
+      <c r="I195" s="164"/>
+      <c r="J195" s="164"/>
+      <c r="K195" s="165"/>
       <c r="L195" s="2"/>
     </row>
     <row r="196" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="166"/>
-      <c r="C196" s="167"/>
-      <c r="D196" s="167"/>
-      <c r="E196" s="167"/>
-      <c r="F196" s="167"/>
-      <c r="G196" s="167"/>
-      <c r="H196" s="167"/>
-      <c r="I196" s="167"/>
-      <c r="J196" s="167"/>
-      <c r="K196" s="168"/>
+      <c r="B196" s="163"/>
+      <c r="C196" s="164"/>
+      <c r="D196" s="164"/>
+      <c r="E196" s="164"/>
+      <c r="F196" s="164"/>
+      <c r="G196" s="164"/>
+      <c r="H196" s="164"/>
+      <c r="I196" s="164"/>
+      <c r="J196" s="164"/>
+      <c r="K196" s="165"/>
       <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="169"/>
-      <c r="C197" s="170"/>
-      <c r="D197" s="170"/>
-      <c r="E197" s="170"/>
-      <c r="F197" s="170"/>
-      <c r="G197" s="170"/>
-      <c r="H197" s="170"/>
-      <c r="I197" s="170"/>
-      <c r="J197" s="170"/>
-      <c r="K197" s="171"/>
+      <c r="B197" s="166"/>
+      <c r="C197" s="167"/>
+      <c r="D197" s="167"/>
+      <c r="E197" s="167"/>
+      <c r="F197" s="167"/>
+      <c r="G197" s="167"/>
+      <c r="H197" s="167"/>
+      <c r="I197" s="167"/>
+      <c r="J197" s="167"/>
+      <c r="K197" s="168"/>
       <c r="L197" s="2"/>
     </row>
     <row r="198" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5501,74 +5499,74 @@
     </row>
     <row r="200" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="163" t="s">
+      <c r="B200" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="164"/>
-      <c r="D200" s="164"/>
-      <c r="E200" s="164"/>
-      <c r="F200" s="164"/>
-      <c r="G200" s="164"/>
-      <c r="H200" s="164"/>
-      <c r="I200" s="164"/>
-      <c r="J200" s="164"/>
-      <c r="K200" s="165"/>
+      <c r="C200" s="161"/>
+      <c r="D200" s="161"/>
+      <c r="E200" s="161"/>
+      <c r="F200" s="161"/>
+      <c r="G200" s="161"/>
+      <c r="H200" s="161"/>
+      <c r="I200" s="161"/>
+      <c r="J200" s="161"/>
+      <c r="K200" s="162"/>
       <c r="L200" s="33"/>
     </row>
     <row r="201" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="166"/>
-      <c r="C201" s="167"/>
-      <c r="D201" s="167"/>
-      <c r="E201" s="167"/>
-      <c r="F201" s="167"/>
-      <c r="G201" s="167"/>
-      <c r="H201" s="167"/>
-      <c r="I201" s="167"/>
-      <c r="J201" s="167"/>
-      <c r="K201" s="168"/>
+      <c r="B201" s="163"/>
+      <c r="C201" s="164"/>
+      <c r="D201" s="164"/>
+      <c r="E201" s="164"/>
+      <c r="F201" s="164"/>
+      <c r="G201" s="164"/>
+      <c r="H201" s="164"/>
+      <c r="I201" s="164"/>
+      <c r="J201" s="164"/>
+      <c r="K201" s="165"/>
       <c r="L201" s="2"/>
     </row>
     <row r="202" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="166"/>
-      <c r="C202" s="167"/>
-      <c r="D202" s="167"/>
-      <c r="E202" s="167"/>
-      <c r="F202" s="167"/>
-      <c r="G202" s="167"/>
-      <c r="H202" s="167"/>
-      <c r="I202" s="167"/>
-      <c r="J202" s="167"/>
-      <c r="K202" s="168"/>
+      <c r="B202" s="163"/>
+      <c r="C202" s="164"/>
+      <c r="D202" s="164"/>
+      <c r="E202" s="164"/>
+      <c r="F202" s="164"/>
+      <c r="G202" s="164"/>
+      <c r="H202" s="164"/>
+      <c r="I202" s="164"/>
+      <c r="J202" s="164"/>
+      <c r="K202" s="165"/>
       <c r="L202" s="2"/>
     </row>
     <row r="203" spans="1:12" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="166"/>
-      <c r="C203" s="167"/>
-      <c r="D203" s="167"/>
-      <c r="E203" s="167"/>
-      <c r="F203" s="167"/>
-      <c r="G203" s="167"/>
-      <c r="H203" s="167"/>
-      <c r="I203" s="167"/>
-      <c r="J203" s="167"/>
-      <c r="K203" s="168"/>
+      <c r="B203" s="163"/>
+      <c r="C203" s="164"/>
+      <c r="D203" s="164"/>
+      <c r="E203" s="164"/>
+      <c r="F203" s="164"/>
+      <c r="G203" s="164"/>
+      <c r="H203" s="164"/>
+      <c r="I203" s="164"/>
+      <c r="J203" s="164"/>
+      <c r="K203" s="165"/>
       <c r="L203" s="2"/>
     </row>
     <row r="204" spans="1:12" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="169"/>
-      <c r="C204" s="170"/>
-      <c r="D204" s="170"/>
-      <c r="E204" s="170"/>
-      <c r="F204" s="170"/>
-      <c r="G204" s="170"/>
-      <c r="H204" s="170"/>
-      <c r="I204" s="170"/>
-      <c r="J204" s="170"/>
-      <c r="K204" s="171"/>
+      <c r="B204" s="166"/>
+      <c r="C204" s="167"/>
+      <c r="D204" s="167"/>
+      <c r="E204" s="167"/>
+      <c r="F204" s="167"/>
+      <c r="G204" s="167"/>
+      <c r="H204" s="167"/>
+      <c r="I204" s="167"/>
+      <c r="J204" s="167"/>
+      <c r="K204" s="168"/>
       <c r="L204" s="2"/>
     </row>
     <row r="205" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5706,46 +5704,46 @@
     </row>
     <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="185" t="s">
+      <c r="B214" s="220" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="186"/>
-      <c r="D214" s="186"/>
-      <c r="E214" s="186"/>
-      <c r="F214" s="186"/>
-      <c r="G214" s="186"/>
-      <c r="H214" s="186"/>
-      <c r="I214" s="186"/>
-      <c r="J214" s="186"/>
-      <c r="K214" s="187"/>
+      <c r="C214" s="221"/>
+      <c r="D214" s="221"/>
+      <c r="E214" s="221"/>
+      <c r="F214" s="221"/>
+      <c r="G214" s="221"/>
+      <c r="H214" s="221"/>
+      <c r="I214" s="221"/>
+      <c r="J214" s="221"/>
+      <c r="K214" s="222"/>
       <c r="L214" s="33"/>
     </row>
     <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="188"/>
-      <c r="C215" s="189"/>
-      <c r="D215" s="189"/>
-      <c r="E215" s="189"/>
-      <c r="F215" s="189"/>
-      <c r="G215" s="189"/>
-      <c r="H215" s="189"/>
-      <c r="I215" s="189"/>
-      <c r="J215" s="189"/>
-      <c r="K215" s="190"/>
+      <c r="B215" s="223"/>
+      <c r="C215" s="224"/>
+      <c r="D215" s="224"/>
+      <c r="E215" s="224"/>
+      <c r="F215" s="224"/>
+      <c r="G215" s="224"/>
+      <c r="H215" s="224"/>
+      <c r="I215" s="224"/>
+      <c r="J215" s="224"/>
+      <c r="K215" s="225"/>
       <c r="L215" s="59"/>
     </row>
     <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="191"/>
-      <c r="C216" s="192"/>
-      <c r="D216" s="192"/>
-      <c r="E216" s="192"/>
-      <c r="F216" s="192"/>
-      <c r="G216" s="192"/>
-      <c r="H216" s="192"/>
-      <c r="I216" s="192"/>
-      <c r="J216" s="192"/>
-      <c r="K216" s="193"/>
+      <c r="B216" s="226"/>
+      <c r="C216" s="227"/>
+      <c r="D216" s="227"/>
+      <c r="E216" s="227"/>
+      <c r="F216" s="227"/>
+      <c r="G216" s="227"/>
+      <c r="H216" s="227"/>
+      <c r="I216" s="227"/>
+      <c r="J216" s="227"/>
+      <c r="K216" s="228"/>
       <c r="L216" s="59"/>
     </row>
     <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5778,10 +5776,10 @@
     </row>
     <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="147" t="s">
+      <c r="B219" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="147"/>
+      <c r="C219" s="157"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -5898,18 +5896,18 @@
     </row>
     <row r="227" spans="1:13" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="157" t="s">
+      <c r="B227" s="242" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="158"/>
-      <c r="D227" s="158"/>
-      <c r="E227" s="158"/>
-      <c r="F227" s="158"/>
-      <c r="G227" s="158"/>
-      <c r="H227" s="158"/>
-      <c r="I227" s="158"/>
-      <c r="J227" s="158"/>
-      <c r="K227" s="159"/>
+      <c r="C227" s="243"/>
+      <c r="D227" s="243"/>
+      <c r="E227" s="243"/>
+      <c r="F227" s="243"/>
+      <c r="G227" s="243"/>
+      <c r="H227" s="243"/>
+      <c r="I227" s="243"/>
+      <c r="J227" s="243"/>
+      <c r="K227" s="244"/>
     </row>
     <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6011,48 +6009,48 @@
     </row>
     <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="249" t="s">
+      <c r="B235" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="250"/>
-      <c r="D235" s="250"/>
-      <c r="E235" s="250"/>
-      <c r="F235" s="250"/>
-      <c r="G235" s="250"/>
-      <c r="H235" s="250"/>
-      <c r="I235" s="250"/>
-      <c r="J235" s="250"/>
-      <c r="K235" s="251"/>
+      <c r="C235" s="170"/>
+      <c r="D235" s="170"/>
+      <c r="E235" s="170"/>
+      <c r="F235" s="170"/>
+      <c r="G235" s="170"/>
+      <c r="H235" s="170"/>
+      <c r="I235" s="170"/>
+      <c r="J235" s="170"/>
+      <c r="K235" s="171"/>
       <c r="L235" s="33"/>
       <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="252"/>
-      <c r="C236" s="253"/>
-      <c r="D236" s="253"/>
-      <c r="E236" s="253"/>
-      <c r="F236" s="253"/>
-      <c r="G236" s="253"/>
-      <c r="H236" s="253"/>
-      <c r="I236" s="253"/>
-      <c r="J236" s="253"/>
-      <c r="K236" s="254"/>
+      <c r="B236" s="172"/>
+      <c r="C236" s="173"/>
+      <c r="D236" s="173"/>
+      <c r="E236" s="173"/>
+      <c r="F236" s="173"/>
+      <c r="G236" s="173"/>
+      <c r="H236" s="173"/>
+      <c r="I236" s="173"/>
+      <c r="J236" s="173"/>
+      <c r="K236" s="174"/>
       <c r="L236" s="59"/>
       <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="255"/>
-      <c r="C237" s="256"/>
-      <c r="D237" s="256"/>
-      <c r="E237" s="256"/>
-      <c r="F237" s="256"/>
-      <c r="G237" s="256"/>
-      <c r="H237" s="256"/>
-      <c r="I237" s="256"/>
-      <c r="J237" s="256"/>
-      <c r="K237" s="257"/>
+      <c r="B237" s="175"/>
+      <c r="C237" s="176"/>
+      <c r="D237" s="176"/>
+      <c r="E237" s="176"/>
+      <c r="F237" s="176"/>
+      <c r="G237" s="176"/>
+      <c r="H237" s="176"/>
+      <c r="I237" s="176"/>
+      <c r="J237" s="176"/>
+      <c r="K237" s="177"/>
       <c r="L237" s="59"/>
       <c r="M237" s="2"/>
     </row>
@@ -6160,33 +6158,33 @@
     </row>
     <row r="245" spans="1:11" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="150" t="s">
+      <c r="B245" s="251" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="150"/>
-      <c r="D245" s="150"/>
-      <c r="E245" s="150"/>
-      <c r="F245" s="150"/>
-      <c r="G245" s="150"/>
-      <c r="H245" s="150"/>
-      <c r="I245" s="150"/>
-      <c r="J245" s="150"/>
-      <c r="K245" s="150"/>
+      <c r="C245" s="251"/>
+      <c r="D245" s="251"/>
+      <c r="E245" s="251"/>
+      <c r="F245" s="251"/>
+      <c r="G245" s="251"/>
+      <c r="H245" s="251"/>
+      <c r="I245" s="251"/>
+      <c r="J245" s="251"/>
+      <c r="K245" s="251"/>
     </row>
     <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="150" t="s">
+      <c r="B246" s="251" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="150"/>
-      <c r="D246" s="150"/>
-      <c r="E246" s="150"/>
-      <c r="F246" s="150"/>
-      <c r="G246" s="150"/>
-      <c r="H246" s="150"/>
-      <c r="I246" s="150"/>
-      <c r="J246" s="150"/>
-      <c r="K246" s="150"/>
+      <c r="C246" s="251"/>
+      <c r="D246" s="251"/>
+      <c r="E246" s="251"/>
+      <c r="F246" s="251"/>
+      <c r="G246" s="251"/>
+      <c r="H246" s="251"/>
+      <c r="I246" s="251"/>
+      <c r="J246" s="251"/>
+      <c r="K246" s="251"/>
     </row>
     <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6379,78 +6377,78 @@
     </row>
     <row r="260" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="163" t="s">
+      <c r="B260" s="160" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="164"/>
-      <c r="D260" s="164"/>
-      <c r="E260" s="164"/>
-      <c r="F260" s="164"/>
-      <c r="G260" s="164"/>
-      <c r="H260" s="164"/>
-      <c r="I260" s="164"/>
-      <c r="J260" s="164"/>
-      <c r="K260" s="165"/>
+      <c r="C260" s="161"/>
+      <c r="D260" s="161"/>
+      <c r="E260" s="161"/>
+      <c r="F260" s="161"/>
+      <c r="G260" s="161"/>
+      <c r="H260" s="161"/>
+      <c r="I260" s="161"/>
+      <c r="J260" s="161"/>
+      <c r="K260" s="162"/>
       <c r="L260" s="33"/>
       <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="166"/>
-      <c r="C261" s="167"/>
-      <c r="D261" s="167"/>
-      <c r="E261" s="167"/>
-      <c r="F261" s="167"/>
-      <c r="G261" s="167"/>
-      <c r="H261" s="167"/>
-      <c r="I261" s="167"/>
-      <c r="J261" s="167"/>
-      <c r="K261" s="168"/>
+      <c r="B261" s="163"/>
+      <c r="C261" s="164"/>
+      <c r="D261" s="164"/>
+      <c r="E261" s="164"/>
+      <c r="F261" s="164"/>
+      <c r="G261" s="164"/>
+      <c r="H261" s="164"/>
+      <c r="I261" s="164"/>
+      <c r="J261" s="164"/>
+      <c r="K261" s="165"/>
       <c r="L261" s="59"/>
       <c r="M261" s="2"/>
     </row>
     <row r="262" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="166"/>
-      <c r="C262" s="167"/>
-      <c r="D262" s="167"/>
-      <c r="E262" s="167"/>
-      <c r="F262" s="167"/>
-      <c r="G262" s="167"/>
-      <c r="H262" s="167"/>
-      <c r="I262" s="167"/>
-      <c r="J262" s="167"/>
-      <c r="K262" s="168"/>
+      <c r="B262" s="163"/>
+      <c r="C262" s="164"/>
+      <c r="D262" s="164"/>
+      <c r="E262" s="164"/>
+      <c r="F262" s="164"/>
+      <c r="G262" s="164"/>
+      <c r="H262" s="164"/>
+      <c r="I262" s="164"/>
+      <c r="J262" s="164"/>
+      <c r="K262" s="165"/>
       <c r="L262" s="59"/>
       <c r="M262" s="2"/>
     </row>
     <row r="263" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="166"/>
-      <c r="C263" s="167"/>
-      <c r="D263" s="167"/>
-      <c r="E263" s="167"/>
-      <c r="F263" s="167"/>
-      <c r="G263" s="167"/>
-      <c r="H263" s="167"/>
-      <c r="I263" s="167"/>
-      <c r="J263" s="167"/>
-      <c r="K263" s="168"/>
+      <c r="B263" s="163"/>
+      <c r="C263" s="164"/>
+      <c r="D263" s="164"/>
+      <c r="E263" s="164"/>
+      <c r="F263" s="164"/>
+      <c r="G263" s="164"/>
+      <c r="H263" s="164"/>
+      <c r="I263" s="164"/>
+      <c r="J263" s="164"/>
+      <c r="K263" s="165"/>
       <c r="L263" s="59"/>
       <c r="M263" s="2"/>
     </row>
     <row r="264" spans="1:13" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="169"/>
-      <c r="C264" s="170"/>
-      <c r="D264" s="170"/>
-      <c r="E264" s="170"/>
-      <c r="F264" s="170"/>
-      <c r="G264" s="170"/>
-      <c r="H264" s="170"/>
-      <c r="I264" s="170"/>
-      <c r="J264" s="170"/>
-      <c r="K264" s="171"/>
+      <c r="B264" s="166"/>
+      <c r="C264" s="167"/>
+      <c r="D264" s="167"/>
+      <c r="E264" s="167"/>
+      <c r="F264" s="167"/>
+      <c r="G264" s="167"/>
+      <c r="H264" s="167"/>
+      <c r="I264" s="167"/>
+      <c r="J264" s="167"/>
+      <c r="K264" s="168"/>
       <c r="L264" s="59"/>
       <c r="M264" s="2"/>
     </row>
@@ -6503,27 +6501,27 @@
     </row>
     <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="145" t="s">
+      <c r="B268" s="202" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="145"/>
-      <c r="D268" s="152" t="s">
+      <c r="C268" s="202"/>
+      <c r="D268" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="153"/>
-      <c r="F268" s="153"/>
-      <c r="G268" s="153"/>
-      <c r="H268" s="153"/>
-      <c r="I268" s="153"/>
-      <c r="J268" s="153"/>
-      <c r="K268" s="154"/>
+      <c r="E268" s="199"/>
+      <c r="F268" s="199"/>
+      <c r="G268" s="199"/>
+      <c r="H268" s="199"/>
+      <c r="I268" s="199"/>
+      <c r="J268" s="199"/>
+      <c r="K268" s="200"/>
       <c r="L268" s="33"/>
       <c r="M268" s="2"/>
     </row>
     <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="149"/>
-      <c r="C269" s="149"/>
+      <c r="B269" s="250"/>
+      <c r="C269" s="250"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6537,8 +6535,8 @@
     </row>
     <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="149"/>
-      <c r="C270" s="149"/>
+      <c r="B270" s="250"/>
+      <c r="C270" s="250"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6552,8 +6550,8 @@
     </row>
     <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="149"/>
-      <c r="C271" s="149"/>
+      <c r="B271" s="250"/>
+      <c r="C271" s="250"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6567,8 +6565,8 @@
     </row>
     <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="149"/>
-      <c r="C272" s="149"/>
+      <c r="B272" s="250"/>
+      <c r="C272" s="250"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6629,78 +6627,78 @@
     </row>
     <row r="276" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="151" t="s">
+      <c r="B276" s="252" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="151"/>
-      <c r="D276" s="151"/>
-      <c r="E276" s="151"/>
-      <c r="F276" s="151"/>
-      <c r="G276" s="151"/>
-      <c r="H276" s="151"/>
-      <c r="I276" s="151"/>
-      <c r="J276" s="151"/>
-      <c r="K276" s="151"/>
+      <c r="C276" s="252"/>
+      <c r="D276" s="252"/>
+      <c r="E276" s="252"/>
+      <c r="F276" s="252"/>
+      <c r="G276" s="252"/>
+      <c r="H276" s="252"/>
+      <c r="I276" s="252"/>
+      <c r="J276" s="252"/>
+      <c r="K276" s="252"/>
       <c r="L276" s="33"/>
       <c r="M276" s="2"/>
     </row>
     <row r="277" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="151"/>
-      <c r="C277" s="151"/>
-      <c r="D277" s="151"/>
-      <c r="E277" s="151"/>
-      <c r="F277" s="151"/>
-      <c r="G277" s="151"/>
-      <c r="H277" s="151"/>
-      <c r="I277" s="151"/>
-      <c r="J277" s="151"/>
-      <c r="K277" s="151"/>
+      <c r="B277" s="252"/>
+      <c r="C277" s="252"/>
+      <c r="D277" s="252"/>
+      <c r="E277" s="252"/>
+      <c r="F277" s="252"/>
+      <c r="G277" s="252"/>
+      <c r="H277" s="252"/>
+      <c r="I277" s="252"/>
+      <c r="J277" s="252"/>
+      <c r="K277" s="252"/>
       <c r="L277" s="59"/>
       <c r="M277" s="2"/>
     </row>
     <row r="278" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="151"/>
-      <c r="C278" s="151"/>
-      <c r="D278" s="151"/>
-      <c r="E278" s="151"/>
-      <c r="F278" s="151"/>
-      <c r="G278" s="151"/>
-      <c r="H278" s="151"/>
-      <c r="I278" s="151"/>
-      <c r="J278" s="151"/>
-      <c r="K278" s="151"/>
+      <c r="B278" s="252"/>
+      <c r="C278" s="252"/>
+      <c r="D278" s="252"/>
+      <c r="E278" s="252"/>
+      <c r="F278" s="252"/>
+      <c r="G278" s="252"/>
+      <c r="H278" s="252"/>
+      <c r="I278" s="252"/>
+      <c r="J278" s="252"/>
+      <c r="K278" s="252"/>
       <c r="L278" s="59"/>
       <c r="M278" s="2"/>
     </row>
     <row r="279" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="151"/>
-      <c r="C279" s="151"/>
-      <c r="D279" s="151"/>
-      <c r="E279" s="151"/>
-      <c r="F279" s="151"/>
-      <c r="G279" s="151"/>
-      <c r="H279" s="151"/>
-      <c r="I279" s="151"/>
-      <c r="J279" s="151"/>
-      <c r="K279" s="151"/>
+      <c r="B279" s="252"/>
+      <c r="C279" s="252"/>
+      <c r="D279" s="252"/>
+      <c r="E279" s="252"/>
+      <c r="F279" s="252"/>
+      <c r="G279" s="252"/>
+      <c r="H279" s="252"/>
+      <c r="I279" s="252"/>
+      <c r="J279" s="252"/>
+      <c r="K279" s="252"/>
       <c r="L279" s="59"/>
       <c r="M279" s="2"/>
     </row>
     <row r="280" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="151"/>
-      <c r="C280" s="151"/>
-      <c r="D280" s="151"/>
-      <c r="E280" s="151"/>
-      <c r="F280" s="151"/>
-      <c r="G280" s="151"/>
-      <c r="H280" s="151"/>
-      <c r="I280" s="151"/>
-      <c r="J280" s="151"/>
-      <c r="K280" s="151"/>
+      <c r="B280" s="252"/>
+      <c r="C280" s="252"/>
+      <c r="D280" s="252"/>
+      <c r="E280" s="252"/>
+      <c r="F280" s="252"/>
+      <c r="G280" s="252"/>
+      <c r="H280" s="252"/>
+      <c r="I280" s="252"/>
+      <c r="J280" s="252"/>
+      <c r="K280" s="252"/>
       <c r="L280" s="59"/>
       <c r="M280" s="2"/>
     </row>
@@ -6753,12 +6751,12 @@
     </row>
     <row r="284" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="147" t="s">
+      <c r="B284" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="147"/>
-      <c r="D284" s="147"/>
-      <c r="E284" s="148"/>
+      <c r="C284" s="157"/>
+      <c r="D284" s="157"/>
+      <c r="E284" s="158"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -6768,10 +6766,10 @@
     </row>
     <row r="285" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="147"/>
-      <c r="C285" s="147"/>
-      <c r="D285" s="147"/>
-      <c r="E285" s="147"/>
+      <c r="B285" s="157"/>
+      <c r="C285" s="157"/>
+      <c r="D285" s="157"/>
+      <c r="E285" s="157"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -6781,12 +6779,12 @@
     </row>
     <row r="286" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="147" t="s">
+      <c r="B286" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="147"/>
-      <c r="D286" s="147"/>
-      <c r="E286" s="148"/>
+      <c r="C286" s="157"/>
+      <c r="D286" s="157"/>
+      <c r="E286" s="158"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -6798,10 +6796,10 @@
     </row>
     <row r="287" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="147"/>
-      <c r="C287" s="147"/>
-      <c r="D287" s="147"/>
-      <c r="E287" s="147"/>
+      <c r="B287" s="157"/>
+      <c r="C287" s="157"/>
+      <c r="D287" s="157"/>
+      <c r="E287" s="157"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -6811,12 +6809,12 @@
     </row>
     <row r="288" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="147" t="s">
+      <c r="B288" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="147"/>
-      <c r="D288" s="147"/>
-      <c r="E288" s="148"/>
+      <c r="C288" s="157"/>
+      <c r="D288" s="157"/>
+      <c r="E288" s="158"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -6839,12 +6837,12 @@
     </row>
     <row r="290" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="147" t="s">
+      <c r="B290" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="147"/>
-      <c r="D290" s="147"/>
-      <c r="E290" s="148"/>
+      <c r="C290" s="157"/>
+      <c r="D290" s="157"/>
+      <c r="E290" s="158"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -6867,12 +6865,12 @@
     </row>
     <row r="292" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="147" t="s">
+      <c r="B292" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="147"/>
-      <c r="D292" s="147"/>
-      <c r="E292" s="148"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="157"/>
+      <c r="E292" s="158"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -6968,77 +6966,77 @@
     </row>
     <row r="299" spans="1:13" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="163" t="s">
+      <c r="B299" s="160" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="164"/>
-      <c r="D299" s="164"/>
-      <c r="E299" s="164"/>
-      <c r="F299" s="164"/>
-      <c r="G299" s="164"/>
-      <c r="H299" s="164"/>
-      <c r="I299" s="164"/>
-      <c r="J299" s="164"/>
-      <c r="K299" s="165"/>
+      <c r="C299" s="161"/>
+      <c r="D299" s="161"/>
+      <c r="E299" s="161"/>
+      <c r="F299" s="161"/>
+      <c r="G299" s="161"/>
+      <c r="H299" s="161"/>
+      <c r="I299" s="161"/>
+      <c r="J299" s="161"/>
+      <c r="K299" s="162"/>
       <c r="L299" s="20"/>
     </row>
     <row r="300" spans="1:13" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="166"/>
-      <c r="C300" s="167"/>
-      <c r="D300" s="167"/>
-      <c r="E300" s="167"/>
-      <c r="F300" s="167"/>
-      <c r="G300" s="167"/>
-      <c r="H300" s="167"/>
-      <c r="I300" s="167"/>
-      <c r="J300" s="167"/>
-      <c r="K300" s="168"/>
+      <c r="B300" s="163"/>
+      <c r="C300" s="164"/>
+      <c r="D300" s="164"/>
+      <c r="E300" s="164"/>
+      <c r="F300" s="164"/>
+      <c r="G300" s="164"/>
+      <c r="H300" s="164"/>
+      <c r="I300" s="164"/>
+      <c r="J300" s="164"/>
+      <c r="K300" s="165"/>
       <c r="L300" s="59"/>
       <c r="M300" s="2"/>
     </row>
     <row r="301" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="166"/>
-      <c r="C301" s="167"/>
-      <c r="D301" s="167"/>
-      <c r="E301" s="167"/>
-      <c r="F301" s="167"/>
-      <c r="G301" s="167"/>
-      <c r="H301" s="167"/>
-      <c r="I301" s="167"/>
-      <c r="J301" s="167"/>
-      <c r="K301" s="168"/>
+      <c r="B301" s="163"/>
+      <c r="C301" s="164"/>
+      <c r="D301" s="164"/>
+      <c r="E301" s="164"/>
+      <c r="F301" s="164"/>
+      <c r="G301" s="164"/>
+      <c r="H301" s="164"/>
+      <c r="I301" s="164"/>
+      <c r="J301" s="164"/>
+      <c r="K301" s="165"/>
       <c r="L301" s="59"/>
       <c r="M301" s="2"/>
     </row>
     <row r="302" spans="1:13" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="166"/>
-      <c r="C302" s="167"/>
-      <c r="D302" s="167"/>
-      <c r="E302" s="167"/>
-      <c r="F302" s="167"/>
-      <c r="G302" s="167"/>
-      <c r="H302" s="167"/>
-      <c r="I302" s="167"/>
-      <c r="J302" s="167"/>
-      <c r="K302" s="168"/>
+      <c r="B302" s="163"/>
+      <c r="C302" s="164"/>
+      <c r="D302" s="164"/>
+      <c r="E302" s="164"/>
+      <c r="F302" s="164"/>
+      <c r="G302" s="164"/>
+      <c r="H302" s="164"/>
+      <c r="I302" s="164"/>
+      <c r="J302" s="164"/>
+      <c r="K302" s="165"/>
       <c r="L302" s="59"/>
       <c r="M302" s="2"/>
     </row>
     <row r="303" spans="1:13" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="169"/>
-      <c r="C303" s="170"/>
-      <c r="D303" s="170"/>
-      <c r="E303" s="170"/>
-      <c r="F303" s="170"/>
-      <c r="G303" s="170"/>
-      <c r="H303" s="170"/>
-      <c r="I303" s="170"/>
-      <c r="J303" s="170"/>
-      <c r="K303" s="171"/>
+      <c r="B303" s="166"/>
+      <c r="C303" s="167"/>
+      <c r="D303" s="167"/>
+      <c r="E303" s="167"/>
+      <c r="F303" s="167"/>
+      <c r="G303" s="167"/>
+      <c r="H303" s="167"/>
+      <c r="I303" s="167"/>
+      <c r="J303" s="167"/>
+      <c r="K303" s="168"/>
       <c r="L303" s="59"/>
       <c r="M303" s="2"/>
     </row>
@@ -7075,78 +7073,78 @@
     </row>
     <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="163" t="s">
+      <c r="B306" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="164"/>
-      <c r="D306" s="164"/>
-      <c r="E306" s="164"/>
-      <c r="F306" s="164"/>
-      <c r="G306" s="164"/>
-      <c r="H306" s="164"/>
-      <c r="I306" s="164"/>
-      <c r="J306" s="164"/>
-      <c r="K306" s="165"/>
+      <c r="C306" s="161"/>
+      <c r="D306" s="161"/>
+      <c r="E306" s="161"/>
+      <c r="F306" s="161"/>
+      <c r="G306" s="161"/>
+      <c r="H306" s="161"/>
+      <c r="I306" s="161"/>
+      <c r="J306" s="161"/>
+      <c r="K306" s="162"/>
       <c r="L306" s="33"/>
       <c r="M306" s="2"/>
     </row>
     <row r="307" spans="1:13" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="166"/>
-      <c r="C307" s="167"/>
-      <c r="D307" s="167"/>
-      <c r="E307" s="167"/>
-      <c r="F307" s="167"/>
-      <c r="G307" s="167"/>
-      <c r="H307" s="167"/>
-      <c r="I307" s="167"/>
-      <c r="J307" s="167"/>
-      <c r="K307" s="168"/>
+      <c r="B307" s="163"/>
+      <c r="C307" s="164"/>
+      <c r="D307" s="164"/>
+      <c r="E307" s="164"/>
+      <c r="F307" s="164"/>
+      <c r="G307" s="164"/>
+      <c r="H307" s="164"/>
+      <c r="I307" s="164"/>
+      <c r="J307" s="164"/>
+      <c r="K307" s="165"/>
       <c r="L307" s="59"/>
       <c r="M307" s="2"/>
     </row>
     <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="166"/>
-      <c r="C308" s="167"/>
-      <c r="D308" s="167"/>
-      <c r="E308" s="167"/>
-      <c r="F308" s="167"/>
-      <c r="G308" s="167"/>
-      <c r="H308" s="167"/>
-      <c r="I308" s="167"/>
-      <c r="J308" s="167"/>
-      <c r="K308" s="168"/>
+      <c r="B308" s="163"/>
+      <c r="C308" s="164"/>
+      <c r="D308" s="164"/>
+      <c r="E308" s="164"/>
+      <c r="F308" s="164"/>
+      <c r="G308" s="164"/>
+      <c r="H308" s="164"/>
+      <c r="I308" s="164"/>
+      <c r="J308" s="164"/>
+      <c r="K308" s="165"/>
       <c r="L308" s="59"/>
       <c r="M308" s="2"/>
     </row>
     <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="166"/>
-      <c r="C309" s="167"/>
-      <c r="D309" s="167"/>
-      <c r="E309" s="167"/>
-      <c r="F309" s="167"/>
-      <c r="G309" s="167"/>
-      <c r="H309" s="167"/>
-      <c r="I309" s="167"/>
-      <c r="J309" s="167"/>
-      <c r="K309" s="168"/>
+      <c r="B309" s="163"/>
+      <c r="C309" s="164"/>
+      <c r="D309" s="164"/>
+      <c r="E309" s="164"/>
+      <c r="F309" s="164"/>
+      <c r="G309" s="164"/>
+      <c r="H309" s="164"/>
+      <c r="I309" s="164"/>
+      <c r="J309" s="164"/>
+      <c r="K309" s="165"/>
       <c r="L309" s="59"/>
       <c r="M309" s="2"/>
     </row>
     <row r="310" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="169"/>
-      <c r="C310" s="170"/>
-      <c r="D310" s="170"/>
-      <c r="E310" s="170"/>
-      <c r="F310" s="170"/>
-      <c r="G310" s="170"/>
-      <c r="H310" s="170"/>
-      <c r="I310" s="170"/>
-      <c r="J310" s="170"/>
-      <c r="K310" s="171"/>
+      <c r="B310" s="166"/>
+      <c r="C310" s="167"/>
+      <c r="D310" s="167"/>
+      <c r="E310" s="167"/>
+      <c r="F310" s="167"/>
+      <c r="G310" s="167"/>
+      <c r="H310" s="167"/>
+      <c r="I310" s="167"/>
+      <c r="J310" s="167"/>
+      <c r="K310" s="168"/>
       <c r="L310" s="59"/>
       <c r="M310" s="2"/>
     </row>
@@ -7316,78 +7314,78 @@
     </row>
     <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="163" t="s">
+      <c r="B321" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="164"/>
-      <c r="D321" s="164"/>
-      <c r="E321" s="164"/>
-      <c r="F321" s="164"/>
-      <c r="G321" s="164"/>
-      <c r="H321" s="164"/>
-      <c r="I321" s="164"/>
-      <c r="J321" s="164"/>
-      <c r="K321" s="165"/>
+      <c r="C321" s="161"/>
+      <c r="D321" s="161"/>
+      <c r="E321" s="161"/>
+      <c r="F321" s="161"/>
+      <c r="G321" s="161"/>
+      <c r="H321" s="161"/>
+      <c r="I321" s="161"/>
+      <c r="J321" s="161"/>
+      <c r="K321" s="162"/>
       <c r="L321" s="33"/>
       <c r="M321" s="2"/>
     </row>
     <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="166"/>
-      <c r="C322" s="167"/>
-      <c r="D322" s="167"/>
-      <c r="E322" s="167"/>
-      <c r="F322" s="167"/>
-      <c r="G322" s="167"/>
-      <c r="H322" s="167"/>
-      <c r="I322" s="167"/>
-      <c r="J322" s="167"/>
-      <c r="K322" s="168"/>
+      <c r="B322" s="163"/>
+      <c r="C322" s="164"/>
+      <c r="D322" s="164"/>
+      <c r="E322" s="164"/>
+      <c r="F322" s="164"/>
+      <c r="G322" s="164"/>
+      <c r="H322" s="164"/>
+      <c r="I322" s="164"/>
+      <c r="J322" s="164"/>
+      <c r="K322" s="165"/>
       <c r="L322" s="59"/>
       <c r="M322" s="2"/>
     </row>
     <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="166"/>
-      <c r="C323" s="167"/>
-      <c r="D323" s="167"/>
-      <c r="E323" s="167"/>
-      <c r="F323" s="167"/>
-      <c r="G323" s="167"/>
-      <c r="H323" s="167"/>
-      <c r="I323" s="167"/>
-      <c r="J323" s="167"/>
-      <c r="K323" s="168"/>
+      <c r="B323" s="163"/>
+      <c r="C323" s="164"/>
+      <c r="D323" s="164"/>
+      <c r="E323" s="164"/>
+      <c r="F323" s="164"/>
+      <c r="G323" s="164"/>
+      <c r="H323" s="164"/>
+      <c r="I323" s="164"/>
+      <c r="J323" s="164"/>
+      <c r="K323" s="165"/>
       <c r="L323" s="59"/>
       <c r="M323" s="2"/>
     </row>
     <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="166"/>
-      <c r="C324" s="167"/>
-      <c r="D324" s="167"/>
-      <c r="E324" s="167"/>
-      <c r="F324" s="167"/>
-      <c r="G324" s="167"/>
-      <c r="H324" s="167"/>
-      <c r="I324" s="167"/>
-      <c r="J324" s="167"/>
-      <c r="K324" s="168"/>
+      <c r="B324" s="163"/>
+      <c r="C324" s="164"/>
+      <c r="D324" s="164"/>
+      <c r="E324" s="164"/>
+      <c r="F324" s="164"/>
+      <c r="G324" s="164"/>
+      <c r="H324" s="164"/>
+      <c r="I324" s="164"/>
+      <c r="J324" s="164"/>
+      <c r="K324" s="165"/>
       <c r="L324" s="59"/>
       <c r="M324" s="2"/>
     </row>
     <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="169"/>
-      <c r="C325" s="170"/>
-      <c r="D325" s="170"/>
-      <c r="E325" s="170"/>
-      <c r="F325" s="170"/>
-      <c r="G325" s="170"/>
-      <c r="H325" s="170"/>
-      <c r="I325" s="170"/>
-      <c r="J325" s="170"/>
-      <c r="K325" s="171"/>
+      <c r="B325" s="166"/>
+      <c r="C325" s="167"/>
+      <c r="D325" s="167"/>
+      <c r="E325" s="167"/>
+      <c r="F325" s="167"/>
+      <c r="G325" s="167"/>
+      <c r="H325" s="167"/>
+      <c r="I325" s="167"/>
+      <c r="J325" s="167"/>
+      <c r="K325" s="168"/>
       <c r="L325" s="59"/>
       <c r="M325" s="2"/>
     </row>
@@ -7408,18 +7406,18 @@
     </row>
     <row r="327" spans="1:13" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="248" t="s">
+      <c r="B327" s="159" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="248"/>
-      <c r="D327" s="248"/>
-      <c r="E327" s="248"/>
-      <c r="F327" s="248"/>
-      <c r="G327" s="248"/>
-      <c r="H327" s="248"/>
-      <c r="I327" s="248"/>
-      <c r="J327" s="248"/>
-      <c r="K327" s="248"/>
+      <c r="C327" s="159"/>
+      <c r="D327" s="159"/>
+      <c r="E327" s="159"/>
+      <c r="F327" s="159"/>
+      <c r="G327" s="159"/>
+      <c r="H327" s="159"/>
+      <c r="I327" s="159"/>
+      <c r="J327" s="159"/>
+      <c r="K327" s="159"/>
       <c r="L327" s="19"/>
       <c r="M327" s="2"/>
     </row>
@@ -7527,74 +7525,74 @@
     </row>
     <row r="335" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="249" t="s">
+      <c r="B335" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="250"/>
-      <c r="D335" s="250"/>
-      <c r="E335" s="250"/>
-      <c r="F335" s="250"/>
-      <c r="G335" s="250"/>
-      <c r="H335" s="250"/>
-      <c r="I335" s="250"/>
-      <c r="J335" s="250"/>
-      <c r="K335" s="251"/>
+      <c r="C335" s="170"/>
+      <c r="D335" s="170"/>
+      <c r="E335" s="170"/>
+      <c r="F335" s="170"/>
+      <c r="G335" s="170"/>
+      <c r="H335" s="170"/>
+      <c r="I335" s="170"/>
+      <c r="J335" s="170"/>
+      <c r="K335" s="171"/>
       <c r="L335" s="33"/>
     </row>
     <row r="336" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="252"/>
-      <c r="C336" s="253"/>
-      <c r="D336" s="253"/>
-      <c r="E336" s="253"/>
-      <c r="F336" s="253"/>
-      <c r="G336" s="253"/>
-      <c r="H336" s="253"/>
-      <c r="I336" s="253"/>
-      <c r="J336" s="253"/>
-      <c r="K336" s="254"/>
+      <c r="B336" s="172"/>
+      <c r="C336" s="173"/>
+      <c r="D336" s="173"/>
+      <c r="E336" s="173"/>
+      <c r="F336" s="173"/>
+      <c r="G336" s="173"/>
+      <c r="H336" s="173"/>
+      <c r="I336" s="173"/>
+      <c r="J336" s="173"/>
+      <c r="K336" s="174"/>
       <c r="L336" s="59"/>
     </row>
     <row r="337" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="252"/>
-      <c r="C337" s="253"/>
-      <c r="D337" s="253"/>
-      <c r="E337" s="253"/>
-      <c r="F337" s="253"/>
-      <c r="G337" s="253"/>
-      <c r="H337" s="253"/>
-      <c r="I337" s="253"/>
-      <c r="J337" s="253"/>
-      <c r="K337" s="254"/>
+      <c r="B337" s="172"/>
+      <c r="C337" s="173"/>
+      <c r="D337" s="173"/>
+      <c r="E337" s="173"/>
+      <c r="F337" s="173"/>
+      <c r="G337" s="173"/>
+      <c r="H337" s="173"/>
+      <c r="I337" s="173"/>
+      <c r="J337" s="173"/>
+      <c r="K337" s="174"/>
       <c r="L337" s="59"/>
     </row>
     <row r="338" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="252"/>
-      <c r="C338" s="253"/>
-      <c r="D338" s="253"/>
-      <c r="E338" s="253"/>
-      <c r="F338" s="253"/>
-      <c r="G338" s="253"/>
-      <c r="H338" s="253"/>
-      <c r="I338" s="253"/>
-      <c r="J338" s="253"/>
-      <c r="K338" s="254"/>
+      <c r="B338" s="172"/>
+      <c r="C338" s="173"/>
+      <c r="D338" s="173"/>
+      <c r="E338" s="173"/>
+      <c r="F338" s="173"/>
+      <c r="G338" s="173"/>
+      <c r="H338" s="173"/>
+      <c r="I338" s="173"/>
+      <c r="J338" s="173"/>
+      <c r="K338" s="174"/>
       <c r="L338" s="59"/>
     </row>
     <row r="339" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="255"/>
-      <c r="C339" s="256"/>
-      <c r="D339" s="256"/>
-      <c r="E339" s="256"/>
-      <c r="F339" s="256"/>
-      <c r="G339" s="256"/>
-      <c r="H339" s="256"/>
-      <c r="I339" s="256"/>
-      <c r="J339" s="256"/>
-      <c r="K339" s="257"/>
+      <c r="B339" s="175"/>
+      <c r="C339" s="176"/>
+      <c r="D339" s="176"/>
+      <c r="E339" s="176"/>
+      <c r="F339" s="176"/>
+      <c r="G339" s="176"/>
+      <c r="H339" s="176"/>
+      <c r="I339" s="176"/>
+      <c r="J339" s="176"/>
+      <c r="K339" s="177"/>
       <c r="L339" s="59"/>
     </row>
     <row r="340" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7613,18 +7611,18 @@
     </row>
     <row r="341" spans="1:12" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="248" t="s">
+      <c r="B341" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="248"/>
-      <c r="D341" s="248"/>
-      <c r="E341" s="248"/>
-      <c r="F341" s="248"/>
-      <c r="G341" s="248"/>
-      <c r="H341" s="248"/>
-      <c r="I341" s="248"/>
-      <c r="J341" s="248"/>
-      <c r="K341" s="248"/>
+      <c r="C341" s="159"/>
+      <c r="D341" s="159"/>
+      <c r="E341" s="159"/>
+      <c r="F341" s="159"/>
+      <c r="G341" s="159"/>
+      <c r="H341" s="159"/>
+      <c r="I341" s="159"/>
+      <c r="J341" s="159"/>
+      <c r="K341" s="159"/>
       <c r="L341" s="59"/>
     </row>
     <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7670,12 +7668,12 @@
     </row>
     <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="173" t="s">
+      <c r="B345" s="156" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="173"/>
-      <c r="D345" s="173"/>
-      <c r="E345" s="173"/>
+      <c r="C345" s="156"/>
+      <c r="D345" s="156"/>
+      <c r="E345" s="156"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -7696,12 +7694,12 @@
     </row>
     <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="173" t="s">
+      <c r="B347" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="173"/>
-      <c r="D347" s="173"/>
-      <c r="E347" s="173"/>
+      <c r="C347" s="156"/>
+      <c r="D347" s="156"/>
+      <c r="E347" s="156"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -7724,13 +7722,13 @@
     </row>
     <row r="349" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="173" t="s">
+      <c r="B349" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="173"/>
-      <c r="D349" s="173"/>
-      <c r="E349" s="173"/>
-      <c r="F349" s="148"/>
+      <c r="C349" s="156"/>
+      <c r="D349" s="156"/>
+      <c r="E349" s="156"/>
+      <c r="F349" s="158"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -7751,13 +7749,13 @@
     </row>
     <row r="351" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="173" t="s">
+      <c r="B351" s="156" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="173"/>
-      <c r="D351" s="173"/>
-      <c r="E351" s="173"/>
-      <c r="F351" s="148"/>
+      <c r="C351" s="156"/>
+      <c r="D351" s="156"/>
+      <c r="E351" s="156"/>
+      <c r="F351" s="158"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -7778,13 +7776,13 @@
     </row>
     <row r="353" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="173" t="s">
+      <c r="B353" s="156" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="173"/>
-      <c r="D353" s="173"/>
-      <c r="E353" s="173"/>
-      <c r="F353" s="148"/>
+      <c r="C353" s="156"/>
+      <c r="D353" s="156"/>
+      <c r="E353" s="156"/>
+      <c r="F353" s="158"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -7851,78 +7849,78 @@
     </row>
     <row r="358" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="163" t="s">
+      <c r="B358" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="164"/>
-      <c r="D358" s="164"/>
-      <c r="E358" s="164"/>
-      <c r="F358" s="164"/>
-      <c r="G358" s="164"/>
-      <c r="H358" s="164"/>
-      <c r="I358" s="164"/>
-      <c r="J358" s="164"/>
-      <c r="K358" s="165"/>
+      <c r="C358" s="161"/>
+      <c r="D358" s="161"/>
+      <c r="E358" s="161"/>
+      <c r="F358" s="161"/>
+      <c r="G358" s="161"/>
+      <c r="H358" s="161"/>
+      <c r="I358" s="161"/>
+      <c r="J358" s="161"/>
+      <c r="K358" s="162"/>
       <c r="L358" s="33"/>
       <c r="M358" s="2"/>
     </row>
     <row r="359" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="166"/>
-      <c r="C359" s="167"/>
-      <c r="D359" s="167"/>
-      <c r="E359" s="167"/>
-      <c r="F359" s="167"/>
-      <c r="G359" s="167"/>
-      <c r="H359" s="167"/>
-      <c r="I359" s="167"/>
-      <c r="J359" s="167"/>
-      <c r="K359" s="168"/>
+      <c r="B359" s="163"/>
+      <c r="C359" s="164"/>
+      <c r="D359" s="164"/>
+      <c r="E359" s="164"/>
+      <c r="F359" s="164"/>
+      <c r="G359" s="164"/>
+      <c r="H359" s="164"/>
+      <c r="I359" s="164"/>
+      <c r="J359" s="164"/>
+      <c r="K359" s="165"/>
       <c r="L359" s="59"/>
       <c r="M359" s="2"/>
     </row>
     <row r="360" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="166"/>
-      <c r="C360" s="167"/>
-      <c r="D360" s="167"/>
-      <c r="E360" s="167"/>
-      <c r="F360" s="167"/>
-      <c r="G360" s="167"/>
-      <c r="H360" s="167"/>
-      <c r="I360" s="167"/>
-      <c r="J360" s="167"/>
-      <c r="K360" s="168"/>
+      <c r="B360" s="163"/>
+      <c r="C360" s="164"/>
+      <c r="D360" s="164"/>
+      <c r="E360" s="164"/>
+      <c r="F360" s="164"/>
+      <c r="G360" s="164"/>
+      <c r="H360" s="164"/>
+      <c r="I360" s="164"/>
+      <c r="J360" s="164"/>
+      <c r="K360" s="165"/>
       <c r="L360" s="59"/>
       <c r="M360" s="2"/>
     </row>
     <row r="361" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="166"/>
-      <c r="C361" s="167"/>
-      <c r="D361" s="167"/>
-      <c r="E361" s="167"/>
-      <c r="F361" s="167"/>
-      <c r="G361" s="167"/>
-      <c r="H361" s="167"/>
-      <c r="I361" s="167"/>
-      <c r="J361" s="167"/>
-      <c r="K361" s="168"/>
+      <c r="B361" s="163"/>
+      <c r="C361" s="164"/>
+      <c r="D361" s="164"/>
+      <c r="E361" s="164"/>
+      <c r="F361" s="164"/>
+      <c r="G361" s="164"/>
+      <c r="H361" s="164"/>
+      <c r="I361" s="164"/>
+      <c r="J361" s="164"/>
+      <c r="K361" s="165"/>
       <c r="L361" s="59"/>
       <c r="M361" s="2"/>
     </row>
     <row r="362" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="169"/>
-      <c r="C362" s="170"/>
-      <c r="D362" s="170"/>
-      <c r="E362" s="170"/>
-      <c r="F362" s="170"/>
-      <c r="G362" s="170"/>
-      <c r="H362" s="170"/>
-      <c r="I362" s="170"/>
-      <c r="J362" s="170"/>
-      <c r="K362" s="171"/>
+      <c r="B362" s="166"/>
+      <c r="C362" s="167"/>
+      <c r="D362" s="167"/>
+      <c r="E362" s="167"/>
+      <c r="F362" s="167"/>
+      <c r="G362" s="167"/>
+      <c r="H362" s="167"/>
+      <c r="I362" s="167"/>
+      <c r="J362" s="167"/>
+      <c r="K362" s="168"/>
       <c r="L362" s="59"/>
       <c r="M362" s="2"/>
     </row>
@@ -7993,27 +7991,27 @@
     </row>
     <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="238" t="s">
+      <c r="B367" s="182" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="239"/>
-      <c r="D367" s="227" t="s">
+      <c r="C367" s="183"/>
+      <c r="D367" s="154" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="228"/>
-      <c r="F367" s="228"/>
-      <c r="G367" s="228"/>
-      <c r="H367" s="228"/>
-      <c r="I367" s="228"/>
-      <c r="J367" s="228"/>
-      <c r="K367" s="229"/>
+      <c r="E367" s="178"/>
+      <c r="F367" s="178"/>
+      <c r="G367" s="178"/>
+      <c r="H367" s="178"/>
+      <c r="I367" s="178"/>
+      <c r="J367" s="178"/>
+      <c r="K367" s="155"/>
       <c r="L367" s="19"/>
       <c r="M367" s="2"/>
     </row>
     <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="227"/>
-      <c r="C368" s="229"/>
+      <c r="B368" s="154"/>
+      <c r="C368" s="155"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8027,18 +8025,18 @@
     </row>
     <row r="369" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="172" t="s">
+      <c r="B369" s="209" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="172"/>
-      <c r="D369" s="172"/>
-      <c r="E369" s="172"/>
-      <c r="F369" s="172"/>
-      <c r="G369" s="172"/>
-      <c r="H369" s="172"/>
-      <c r="I369" s="172"/>
-      <c r="J369" s="172"/>
-      <c r="K369" s="172"/>
+      <c r="C369" s="209"/>
+      <c r="D369" s="209"/>
+      <c r="E369" s="209"/>
+      <c r="F369" s="209"/>
+      <c r="G369" s="209"/>
+      <c r="H369" s="209"/>
+      <c r="I369" s="209"/>
+      <c r="J369" s="209"/>
+      <c r="K369" s="209"/>
       <c r="L369" s="12"/>
       <c r="M369" s="2"/>
     </row>
@@ -8121,20 +8119,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="216" t="s">
+      <c r="C375" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="216"/>
-      <c r="E375" s="217" t="s">
+      <c r="D375" s="189"/>
+      <c r="E375" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="217"/>
-      <c r="G375" s="217"/>
-      <c r="H375" s="217" t="s">
+      <c r="F375" s="188"/>
+      <c r="G375" s="188"/>
+      <c r="H375" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="217"/>
-      <c r="J375" s="217"/>
+      <c r="I375" s="188"/>
+      <c r="J375" s="188"/>
       <c r="K375" s="21"/>
       <c r="L375" s="17"/>
     </row>
@@ -8143,14 +8141,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="216"/>
-      <c r="D376" s="216"/>
-      <c r="E376" s="217"/>
-      <c r="F376" s="217"/>
-      <c r="G376" s="217"/>
-      <c r="H376" s="217"/>
-      <c r="I376" s="217"/>
-      <c r="J376" s="217"/>
+      <c r="C376" s="189"/>
+      <c r="D376" s="189"/>
+      <c r="E376" s="188"/>
+      <c r="F376" s="188"/>
+      <c r="G376" s="188"/>
+      <c r="H376" s="188"/>
+      <c r="I376" s="188"/>
+      <c r="J376" s="188"/>
       <c r="K376" s="33"/>
       <c r="L376" s="75"/>
     </row>
@@ -8159,14 +8157,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="216"/>
-      <c r="D377" s="216"/>
-      <c r="E377" s="217"/>
-      <c r="F377" s="217"/>
-      <c r="G377" s="217"/>
-      <c r="H377" s="217"/>
-      <c r="I377" s="217"/>
-      <c r="J377" s="217"/>
+      <c r="C377" s="189"/>
+      <c r="D377" s="189"/>
+      <c r="E377" s="188"/>
+      <c r="F377" s="188"/>
+      <c r="G377" s="188"/>
+      <c r="H377" s="188"/>
+      <c r="I377" s="188"/>
+      <c r="J377" s="188"/>
       <c r="K377" s="33"/>
       <c r="L377" s="33"/>
     </row>
@@ -8175,14 +8173,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="216"/>
-      <c r="D378" s="216"/>
-      <c r="E378" s="217"/>
-      <c r="F378" s="217"/>
-      <c r="G378" s="217"/>
-      <c r="H378" s="217"/>
-      <c r="I378" s="217"/>
-      <c r="J378" s="217"/>
+      <c r="C378" s="189"/>
+      <c r="D378" s="189"/>
+      <c r="E378" s="188"/>
+      <c r="F378" s="188"/>
+      <c r="G378" s="188"/>
+      <c r="H378" s="188"/>
+      <c r="I378" s="188"/>
+      <c r="J378" s="188"/>
       <c r="K378" s="33"/>
       <c r="L378" s="33"/>
     </row>
@@ -8191,14 +8189,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="216"/>
-      <c r="D379" s="216"/>
-      <c r="E379" s="217"/>
-      <c r="F379" s="217"/>
-      <c r="G379" s="217"/>
-      <c r="H379" s="217"/>
-      <c r="I379" s="217"/>
-      <c r="J379" s="217"/>
+      <c r="C379" s="189"/>
+      <c r="D379" s="189"/>
+      <c r="E379" s="188"/>
+      <c r="F379" s="188"/>
+      <c r="G379" s="188"/>
+      <c r="H379" s="188"/>
+      <c r="I379" s="188"/>
+      <c r="J379" s="188"/>
       <c r="K379" s="33"/>
       <c r="L379" s="33"/>
     </row>
@@ -8207,14 +8205,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="216"/>
-      <c r="D380" s="216"/>
-      <c r="E380" s="217"/>
-      <c r="F380" s="217"/>
-      <c r="G380" s="217"/>
-      <c r="H380" s="217"/>
-      <c r="I380" s="217"/>
-      <c r="J380" s="217"/>
+      <c r="C380" s="189"/>
+      <c r="D380" s="189"/>
+      <c r="E380" s="188"/>
+      <c r="F380" s="188"/>
+      <c r="G380" s="188"/>
+      <c r="H380" s="188"/>
+      <c r="I380" s="188"/>
+      <c r="J380" s="188"/>
       <c r="K380" s="33"/>
       <c r="L380" s="33"/>
     </row>
@@ -8223,14 +8221,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="216"/>
-      <c r="D381" s="216"/>
-      <c r="E381" s="217"/>
-      <c r="F381" s="217"/>
-      <c r="G381" s="217"/>
-      <c r="H381" s="217"/>
-      <c r="I381" s="217"/>
-      <c r="J381" s="217"/>
+      <c r="C381" s="189"/>
+      <c r="D381" s="189"/>
+      <c r="E381" s="188"/>
+      <c r="F381" s="188"/>
+      <c r="G381" s="188"/>
+      <c r="H381" s="188"/>
+      <c r="I381" s="188"/>
+      <c r="J381" s="188"/>
       <c r="K381" s="33"/>
       <c r="L381" s="33"/>
     </row>
@@ -8239,14 +8237,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="216"/>
-      <c r="D382" s="216"/>
-      <c r="E382" s="217"/>
-      <c r="F382" s="217"/>
-      <c r="G382" s="217"/>
-      <c r="H382" s="217"/>
-      <c r="I382" s="217"/>
-      <c r="J382" s="217"/>
+      <c r="C382" s="189"/>
+      <c r="D382" s="189"/>
+      <c r="E382" s="188"/>
+      <c r="F382" s="188"/>
+      <c r="G382" s="188"/>
+      <c r="H382" s="188"/>
+      <c r="I382" s="188"/>
+      <c r="J382" s="188"/>
       <c r="K382" s="33"/>
       <c r="L382" s="33"/>
     </row>
@@ -8361,52 +8359,52 @@
     </row>
     <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="216" t="s">
+      <c r="C392" s="189" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="216"/>
+      <c r="D392" s="189"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
     </row>
     <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="145" t="s">
+      <c r="B393" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="145" t="s">
+      <c r="C393" s="202" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="145" t="s">
+      <c r="D393" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="145" t="s">
+      <c r="E393" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="218" t="s">
+      <c r="F393" s="203" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="218" t="s">
+      <c r="G393" s="203" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="218" t="s">
+      <c r="H393" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="217" t="s">
+      <c r="I393" s="188" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="217"/>
+      <c r="J393" s="188"/>
       <c r="K393" s="24"/>
     </row>
     <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="145"/>
-      <c r="C394" s="145"/>
-      <c r="D394" s="145"/>
-      <c r="E394" s="145"/>
-      <c r="F394" s="219"/>
-      <c r="G394" s="219"/>
-      <c r="H394" s="219"/>
+      <c r="B394" s="202"/>
+      <c r="C394" s="202"/>
+      <c r="D394" s="202"/>
+      <c r="E394" s="202"/>
+      <c r="F394" s="204"/>
+      <c r="G394" s="204"/>
+      <c r="H394" s="204"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -8691,20 +8689,20 @@
     </row>
     <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="152" t="s">
+      <c r="B414" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="154"/>
-      <c r="D414" s="152" t="s">
+      <c r="C414" s="200"/>
+      <c r="D414" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="153"/>
-      <c r="F414" s="153"/>
-      <c r="G414" s="153"/>
-      <c r="H414" s="153"/>
-      <c r="I414" s="153"/>
-      <c r="J414" s="154"/>
-      <c r="K414" s="218" t="s">
+      <c r="E414" s="199"/>
+      <c r="F414" s="199"/>
+      <c r="G414" s="199"/>
+      <c r="H414" s="199"/>
+      <c r="I414" s="199"/>
+      <c r="J414" s="200"/>
+      <c r="K414" s="203" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8737,7 +8735,7 @@
       <c r="J415" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K415" s="219"/>
+      <c r="K415" s="204"/>
     </row>
     <row r="416" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -8968,22 +8966,22 @@
     </row>
     <row r="431" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="152" t="s">
+      <c r="B431" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="154"/>
-      <c r="D431" s="226" t="s">
+      <c r="C431" s="200"/>
+      <c r="D431" s="208" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="152" t="s">
+      <c r="E431" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="153"/>
-      <c r="G431" s="153"/>
-      <c r="H431" s="153"/>
-      <c r="I431" s="153"/>
-      <c r="J431" s="154"/>
-      <c r="K431" s="218" t="s">
+      <c r="F431" s="199"/>
+      <c r="G431" s="199"/>
+      <c r="H431" s="199"/>
+      <c r="I431" s="199"/>
+      <c r="J431" s="200"/>
+      <c r="K431" s="203" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8995,7 +8993,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="216"/>
+      <c r="D432" s="189"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9014,7 +9012,7 @@
       <c r="J432" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K432" s="219"/>
+      <c r="K432" s="204"/>
     </row>
     <row r="433" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9190,25 +9188,25 @@
     </row>
     <row r="445" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="233" t="s">
+      <c r="B445" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="234"/>
-      <c r="D445" s="152" t="s">
+      <c r="C445" s="195"/>
+      <c r="D445" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="153"/>
-      <c r="F445" s="153"/>
-      <c r="G445" s="153"/>
-      <c r="H445" s="153"/>
-      <c r="I445" s="153"/>
-      <c r="J445" s="154"/>
-      <c r="K445" s="237"/>
+      <c r="E445" s="199"/>
+      <c r="F445" s="199"/>
+      <c r="G445" s="199"/>
+      <c r="H445" s="199"/>
+      <c r="I445" s="199"/>
+      <c r="J445" s="200"/>
+      <c r="K445" s="201"/>
     </row>
     <row r="446" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="235"/>
-      <c r="C446" s="236"/>
+      <c r="B446" s="196"/>
+      <c r="C446" s="197"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9230,14 +9228,14 @@
       <c r="J446" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K446" s="237"/>
+      <c r="K446" s="201"/>
     </row>
     <row r="447" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="227" t="s">
+      <c r="B447" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="229"/>
+      <c r="C447" s="155"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9249,10 +9247,10 @@
     </row>
     <row r="448" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="227" t="s">
+      <c r="B448" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="229"/>
+      <c r="C448" s="155"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9264,10 +9262,10 @@
     </row>
     <row r="449" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="227" t="s">
+      <c r="B449" s="154" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="229"/>
+      <c r="C449" s="155"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9279,10 +9277,10 @@
     </row>
     <row r="450" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="152" t="s">
+      <c r="B450" s="198" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="154"/>
+      <c r="C450" s="200"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -9596,17 +9594,17 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="223" t="s">
-        <v>341</v>
-      </c>
-      <c r="D472" s="224"/>
-      <c r="E472" s="224"/>
-      <c r="F472" s="224"/>
-      <c r="G472" s="224"/>
-      <c r="H472" s="224"/>
-      <c r="I472" s="224"/>
-      <c r="J472" s="224"/>
-      <c r="K472" s="225"/>
+      <c r="C472" s="147" t="s">
+        <v>340</v>
+      </c>
+      <c r="D472" s="148"/>
+      <c r="E472" s="148"/>
+      <c r="F472" s="148"/>
+      <c r="G472" s="148"/>
+      <c r="H472" s="148"/>
+      <c r="I472" s="148"/>
+      <c r="J472" s="148"/>
+      <c r="K472" s="149"/>
       <c r="L472" s="135"/>
     </row>
     <row r="473" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9640,10 +9638,10 @@
     <row r="475" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="216" t="s">
+      <c r="C475" s="189" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="216"/>
+      <c r="D475" s="189"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -9654,42 +9652,42 @@
     </row>
     <row r="476" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="145" t="s">
+      <c r="B476" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="145" t="s">
+      <c r="C476" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="145" t="s">
+      <c r="D476" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="145" t="s">
+      <c r="E476" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="218" t="s">
+      <c r="F476" s="203" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="218" t="s">
+      <c r="G476" s="203" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="218" t="s">
+      <c r="H476" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="220" t="s">
+      <c r="I476" s="205" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="221"/>
-      <c r="K476" s="222"/>
+      <c r="J476" s="206"/>
+      <c r="K476" s="207"/>
     </row>
     <row r="477" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="145"/>
-      <c r="C477" s="145"/>
-      <c r="D477" s="145"/>
-      <c r="E477" s="145"/>
-      <c r="F477" s="219"/>
-      <c r="G477" s="219"/>
-      <c r="H477" s="219"/>
+      <c r="B477" s="202"/>
+      <c r="C477" s="202"/>
+      <c r="D477" s="202"/>
+      <c r="E477" s="202"/>
+      <c r="F477" s="204"/>
+      <c r="G477" s="204"/>
+      <c r="H477" s="204"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -9722,21 +9720,20 @@
         <v>583.91</v>
       </c>
       <c r="H478" s="127">
-        <f>281025.92+15464.06</f>
-        <v>296489.98</v>
+        <v>369853.65</v>
       </c>
       <c r="J478" s="140">
         <f>M478/2</f>
-        <v>148244.99</v>
+        <v>184926.82500000001</v>
       </c>
       <c r="K478" s="140">
         <f>M478/2</f>
-        <v>148244.99</v>
+        <v>184926.82500000001</v>
       </c>
       <c r="L478" s="79"/>
       <c r="M478" s="139">
         <f>H478</f>
-        <v>296489.98</v>
+        <v>369853.65</v>
       </c>
     </row>
     <row r="479" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9825,10 +9822,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="210" t="s">
+      <c r="F484" s="184" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="212"/>
+      <c r="G484" s="185"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -9843,10 +9840,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="213" t="s">
+      <c r="F485" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="215"/>
+      <c r="G485" s="181"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -9861,10 +9858,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="213" t="s">
+      <c r="F486" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="G486" s="215"/>
+      <c r="G486" s="181"/>
       <c r="H486" s="127">
         <v>17290.75</v>
       </c>
@@ -9879,13 +9876,13 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="231" t="s">
+      <c r="F487" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="G487" s="232"/>
+      <c r="G487" s="193"/>
       <c r="H487" s="138">
         <f>SUM(H478:H486)+0.01</f>
-        <v>348742.24</v>
+        <v>422105.91000000003</v>
       </c>
       <c r="I487" s="79"/>
       <c r="J487" s="79"/>
@@ -9961,7 +9958,7 @@
       <c r="D492" s="79"/>
       <c r="E492" s="79"/>
       <c r="F492" s="119" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G492" s="78"/>
       <c r="H492" s="79"/>
@@ -10018,26 +10015,26 @@
     </row>
     <row r="496" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="233" t="s">
+      <c r="B496" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="C496" s="234"/>
-      <c r="D496" s="152" t="s">
+      <c r="C496" s="195"/>
+      <c r="D496" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="E496" s="153"/>
-      <c r="F496" s="153"/>
-      <c r="G496" s="153"/>
-      <c r="H496" s="153"/>
-      <c r="I496" s="153"/>
-      <c r="J496" s="154"/>
-      <c r="K496" s="237"/>
+      <c r="E496" s="199"/>
+      <c r="F496" s="199"/>
+      <c r="G496" s="199"/>
+      <c r="H496" s="199"/>
+      <c r="I496" s="199"/>
+      <c r="J496" s="200"/>
+      <c r="K496" s="201"/>
       <c r="L496" s="79"/>
     </row>
     <row r="497" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="235"/>
-      <c r="C497" s="236"/>
+      <c r="B497" s="196"/>
+      <c r="C497" s="197"/>
       <c r="D497" s="74">
         <v>1</v>
       </c>
@@ -10059,15 +10056,15 @@
       <c r="J497" s="74">
         <v>10</v>
       </c>
-      <c r="K497" s="237"/>
+      <c r="K497" s="201"/>
       <c r="L497" s="79"/>
     </row>
     <row r="498" spans="1:12" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="210" t="s">
-        <v>342</v>
-      </c>
-      <c r="C498" s="212"/>
+      <c r="B498" s="184" t="s">
+        <v>341</v>
+      </c>
+      <c r="C498" s="185"/>
       <c r="D498" s="102"/>
       <c r="E498" s="142">
         <v>3500</v>
@@ -10088,10 +10085,10 @@
     </row>
     <row r="499" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="227" t="s">
+      <c r="B499" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="C499" s="229"/>
+      <c r="C499" s="155"/>
       <c r="D499" s="81"/>
       <c r="E499" s="81"/>
       <c r="F499" s="81"/>
@@ -10104,10 +10101,10 @@
     </row>
     <row r="500" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="227" t="s">
+      <c r="B500" s="154" t="s">
         <v>220</v>
       </c>
-      <c r="C500" s="229"/>
+      <c r="C500" s="155"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10120,9 +10117,9 @@
     </row>
     <row r="501" spans="1:12" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="78"/>
-      <c r="B501" s="242"/>
-      <c r="C501" s="242"/>
-      <c r="D501" s="242"/>
+      <c r="B501" s="145"/>
+      <c r="C501" s="145"/>
+      <c r="D501" s="145"/>
       <c r="E501" s="39"/>
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
@@ -10519,12 +10516,12 @@
       <c r="K528" s="79"/>
     </row>
     <row r="529" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="182" t="s">
+      <c r="A529" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="B529" s="182"/>
-      <c r="C529" s="182"/>
-      <c r="D529" s="182"/>
+      <c r="B529" s="190"/>
+      <c r="C529" s="190"/>
+      <c r="D529" s="190"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="79"/>
@@ -10596,34 +10593,34 @@
       <c r="J534" s="78"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A535" s="230" t="s">
+      <c r="A535" s="191" t="s">
         <v>248</v>
       </c>
-      <c r="B535" s="230"/>
-      <c r="C535" s="230"/>
-      <c r="D535" s="230"/>
-      <c r="E535" s="230"/>
-      <c r="F535" s="230"/>
-      <c r="G535" s="230"/>
-      <c r="H535" s="230"/>
-      <c r="I535" s="230"/>
-      <c r="J535" s="230"/>
-      <c r="K535" s="230"/>
+      <c r="B535" s="191"/>
+      <c r="C535" s="191"/>
+      <c r="D535" s="191"/>
+      <c r="E535" s="191"/>
+      <c r="F535" s="191"/>
+      <c r="G535" s="191"/>
+      <c r="H535" s="191"/>
+      <c r="I535" s="191"/>
+      <c r="J535" s="191"/>
+      <c r="K535" s="191"/>
     </row>
     <row r="536" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="230" t="s">
+      <c r="A536" s="191" t="s">
         <v>271</v>
       </c>
-      <c r="B536" s="230"/>
-      <c r="C536" s="230"/>
-      <c r="D536" s="230"/>
-      <c r="E536" s="230"/>
-      <c r="F536" s="230"/>
-      <c r="G536" s="230"/>
-      <c r="H536" s="230"/>
-      <c r="I536" s="230"/>
-      <c r="J536" s="230"/>
-      <c r="K536" s="230"/>
+      <c r="B536" s="191"/>
+      <c r="C536" s="191"/>
+      <c r="D536" s="191"/>
+      <c r="E536" s="191"/>
+      <c r="F536" s="191"/>
+      <c r="G536" s="191"/>
+      <c r="H536" s="191"/>
+      <c r="I536" s="191"/>
+      <c r="J536" s="191"/>
+      <c r="K536" s="191"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="79"/>
@@ -10652,19 +10649,19 @@
       <c r="J538" s="78"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A539" s="230" t="s">
+      <c r="A539" s="191" t="s">
         <v>250</v>
       </c>
-      <c r="B539" s="230"/>
-      <c r="C539" s="230"/>
-      <c r="D539" s="230"/>
-      <c r="E539" s="230"/>
-      <c r="F539" s="230"/>
-      <c r="G539" s="230"/>
-      <c r="H539" s="230"/>
-      <c r="I539" s="230"/>
-      <c r="J539" s="230"/>
-      <c r="K539" s="230"/>
+      <c r="B539" s="191"/>
+      <c r="C539" s="191"/>
+      <c r="D539" s="191"/>
+      <c r="E539" s="191"/>
+      <c r="F539" s="191"/>
+      <c r="G539" s="191"/>
+      <c r="H539" s="191"/>
+      <c r="I539" s="191"/>
+      <c r="J539" s="191"/>
+      <c r="K539" s="191"/>
     </row>
     <row r="540" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="78"/>
@@ -10680,6 +10677,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:K245"/>
+    <mergeCell ref="B246:K246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:K280"/>
+    <mergeCell ref="D268:K268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:K227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:K162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:K264"/>
+    <mergeCell ref="B369:K369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:K216"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B129:K129"/>
+    <mergeCell ref="B143:K143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:K123"/>
+    <mergeCell ref="B193:K197"/>
+    <mergeCell ref="B200:K204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:K476"/>
+    <mergeCell ref="C472:K472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="K414:K415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="K431:K432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A535:K535"/>
+    <mergeCell ref="A536:K536"/>
+    <mergeCell ref="A539:K539"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B496:C497"/>
+    <mergeCell ref="D496:J496"/>
+    <mergeCell ref="K496:K497"/>
+    <mergeCell ref="B498:C498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="K445:K446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="B501:D501"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -10704,134 +10829,6 @@
     <mergeCell ref="D367:K367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:K237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A535:K535"/>
-    <mergeCell ref="A536:K536"/>
-    <mergeCell ref="A539:K539"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B496:C497"/>
-    <mergeCell ref="D496:J496"/>
-    <mergeCell ref="K496:K497"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="K445:K446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:K476"/>
-    <mergeCell ref="C472:K472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="K414:K415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="K431:K432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:K369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:K216"/>
-    <mergeCell ref="B126:K126"/>
-    <mergeCell ref="B129:K129"/>
-    <mergeCell ref="B143:K143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:K123"/>
-    <mergeCell ref="B193:K197"/>
-    <mergeCell ref="B200:K204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:K245"/>
-    <mergeCell ref="B246:K246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:K280"/>
-    <mergeCell ref="D268:K268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:K227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:K162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:K264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IE santa rosa.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IE santa rosa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\5. IOARR IEP 54411 SANTA ROSA\16.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0005\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6903F9FE-4E90-4274-8B3A-5CE90EF395C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656F72FA-39DE-4744-B685-3E91C0D09C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="13440" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54411 SR" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'IEP N° 54411 SR'!$A$2:$K$540</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1955,18 +1954,321 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1976,15 +2278,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1992,15 +2285,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2008,291 +2292,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2605,49 +2604,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="210" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="177"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="214" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="217"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2679,17 +2678,17 @@
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="147" t="s">
         <v>340</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2873,10 +2872,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="243" t="s">
+      <c r="D21" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="243"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2903,10 +2902,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="243" t="s">
+      <c r="D23" s="146" t="s">
         <v>331</v>
       </c>
-      <c r="E23" s="243"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2964,13 +2963,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="244" t="s">
+      <c r="F27" s="150" t="s">
         <v>338</v>
       </c>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="244"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
       <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2987,21 +2986,21 @@
     </row>
     <row r="29" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="245" t="s">
+      <c r="G29" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="H29" s="246"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="246"/>
-      <c r="K29" s="247"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="153"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3019,11 +3018,11 @@
     </row>
     <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="241"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3175,12 +3174,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="213" t="s">
+      <c r="G40" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="214"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="215"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="181"/>
       <c r="K40" s="78"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3192,12 +3191,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="213" t="s">
+      <c r="G41" s="179" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="214"/>
-      <c r="I41" s="214"/>
-      <c r="J41" s="215"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="181"/>
       <c r="K41" s="78"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3209,12 +3208,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="213" t="s">
+      <c r="G42" s="179" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="214"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="215"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181"/>
       <c r="K42" s="78"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3226,12 +3225,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="213" t="s">
+      <c r="G43" s="179" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="214"/>
-      <c r="I43" s="214"/>
-      <c r="J43" s="215"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="181"/>
       <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3272,12 +3271,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="213" t="s">
+      <c r="G46" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="214"/>
-      <c r="I46" s="214"/>
-      <c r="J46" s="215"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="181"/>
       <c r="K46" s="78"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3289,12 +3288,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="213" t="s">
+      <c r="G47" s="179" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="214"/>
-      <c r="I47" s="214"/>
-      <c r="J47" s="215"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="180"/>
+      <c r="J47" s="181"/>
       <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3306,12 +3305,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="210" t="s">
+      <c r="G48" s="184" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="212"/>
+      <c r="H48" s="248"/>
+      <c r="I48" s="248"/>
+      <c r="J48" s="185"/>
       <c r="K48" s="78"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -3374,12 +3373,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="213" t="s">
+      <c r="G52" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="214"/>
-      <c r="I52" s="214"/>
-      <c r="J52" s="215"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
+      <c r="J52" s="181"/>
       <c r="K52" s="78"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -3391,12 +3390,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="213" t="s">
+      <c r="G53" s="179" t="s">
         <v>327</v>
       </c>
-      <c r="H53" s="214"/>
-      <c r="I53" s="214"/>
-      <c r="J53" s="215"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="180"/>
+      <c r="J53" s="181"/>
       <c r="K53" s="78"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3630,14 +3629,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="227" t="s">
+      <c r="E68" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="229"/>
+      <c r="F68" s="178"/>
+      <c r="G68" s="178"/>
+      <c r="H68" s="178"/>
+      <c r="I68" s="178"/>
+      <c r="J68" s="155"/>
       <c r="K68" s="137"/>
     </row>
     <row r="69" spans="1:11" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3698,11 +3697,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="145" t="s">
+      <c r="F72" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="145"/>
-      <c r="H72" s="145"/>
+      <c r="G72" s="202"/>
+      <c r="H72" s="202"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3719,11 +3718,11 @@
         <v>330</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="146" t="s">
+      <c r="F73" s="249" t="s">
         <v>339</v>
       </c>
-      <c r="G73" s="146"/>
-      <c r="H73" s="146"/>
+      <c r="G73" s="249"/>
+      <c r="H73" s="249"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3846,10 +3845,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="217" t="s">
+      <c r="D82" s="188" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="217"/>
+      <c r="E82" s="188"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -3930,17 +3929,17 @@
     </row>
     <row r="87" spans="1:11" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="150" t="s">
+      <c r="B87" s="251" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="150"/>
-      <c r="D87" s="150"/>
-      <c r="E87" s="150"/>
-      <c r="F87" s="150"/>
-      <c r="G87" s="150"/>
-      <c r="H87" s="150"/>
-      <c r="I87" s="150"/>
-      <c r="J87" s="150"/>
+      <c r="C87" s="251"/>
+      <c r="D87" s="251"/>
+      <c r="E87" s="251"/>
+      <c r="F87" s="251"/>
+      <c r="G87" s="251"/>
+      <c r="H87" s="251"/>
+      <c r="I87" s="251"/>
+      <c r="J87" s="251"/>
       <c r="K87" s="79"/>
     </row>
     <row r="88" spans="1:11" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4096,10 +4095,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="155" t="s">
+      <c r="E98" s="253" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="156"/>
+      <c r="F98" s="254"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4267,13 +4266,13 @@
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="201" t="s">
+      <c r="B110" s="236" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="201"/>
-      <c r="D110" s="201"/>
-      <c r="E110" s="201"/>
-      <c r="F110" s="202"/>
+      <c r="C110" s="236"/>
+      <c r="D110" s="236"/>
+      <c r="E110" s="236"/>
+      <c r="F110" s="237"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4287,21 +4286,21 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="203"/>
-      <c r="H111" s="203"/>
+      <c r="G111" s="238"/>
+      <c r="H111" s="238"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="79"/>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="201" t="s">
+      <c r="B112" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="201"/>
-      <c r="D112" s="201"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="202"/>
+      <c r="C112" s="236"/>
+      <c r="D112" s="236"/>
+      <c r="E112" s="236"/>
+      <c r="F112" s="237"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4424,44 +4423,44 @@
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="204" t="s">
+      <c r="B121" s="239" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="205"/>
-      <c r="D121" s="205"/>
-      <c r="E121" s="205"/>
-      <c r="F121" s="205"/>
-      <c r="G121" s="205"/>
-      <c r="H121" s="205"/>
-      <c r="I121" s="205"/>
-      <c r="J121" s="205"/>
-      <c r="K121" s="206"/>
+      <c r="C121" s="240"/>
+      <c r="D121" s="240"/>
+      <c r="E121" s="240"/>
+      <c r="F121" s="240"/>
+      <c r="G121" s="240"/>
+      <c r="H121" s="240"/>
+      <c r="I121" s="240"/>
+      <c r="J121" s="240"/>
+      <c r="K121" s="241"/>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="157"/>
-      <c r="C122" s="158"/>
-      <c r="D122" s="158"/>
-      <c r="E122" s="158"/>
-      <c r="F122" s="158"/>
-      <c r="G122" s="158"/>
-      <c r="H122" s="158"/>
-      <c r="I122" s="158"/>
-      <c r="J122" s="158"/>
-      <c r="K122" s="159"/>
+      <c r="B122" s="242"/>
+      <c r="C122" s="243"/>
+      <c r="D122" s="243"/>
+      <c r="E122" s="243"/>
+      <c r="F122" s="243"/>
+      <c r="G122" s="243"/>
+      <c r="H122" s="243"/>
+      <c r="I122" s="243"/>
+      <c r="J122" s="243"/>
+      <c r="K122" s="244"/>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="207"/>
-      <c r="C123" s="208"/>
-      <c r="D123" s="208"/>
-      <c r="E123" s="208"/>
-      <c r="F123" s="208"/>
-      <c r="G123" s="208"/>
-      <c r="H123" s="208"/>
-      <c r="I123" s="208"/>
-      <c r="J123" s="208"/>
-      <c r="K123" s="209"/>
+      <c r="B123" s="245"/>
+      <c r="C123" s="246"/>
+      <c r="D123" s="246"/>
+      <c r="E123" s="246"/>
+      <c r="F123" s="246"/>
+      <c r="G123" s="246"/>
+      <c r="H123" s="246"/>
+      <c r="I123" s="246"/>
+      <c r="J123" s="246"/>
+      <c r="K123" s="247"/>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4493,18 +4492,18 @@
     </row>
     <row r="126" spans="1:11" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="194" t="s">
+      <c r="B126" s="229" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="195"/>
-      <c r="D126" s="195"/>
-      <c r="E126" s="195"/>
-      <c r="F126" s="195"/>
-      <c r="G126" s="195"/>
-      <c r="H126" s="195"/>
-      <c r="I126" s="195"/>
-      <c r="J126" s="195"/>
-      <c r="K126" s="196"/>
+      <c r="C126" s="230"/>
+      <c r="D126" s="230"/>
+      <c r="E126" s="230"/>
+      <c r="F126" s="230"/>
+      <c r="G126" s="230"/>
+      <c r="H126" s="230"/>
+      <c r="I126" s="230"/>
+      <c r="J126" s="230"/>
+      <c r="K126" s="231"/>
     </row>
     <row r="127" spans="1:11" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4536,18 +4535,18 @@
     </row>
     <row r="129" spans="1:11" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="197" t="s">
+      <c r="B129" s="232" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="198"/>
-      <c r="D129" s="198"/>
-      <c r="E129" s="198"/>
-      <c r="F129" s="198"/>
-      <c r="G129" s="198"/>
-      <c r="H129" s="198"/>
-      <c r="I129" s="198"/>
-      <c r="J129" s="198"/>
-      <c r="K129" s="199"/>
+      <c r="C129" s="233"/>
+      <c r="D129" s="233"/>
+      <c r="E129" s="233"/>
+      <c r="F129" s="233"/>
+      <c r="G129" s="233"/>
+      <c r="H129" s="233"/>
+      <c r="I129" s="233"/>
+      <c r="J129" s="233"/>
+      <c r="K129" s="234"/>
     </row>
     <row r="130" spans="1:11" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4733,18 +4732,18 @@
     </row>
     <row r="143" spans="1:11" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="200" t="s">
+      <c r="B143" s="235" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="200"/>
-      <c r="D143" s="200"/>
-      <c r="E143" s="200"/>
-      <c r="F143" s="200"/>
-      <c r="G143" s="200"/>
-      <c r="H143" s="200"/>
-      <c r="I143" s="200"/>
-      <c r="J143" s="200"/>
-      <c r="K143" s="200"/>
+      <c r="C143" s="235"/>
+      <c r="D143" s="235"/>
+      <c r="E143" s="235"/>
+      <c r="F143" s="235"/>
+      <c r="G143" s="235"/>
+      <c r="H143" s="235"/>
+      <c r="I143" s="235"/>
+      <c r="J143" s="235"/>
+      <c r="K143" s="235"/>
     </row>
     <row r="144" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4761,11 +4760,11 @@
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="147" t="s">
+      <c r="B145" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="147"/>
-      <c r="D145" s="147"/>
+      <c r="C145" s="157"/>
+      <c r="D145" s="157"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4787,11 +4786,11 @@
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="147" t="s">
+      <c r="B147" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="147"/>
-      <c r="D147" s="147"/>
+      <c r="C147" s="157"/>
+      <c r="D147" s="157"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -4813,11 +4812,11 @@
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="147" t="s">
+      <c r="B149" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="147"/>
-      <c r="D149" s="147"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="157"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -4837,12 +4836,12 @@
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="147" t="s">
+      <c r="B151" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="147"/>
-      <c r="D151" s="147"/>
-      <c r="E151" s="147"/>
+      <c r="C151" s="157"/>
+      <c r="D151" s="157"/>
+      <c r="E151" s="157"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -4863,13 +4862,13 @@
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="147" t="s">
+      <c r="B153" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="147"/>
-      <c r="D153" s="147"/>
-      <c r="E153" s="147"/>
-      <c r="F153" s="148"/>
+      <c r="C153" s="157"/>
+      <c r="D153" s="157"/>
+      <c r="E153" s="157"/>
+      <c r="F153" s="158"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -4989,18 +4988,18 @@
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="160" t="s">
+      <c r="B162" s="255" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="161"/>
-      <c r="D162" s="161"/>
-      <c r="E162" s="161"/>
-      <c r="F162" s="161"/>
-      <c r="G162" s="161"/>
-      <c r="H162" s="161"/>
-      <c r="I162" s="161"/>
-      <c r="J162" s="161"/>
-      <c r="K162" s="162"/>
+      <c r="C162" s="256"/>
+      <c r="D162" s="256"/>
+      <c r="E162" s="256"/>
+      <c r="F162" s="256"/>
+      <c r="G162" s="256"/>
+      <c r="H162" s="256"/>
+      <c r="I162" s="256"/>
+      <c r="J162" s="256"/>
+      <c r="K162" s="257"/>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5202,12 +5201,12 @@
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="147" t="s">
+      <c r="B179" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="147"/>
-      <c r="D179" s="147"/>
-      <c r="E179" s="147"/>
+      <c r="C179" s="157"/>
+      <c r="D179" s="157"/>
+      <c r="E179" s="157"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5232,13 +5231,13 @@
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="147" t="s">
+      <c r="B181" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="147"/>
-      <c r="D181" s="147"/>
-      <c r="E181" s="147"/>
-      <c r="F181" s="148"/>
+      <c r="C181" s="157"/>
+      <c r="D181" s="157"/>
+      <c r="E181" s="157"/>
+      <c r="F181" s="158"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5288,13 +5287,13 @@
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="147" t="s">
+      <c r="B185" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="147"/>
-      <c r="D185" s="147"/>
-      <c r="E185" s="147"/>
-      <c r="F185" s="148"/>
+      <c r="C185" s="157"/>
+      <c r="D185" s="157"/>
+      <c r="E185" s="157"/>
+      <c r="F185" s="158"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5399,74 +5398,74 @@
     </row>
     <row r="193" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="163" t="s">
+      <c r="B193" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="164"/>
-      <c r="D193" s="164"/>
-      <c r="E193" s="164"/>
-      <c r="F193" s="164"/>
-      <c r="G193" s="164"/>
-      <c r="H193" s="164"/>
-      <c r="I193" s="164"/>
-      <c r="J193" s="164"/>
-      <c r="K193" s="165"/>
+      <c r="C193" s="161"/>
+      <c r="D193" s="161"/>
+      <c r="E193" s="161"/>
+      <c r="F193" s="161"/>
+      <c r="G193" s="161"/>
+      <c r="H193" s="161"/>
+      <c r="I193" s="161"/>
+      <c r="J193" s="161"/>
+      <c r="K193" s="162"/>
       <c r="L193" s="20"/>
     </row>
     <row r="194" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="166"/>
-      <c r="C194" s="167"/>
-      <c r="D194" s="167"/>
-      <c r="E194" s="167"/>
-      <c r="F194" s="167"/>
-      <c r="G194" s="167"/>
-      <c r="H194" s="167"/>
-      <c r="I194" s="167"/>
-      <c r="J194" s="167"/>
-      <c r="K194" s="168"/>
+      <c r="B194" s="163"/>
+      <c r="C194" s="164"/>
+      <c r="D194" s="164"/>
+      <c r="E194" s="164"/>
+      <c r="F194" s="164"/>
+      <c r="G194" s="164"/>
+      <c r="H194" s="164"/>
+      <c r="I194" s="164"/>
+      <c r="J194" s="164"/>
+      <c r="K194" s="165"/>
       <c r="L194" s="2"/>
     </row>
     <row r="195" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="166"/>
-      <c r="C195" s="167"/>
-      <c r="D195" s="167"/>
-      <c r="E195" s="167"/>
-      <c r="F195" s="167"/>
-      <c r="G195" s="167"/>
-      <c r="H195" s="167"/>
-      <c r="I195" s="167"/>
-      <c r="J195" s="167"/>
-      <c r="K195" s="168"/>
+      <c r="B195" s="163"/>
+      <c r="C195" s="164"/>
+      <c r="D195" s="164"/>
+      <c r="E195" s="164"/>
+      <c r="F195" s="164"/>
+      <c r="G195" s="164"/>
+      <c r="H195" s="164"/>
+      <c r="I195" s="164"/>
+      <c r="J195" s="164"/>
+      <c r="K195" s="165"/>
       <c r="L195" s="2"/>
     </row>
     <row r="196" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="166"/>
-      <c r="C196" s="167"/>
-      <c r="D196" s="167"/>
-      <c r="E196" s="167"/>
-      <c r="F196" s="167"/>
-      <c r="G196" s="167"/>
-      <c r="H196" s="167"/>
-      <c r="I196" s="167"/>
-      <c r="J196" s="167"/>
-      <c r="K196" s="168"/>
+      <c r="B196" s="163"/>
+      <c r="C196" s="164"/>
+      <c r="D196" s="164"/>
+      <c r="E196" s="164"/>
+      <c r="F196" s="164"/>
+      <c r="G196" s="164"/>
+      <c r="H196" s="164"/>
+      <c r="I196" s="164"/>
+      <c r="J196" s="164"/>
+      <c r="K196" s="165"/>
       <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="169"/>
-      <c r="C197" s="170"/>
-      <c r="D197" s="170"/>
-      <c r="E197" s="170"/>
-      <c r="F197" s="170"/>
-      <c r="G197" s="170"/>
-      <c r="H197" s="170"/>
-      <c r="I197" s="170"/>
-      <c r="J197" s="170"/>
-      <c r="K197" s="171"/>
+      <c r="B197" s="166"/>
+      <c r="C197" s="167"/>
+      <c r="D197" s="167"/>
+      <c r="E197" s="167"/>
+      <c r="F197" s="167"/>
+      <c r="G197" s="167"/>
+      <c r="H197" s="167"/>
+      <c r="I197" s="167"/>
+      <c r="J197" s="167"/>
+      <c r="K197" s="168"/>
       <c r="L197" s="2"/>
     </row>
     <row r="198" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5501,74 +5500,74 @@
     </row>
     <row r="200" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="163" t="s">
+      <c r="B200" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="164"/>
-      <c r="D200" s="164"/>
-      <c r="E200" s="164"/>
-      <c r="F200" s="164"/>
-      <c r="G200" s="164"/>
-      <c r="H200" s="164"/>
-      <c r="I200" s="164"/>
-      <c r="J200" s="164"/>
-      <c r="K200" s="165"/>
+      <c r="C200" s="161"/>
+      <c r="D200" s="161"/>
+      <c r="E200" s="161"/>
+      <c r="F200" s="161"/>
+      <c r="G200" s="161"/>
+      <c r="H200" s="161"/>
+      <c r="I200" s="161"/>
+      <c r="J200" s="161"/>
+      <c r="K200" s="162"/>
       <c r="L200" s="33"/>
     </row>
     <row r="201" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="166"/>
-      <c r="C201" s="167"/>
-      <c r="D201" s="167"/>
-      <c r="E201" s="167"/>
-      <c r="F201" s="167"/>
-      <c r="G201" s="167"/>
-      <c r="H201" s="167"/>
-      <c r="I201" s="167"/>
-      <c r="J201" s="167"/>
-      <c r="K201" s="168"/>
+      <c r="B201" s="163"/>
+      <c r="C201" s="164"/>
+      <c r="D201" s="164"/>
+      <c r="E201" s="164"/>
+      <c r="F201" s="164"/>
+      <c r="G201" s="164"/>
+      <c r="H201" s="164"/>
+      <c r="I201" s="164"/>
+      <c r="J201" s="164"/>
+      <c r="K201" s="165"/>
       <c r="L201" s="2"/>
     </row>
     <row r="202" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="166"/>
-      <c r="C202" s="167"/>
-      <c r="D202" s="167"/>
-      <c r="E202" s="167"/>
-      <c r="F202" s="167"/>
-      <c r="G202" s="167"/>
-      <c r="H202" s="167"/>
-      <c r="I202" s="167"/>
-      <c r="J202" s="167"/>
-      <c r="K202" s="168"/>
+      <c r="B202" s="163"/>
+      <c r="C202" s="164"/>
+      <c r="D202" s="164"/>
+      <c r="E202" s="164"/>
+      <c r="F202" s="164"/>
+      <c r="G202" s="164"/>
+      <c r="H202" s="164"/>
+      <c r="I202" s="164"/>
+      <c r="J202" s="164"/>
+      <c r="K202" s="165"/>
       <c r="L202" s="2"/>
     </row>
     <row r="203" spans="1:12" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="166"/>
-      <c r="C203" s="167"/>
-      <c r="D203" s="167"/>
-      <c r="E203" s="167"/>
-      <c r="F203" s="167"/>
-      <c r="G203" s="167"/>
-      <c r="H203" s="167"/>
-      <c r="I203" s="167"/>
-      <c r="J203" s="167"/>
-      <c r="K203" s="168"/>
+      <c r="B203" s="163"/>
+      <c r="C203" s="164"/>
+      <c r="D203" s="164"/>
+      <c r="E203" s="164"/>
+      <c r="F203" s="164"/>
+      <c r="G203" s="164"/>
+      <c r="H203" s="164"/>
+      <c r="I203" s="164"/>
+      <c r="J203" s="164"/>
+      <c r="K203" s="165"/>
       <c r="L203" s="2"/>
     </row>
     <row r="204" spans="1:12" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="169"/>
-      <c r="C204" s="170"/>
-      <c r="D204" s="170"/>
-      <c r="E204" s="170"/>
-      <c r="F204" s="170"/>
-      <c r="G204" s="170"/>
-      <c r="H204" s="170"/>
-      <c r="I204" s="170"/>
-      <c r="J204" s="170"/>
-      <c r="K204" s="171"/>
+      <c r="B204" s="166"/>
+      <c r="C204" s="167"/>
+      <c r="D204" s="167"/>
+      <c r="E204" s="167"/>
+      <c r="F204" s="167"/>
+      <c r="G204" s="167"/>
+      <c r="H204" s="167"/>
+      <c r="I204" s="167"/>
+      <c r="J204" s="167"/>
+      <c r="K204" s="168"/>
       <c r="L204" s="2"/>
     </row>
     <row r="205" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5706,46 +5705,46 @@
     </row>
     <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="185" t="s">
+      <c r="B214" s="220" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="186"/>
-      <c r="D214" s="186"/>
-      <c r="E214" s="186"/>
-      <c r="F214" s="186"/>
-      <c r="G214" s="186"/>
-      <c r="H214" s="186"/>
-      <c r="I214" s="186"/>
-      <c r="J214" s="186"/>
-      <c r="K214" s="187"/>
+      <c r="C214" s="221"/>
+      <c r="D214" s="221"/>
+      <c r="E214" s="221"/>
+      <c r="F214" s="221"/>
+      <c r="G214" s="221"/>
+      <c r="H214" s="221"/>
+      <c r="I214" s="221"/>
+      <c r="J214" s="221"/>
+      <c r="K214" s="222"/>
       <c r="L214" s="33"/>
     </row>
     <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="188"/>
-      <c r="C215" s="189"/>
-      <c r="D215" s="189"/>
-      <c r="E215" s="189"/>
-      <c r="F215" s="189"/>
-      <c r="G215" s="189"/>
-      <c r="H215" s="189"/>
-      <c r="I215" s="189"/>
-      <c r="J215" s="189"/>
-      <c r="K215" s="190"/>
+      <c r="B215" s="223"/>
+      <c r="C215" s="224"/>
+      <c r="D215" s="224"/>
+      <c r="E215" s="224"/>
+      <c r="F215" s="224"/>
+      <c r="G215" s="224"/>
+      <c r="H215" s="224"/>
+      <c r="I215" s="224"/>
+      <c r="J215" s="224"/>
+      <c r="K215" s="225"/>
       <c r="L215" s="59"/>
     </row>
     <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="191"/>
-      <c r="C216" s="192"/>
-      <c r="D216" s="192"/>
-      <c r="E216" s="192"/>
-      <c r="F216" s="192"/>
-      <c r="G216" s="192"/>
-      <c r="H216" s="192"/>
-      <c r="I216" s="192"/>
-      <c r="J216" s="192"/>
-      <c r="K216" s="193"/>
+      <c r="B216" s="226"/>
+      <c r="C216" s="227"/>
+      <c r="D216" s="227"/>
+      <c r="E216" s="227"/>
+      <c r="F216" s="227"/>
+      <c r="G216" s="227"/>
+      <c r="H216" s="227"/>
+      <c r="I216" s="227"/>
+      <c r="J216" s="227"/>
+      <c r="K216" s="228"/>
       <c r="L216" s="59"/>
     </row>
     <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5778,10 +5777,10 @@
     </row>
     <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="147" t="s">
+      <c r="B219" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="147"/>
+      <c r="C219" s="157"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -5898,18 +5897,18 @@
     </row>
     <row r="227" spans="1:13" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="157" t="s">
+      <c r="B227" s="242" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="158"/>
-      <c r="D227" s="158"/>
-      <c r="E227" s="158"/>
-      <c r="F227" s="158"/>
-      <c r="G227" s="158"/>
-      <c r="H227" s="158"/>
-      <c r="I227" s="158"/>
-      <c r="J227" s="158"/>
-      <c r="K227" s="159"/>
+      <c r="C227" s="243"/>
+      <c r="D227" s="243"/>
+      <c r="E227" s="243"/>
+      <c r="F227" s="243"/>
+      <c r="G227" s="243"/>
+      <c r="H227" s="243"/>
+      <c r="I227" s="243"/>
+      <c r="J227" s="243"/>
+      <c r="K227" s="244"/>
     </row>
     <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6011,48 +6010,48 @@
     </row>
     <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="249" t="s">
+      <c r="B235" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="250"/>
-      <c r="D235" s="250"/>
-      <c r="E235" s="250"/>
-      <c r="F235" s="250"/>
-      <c r="G235" s="250"/>
-      <c r="H235" s="250"/>
-      <c r="I235" s="250"/>
-      <c r="J235" s="250"/>
-      <c r="K235" s="251"/>
+      <c r="C235" s="170"/>
+      <c r="D235" s="170"/>
+      <c r="E235" s="170"/>
+      <c r="F235" s="170"/>
+      <c r="G235" s="170"/>
+      <c r="H235" s="170"/>
+      <c r="I235" s="170"/>
+      <c r="J235" s="170"/>
+      <c r="K235" s="171"/>
       <c r="L235" s="33"/>
       <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="252"/>
-      <c r="C236" s="253"/>
-      <c r="D236" s="253"/>
-      <c r="E236" s="253"/>
-      <c r="F236" s="253"/>
-      <c r="G236" s="253"/>
-      <c r="H236" s="253"/>
-      <c r="I236" s="253"/>
-      <c r="J236" s="253"/>
-      <c r="K236" s="254"/>
+      <c r="B236" s="172"/>
+      <c r="C236" s="173"/>
+      <c r="D236" s="173"/>
+      <c r="E236" s="173"/>
+      <c r="F236" s="173"/>
+      <c r="G236" s="173"/>
+      <c r="H236" s="173"/>
+      <c r="I236" s="173"/>
+      <c r="J236" s="173"/>
+      <c r="K236" s="174"/>
       <c r="L236" s="59"/>
       <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="255"/>
-      <c r="C237" s="256"/>
-      <c r="D237" s="256"/>
-      <c r="E237" s="256"/>
-      <c r="F237" s="256"/>
-      <c r="G237" s="256"/>
-      <c r="H237" s="256"/>
-      <c r="I237" s="256"/>
-      <c r="J237" s="256"/>
-      <c r="K237" s="257"/>
+      <c r="B237" s="175"/>
+      <c r="C237" s="176"/>
+      <c r="D237" s="176"/>
+      <c r="E237" s="176"/>
+      <c r="F237" s="176"/>
+      <c r="G237" s="176"/>
+      <c r="H237" s="176"/>
+      <c r="I237" s="176"/>
+      <c r="J237" s="176"/>
+      <c r="K237" s="177"/>
       <c r="L237" s="59"/>
       <c r="M237" s="2"/>
     </row>
@@ -6160,33 +6159,33 @@
     </row>
     <row r="245" spans="1:11" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="150" t="s">
+      <c r="B245" s="251" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="150"/>
-      <c r="D245" s="150"/>
-      <c r="E245" s="150"/>
-      <c r="F245" s="150"/>
-      <c r="G245" s="150"/>
-      <c r="H245" s="150"/>
-      <c r="I245" s="150"/>
-      <c r="J245" s="150"/>
-      <c r="K245" s="150"/>
+      <c r="C245" s="251"/>
+      <c r="D245" s="251"/>
+      <c r="E245" s="251"/>
+      <c r="F245" s="251"/>
+      <c r="G245" s="251"/>
+      <c r="H245" s="251"/>
+      <c r="I245" s="251"/>
+      <c r="J245" s="251"/>
+      <c r="K245" s="251"/>
     </row>
     <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="150" t="s">
+      <c r="B246" s="251" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="150"/>
-      <c r="D246" s="150"/>
-      <c r="E246" s="150"/>
-      <c r="F246" s="150"/>
-      <c r="G246" s="150"/>
-      <c r="H246" s="150"/>
-      <c r="I246" s="150"/>
-      <c r="J246" s="150"/>
-      <c r="K246" s="150"/>
+      <c r="C246" s="251"/>
+      <c r="D246" s="251"/>
+      <c r="E246" s="251"/>
+      <c r="F246" s="251"/>
+      <c r="G246" s="251"/>
+      <c r="H246" s="251"/>
+      <c r="I246" s="251"/>
+      <c r="J246" s="251"/>
+      <c r="K246" s="251"/>
     </row>
     <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6379,78 +6378,78 @@
     </row>
     <row r="260" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="163" t="s">
+      <c r="B260" s="160" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="164"/>
-      <c r="D260" s="164"/>
-      <c r="E260" s="164"/>
-      <c r="F260" s="164"/>
-      <c r="G260" s="164"/>
-      <c r="H260" s="164"/>
-      <c r="I260" s="164"/>
-      <c r="J260" s="164"/>
-      <c r="K260" s="165"/>
+      <c r="C260" s="161"/>
+      <c r="D260" s="161"/>
+      <c r="E260" s="161"/>
+      <c r="F260" s="161"/>
+      <c r="G260" s="161"/>
+      <c r="H260" s="161"/>
+      <c r="I260" s="161"/>
+      <c r="J260" s="161"/>
+      <c r="K260" s="162"/>
       <c r="L260" s="33"/>
       <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="166"/>
-      <c r="C261" s="167"/>
-      <c r="D261" s="167"/>
-      <c r="E261" s="167"/>
-      <c r="F261" s="167"/>
-      <c r="G261" s="167"/>
-      <c r="H261" s="167"/>
-      <c r="I261" s="167"/>
-      <c r="J261" s="167"/>
-      <c r="K261" s="168"/>
+      <c r="B261" s="163"/>
+      <c r="C261" s="164"/>
+      <c r="D261" s="164"/>
+      <c r="E261" s="164"/>
+      <c r="F261" s="164"/>
+      <c r="G261" s="164"/>
+      <c r="H261" s="164"/>
+      <c r="I261" s="164"/>
+      <c r="J261" s="164"/>
+      <c r="K261" s="165"/>
       <c r="L261" s="59"/>
       <c r="M261" s="2"/>
     </row>
     <row r="262" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="166"/>
-      <c r="C262" s="167"/>
-      <c r="D262" s="167"/>
-      <c r="E262" s="167"/>
-      <c r="F262" s="167"/>
-      <c r="G262" s="167"/>
-      <c r="H262" s="167"/>
-      <c r="I262" s="167"/>
-      <c r="J262" s="167"/>
-      <c r="K262" s="168"/>
+      <c r="B262" s="163"/>
+      <c r="C262" s="164"/>
+      <c r="D262" s="164"/>
+      <c r="E262" s="164"/>
+      <c r="F262" s="164"/>
+      <c r="G262" s="164"/>
+      <c r="H262" s="164"/>
+      <c r="I262" s="164"/>
+      <c r="J262" s="164"/>
+      <c r="K262" s="165"/>
       <c r="L262" s="59"/>
       <c r="M262" s="2"/>
     </row>
     <row r="263" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="166"/>
-      <c r="C263" s="167"/>
-      <c r="D263" s="167"/>
-      <c r="E263" s="167"/>
-      <c r="F263" s="167"/>
-      <c r="G263" s="167"/>
-      <c r="H263" s="167"/>
-      <c r="I263" s="167"/>
-      <c r="J263" s="167"/>
-      <c r="K263" s="168"/>
+      <c r="B263" s="163"/>
+      <c r="C263" s="164"/>
+      <c r="D263" s="164"/>
+      <c r="E263" s="164"/>
+      <c r="F263" s="164"/>
+      <c r="G263" s="164"/>
+      <c r="H263" s="164"/>
+      <c r="I263" s="164"/>
+      <c r="J263" s="164"/>
+      <c r="K263" s="165"/>
       <c r="L263" s="59"/>
       <c r="M263" s="2"/>
     </row>
     <row r="264" spans="1:13" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="169"/>
-      <c r="C264" s="170"/>
-      <c r="D264" s="170"/>
-      <c r="E264" s="170"/>
-      <c r="F264" s="170"/>
-      <c r="G264" s="170"/>
-      <c r="H264" s="170"/>
-      <c r="I264" s="170"/>
-      <c r="J264" s="170"/>
-      <c r="K264" s="171"/>
+      <c r="B264" s="166"/>
+      <c r="C264" s="167"/>
+      <c r="D264" s="167"/>
+      <c r="E264" s="167"/>
+      <c r="F264" s="167"/>
+      <c r="G264" s="167"/>
+      <c r="H264" s="167"/>
+      <c r="I264" s="167"/>
+      <c r="J264" s="167"/>
+      <c r="K264" s="168"/>
       <c r="L264" s="59"/>
       <c r="M264" s="2"/>
     </row>
@@ -6503,27 +6502,27 @@
     </row>
     <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="145" t="s">
+      <c r="B268" s="202" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="145"/>
-      <c r="D268" s="152" t="s">
+      <c r="C268" s="202"/>
+      <c r="D268" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="153"/>
-      <c r="F268" s="153"/>
-      <c r="G268" s="153"/>
-      <c r="H268" s="153"/>
-      <c r="I268" s="153"/>
-      <c r="J268" s="153"/>
-      <c r="K268" s="154"/>
+      <c r="E268" s="199"/>
+      <c r="F268" s="199"/>
+      <c r="G268" s="199"/>
+      <c r="H268" s="199"/>
+      <c r="I268" s="199"/>
+      <c r="J268" s="199"/>
+      <c r="K268" s="200"/>
       <c r="L268" s="33"/>
       <c r="M268" s="2"/>
     </row>
     <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="149"/>
-      <c r="C269" s="149"/>
+      <c r="B269" s="250"/>
+      <c r="C269" s="250"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6537,8 +6536,8 @@
     </row>
     <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="149"/>
-      <c r="C270" s="149"/>
+      <c r="B270" s="250"/>
+      <c r="C270" s="250"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6552,8 +6551,8 @@
     </row>
     <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="149"/>
-      <c r="C271" s="149"/>
+      <c r="B271" s="250"/>
+      <c r="C271" s="250"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6567,8 +6566,8 @@
     </row>
     <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="149"/>
-      <c r="C272" s="149"/>
+      <c r="B272" s="250"/>
+      <c r="C272" s="250"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6629,78 +6628,78 @@
     </row>
     <row r="276" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="151" t="s">
+      <c r="B276" s="252" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="151"/>
-      <c r="D276" s="151"/>
-      <c r="E276" s="151"/>
-      <c r="F276" s="151"/>
-      <c r="G276" s="151"/>
-      <c r="H276" s="151"/>
-      <c r="I276" s="151"/>
-      <c r="J276" s="151"/>
-      <c r="K276" s="151"/>
+      <c r="C276" s="252"/>
+      <c r="D276" s="252"/>
+      <c r="E276" s="252"/>
+      <c r="F276" s="252"/>
+      <c r="G276" s="252"/>
+      <c r="H276" s="252"/>
+      <c r="I276" s="252"/>
+      <c r="J276" s="252"/>
+      <c r="K276" s="252"/>
       <c r="L276" s="33"/>
       <c r="M276" s="2"/>
     </row>
     <row r="277" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="151"/>
-      <c r="C277" s="151"/>
-      <c r="D277" s="151"/>
-      <c r="E277" s="151"/>
-      <c r="F277" s="151"/>
-      <c r="G277" s="151"/>
-      <c r="H277" s="151"/>
-      <c r="I277" s="151"/>
-      <c r="J277" s="151"/>
-      <c r="K277" s="151"/>
+      <c r="B277" s="252"/>
+      <c r="C277" s="252"/>
+      <c r="D277" s="252"/>
+      <c r="E277" s="252"/>
+      <c r="F277" s="252"/>
+      <c r="G277" s="252"/>
+      <c r="H277" s="252"/>
+      <c r="I277" s="252"/>
+      <c r="J277" s="252"/>
+      <c r="K277" s="252"/>
       <c r="L277" s="59"/>
       <c r="M277" s="2"/>
     </row>
     <row r="278" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="151"/>
-      <c r="C278" s="151"/>
-      <c r="D278" s="151"/>
-      <c r="E278" s="151"/>
-      <c r="F278" s="151"/>
-      <c r="G278" s="151"/>
-      <c r="H278" s="151"/>
-      <c r="I278" s="151"/>
-      <c r="J278" s="151"/>
-      <c r="K278" s="151"/>
+      <c r="B278" s="252"/>
+      <c r="C278" s="252"/>
+      <c r="D278" s="252"/>
+      <c r="E278" s="252"/>
+      <c r="F278" s="252"/>
+      <c r="G278" s="252"/>
+      <c r="H278" s="252"/>
+      <c r="I278" s="252"/>
+      <c r="J278" s="252"/>
+      <c r="K278" s="252"/>
       <c r="L278" s="59"/>
       <c r="M278" s="2"/>
     </row>
     <row r="279" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="151"/>
-      <c r="C279" s="151"/>
-      <c r="D279" s="151"/>
-      <c r="E279" s="151"/>
-      <c r="F279" s="151"/>
-      <c r="G279" s="151"/>
-      <c r="H279" s="151"/>
-      <c r="I279" s="151"/>
-      <c r="J279" s="151"/>
-      <c r="K279" s="151"/>
+      <c r="B279" s="252"/>
+      <c r="C279" s="252"/>
+      <c r="D279" s="252"/>
+      <c r="E279" s="252"/>
+      <c r="F279" s="252"/>
+      <c r="G279" s="252"/>
+      <c r="H279" s="252"/>
+      <c r="I279" s="252"/>
+      <c r="J279" s="252"/>
+      <c r="K279" s="252"/>
       <c r="L279" s="59"/>
       <c r="M279" s="2"/>
     </row>
     <row r="280" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="151"/>
-      <c r="C280" s="151"/>
-      <c r="D280" s="151"/>
-      <c r="E280" s="151"/>
-      <c r="F280" s="151"/>
-      <c r="G280" s="151"/>
-      <c r="H280" s="151"/>
-      <c r="I280" s="151"/>
-      <c r="J280" s="151"/>
-      <c r="K280" s="151"/>
+      <c r="B280" s="252"/>
+      <c r="C280" s="252"/>
+      <c r="D280" s="252"/>
+      <c r="E280" s="252"/>
+      <c r="F280" s="252"/>
+      <c r="G280" s="252"/>
+      <c r="H280" s="252"/>
+      <c r="I280" s="252"/>
+      <c r="J280" s="252"/>
+      <c r="K280" s="252"/>
       <c r="L280" s="59"/>
       <c r="M280" s="2"/>
     </row>
@@ -6753,12 +6752,12 @@
     </row>
     <row r="284" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="147" t="s">
+      <c r="B284" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="147"/>
-      <c r="D284" s="147"/>
-      <c r="E284" s="148"/>
+      <c r="C284" s="157"/>
+      <c r="D284" s="157"/>
+      <c r="E284" s="158"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -6768,10 +6767,10 @@
     </row>
     <row r="285" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="147"/>
-      <c r="C285" s="147"/>
-      <c r="D285" s="147"/>
-      <c r="E285" s="147"/>
+      <c r="B285" s="157"/>
+      <c r="C285" s="157"/>
+      <c r="D285" s="157"/>
+      <c r="E285" s="157"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -6781,12 +6780,12 @@
     </row>
     <row r="286" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="147" t="s">
+      <c r="B286" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="147"/>
-      <c r="D286" s="147"/>
-      <c r="E286" s="148"/>
+      <c r="C286" s="157"/>
+      <c r="D286" s="157"/>
+      <c r="E286" s="158"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -6798,10 +6797,10 @@
     </row>
     <row r="287" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="147"/>
-      <c r="C287" s="147"/>
-      <c r="D287" s="147"/>
-      <c r="E287" s="147"/>
+      <c r="B287" s="157"/>
+      <c r="C287" s="157"/>
+      <c r="D287" s="157"/>
+      <c r="E287" s="157"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -6811,12 +6810,12 @@
     </row>
     <row r="288" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="147" t="s">
+      <c r="B288" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="147"/>
-      <c r="D288" s="147"/>
-      <c r="E288" s="148"/>
+      <c r="C288" s="157"/>
+      <c r="D288" s="157"/>
+      <c r="E288" s="158"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -6839,12 +6838,12 @@
     </row>
     <row r="290" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="147" t="s">
+      <c r="B290" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="147"/>
-      <c r="D290" s="147"/>
-      <c r="E290" s="148"/>
+      <c r="C290" s="157"/>
+      <c r="D290" s="157"/>
+      <c r="E290" s="158"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -6867,12 +6866,12 @@
     </row>
     <row r="292" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="147" t="s">
+      <c r="B292" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="147"/>
-      <c r="D292" s="147"/>
-      <c r="E292" s="148"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="157"/>
+      <c r="E292" s="158"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -6968,77 +6967,77 @@
     </row>
     <row r="299" spans="1:13" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="163" t="s">
+      <c r="B299" s="160" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="164"/>
-      <c r="D299" s="164"/>
-      <c r="E299" s="164"/>
-      <c r="F299" s="164"/>
-      <c r="G299" s="164"/>
-      <c r="H299" s="164"/>
-      <c r="I299" s="164"/>
-      <c r="J299" s="164"/>
-      <c r="K299" s="165"/>
+      <c r="C299" s="161"/>
+      <c r="D299" s="161"/>
+      <c r="E299" s="161"/>
+      <c r="F299" s="161"/>
+      <c r="G299" s="161"/>
+      <c r="H299" s="161"/>
+      <c r="I299" s="161"/>
+      <c r="J299" s="161"/>
+      <c r="K299" s="162"/>
       <c r="L299" s="20"/>
     </row>
     <row r="300" spans="1:13" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="166"/>
-      <c r="C300" s="167"/>
-      <c r="D300" s="167"/>
-      <c r="E300" s="167"/>
-      <c r="F300" s="167"/>
-      <c r="G300" s="167"/>
-      <c r="H300" s="167"/>
-      <c r="I300" s="167"/>
-      <c r="J300" s="167"/>
-      <c r="K300" s="168"/>
+      <c r="B300" s="163"/>
+      <c r="C300" s="164"/>
+      <c r="D300" s="164"/>
+      <c r="E300" s="164"/>
+      <c r="F300" s="164"/>
+      <c r="G300" s="164"/>
+      <c r="H300" s="164"/>
+      <c r="I300" s="164"/>
+      <c r="J300" s="164"/>
+      <c r="K300" s="165"/>
       <c r="L300" s="59"/>
       <c r="M300" s="2"/>
     </row>
     <row r="301" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="166"/>
-      <c r="C301" s="167"/>
-      <c r="D301" s="167"/>
-      <c r="E301" s="167"/>
-      <c r="F301" s="167"/>
-      <c r="G301" s="167"/>
-      <c r="H301" s="167"/>
-      <c r="I301" s="167"/>
-      <c r="J301" s="167"/>
-      <c r="K301" s="168"/>
+      <c r="B301" s="163"/>
+      <c r="C301" s="164"/>
+      <c r="D301" s="164"/>
+      <c r="E301" s="164"/>
+      <c r="F301" s="164"/>
+      <c r="G301" s="164"/>
+      <c r="H301" s="164"/>
+      <c r="I301" s="164"/>
+      <c r="J301" s="164"/>
+      <c r="K301" s="165"/>
       <c r="L301" s="59"/>
       <c r="M301" s="2"/>
     </row>
     <row r="302" spans="1:13" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="166"/>
-      <c r="C302" s="167"/>
-      <c r="D302" s="167"/>
-      <c r="E302" s="167"/>
-      <c r="F302" s="167"/>
-      <c r="G302" s="167"/>
-      <c r="H302" s="167"/>
-      <c r="I302" s="167"/>
-      <c r="J302" s="167"/>
-      <c r="K302" s="168"/>
+      <c r="B302" s="163"/>
+      <c r="C302" s="164"/>
+      <c r="D302" s="164"/>
+      <c r="E302" s="164"/>
+      <c r="F302" s="164"/>
+      <c r="G302" s="164"/>
+      <c r="H302" s="164"/>
+      <c r="I302" s="164"/>
+      <c r="J302" s="164"/>
+      <c r="K302" s="165"/>
       <c r="L302" s="59"/>
       <c r="M302" s="2"/>
     </row>
     <row r="303" spans="1:13" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="169"/>
-      <c r="C303" s="170"/>
-      <c r="D303" s="170"/>
-      <c r="E303" s="170"/>
-      <c r="F303" s="170"/>
-      <c r="G303" s="170"/>
-      <c r="H303" s="170"/>
-      <c r="I303" s="170"/>
-      <c r="J303" s="170"/>
-      <c r="K303" s="171"/>
+      <c r="B303" s="166"/>
+      <c r="C303" s="167"/>
+      <c r="D303" s="167"/>
+      <c r="E303" s="167"/>
+      <c r="F303" s="167"/>
+      <c r="G303" s="167"/>
+      <c r="H303" s="167"/>
+      <c r="I303" s="167"/>
+      <c r="J303" s="167"/>
+      <c r="K303" s="168"/>
       <c r="L303" s="59"/>
       <c r="M303" s="2"/>
     </row>
@@ -7075,78 +7074,78 @@
     </row>
     <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="163" t="s">
+      <c r="B306" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="164"/>
-      <c r="D306" s="164"/>
-      <c r="E306" s="164"/>
-      <c r="F306" s="164"/>
-      <c r="G306" s="164"/>
-      <c r="H306" s="164"/>
-      <c r="I306" s="164"/>
-      <c r="J306" s="164"/>
-      <c r="K306" s="165"/>
+      <c r="C306" s="161"/>
+      <c r="D306" s="161"/>
+      <c r="E306" s="161"/>
+      <c r="F306" s="161"/>
+      <c r="G306" s="161"/>
+      <c r="H306" s="161"/>
+      <c r="I306" s="161"/>
+      <c r="J306" s="161"/>
+      <c r="K306" s="162"/>
       <c r="L306" s="33"/>
       <c r="M306" s="2"/>
     </row>
     <row r="307" spans="1:13" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="166"/>
-      <c r="C307" s="167"/>
-      <c r="D307" s="167"/>
-      <c r="E307" s="167"/>
-      <c r="F307" s="167"/>
-      <c r="G307" s="167"/>
-      <c r="H307" s="167"/>
-      <c r="I307" s="167"/>
-      <c r="J307" s="167"/>
-      <c r="K307" s="168"/>
+      <c r="B307" s="163"/>
+      <c r="C307" s="164"/>
+      <c r="D307" s="164"/>
+      <c r="E307" s="164"/>
+      <c r="F307" s="164"/>
+      <c r="G307" s="164"/>
+      <c r="H307" s="164"/>
+      <c r="I307" s="164"/>
+      <c r="J307" s="164"/>
+      <c r="K307" s="165"/>
       <c r="L307" s="59"/>
       <c r="M307" s="2"/>
     </row>
     <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="166"/>
-      <c r="C308" s="167"/>
-      <c r="D308" s="167"/>
-      <c r="E308" s="167"/>
-      <c r="F308" s="167"/>
-      <c r="G308" s="167"/>
-      <c r="H308" s="167"/>
-      <c r="I308" s="167"/>
-      <c r="J308" s="167"/>
-      <c r="K308" s="168"/>
+      <c r="B308" s="163"/>
+      <c r="C308" s="164"/>
+      <c r="D308" s="164"/>
+      <c r="E308" s="164"/>
+      <c r="F308" s="164"/>
+      <c r="G308" s="164"/>
+      <c r="H308" s="164"/>
+      <c r="I308" s="164"/>
+      <c r="J308" s="164"/>
+      <c r="K308" s="165"/>
       <c r="L308" s="59"/>
       <c r="M308" s="2"/>
     </row>
     <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="166"/>
-      <c r="C309" s="167"/>
-      <c r="D309" s="167"/>
-      <c r="E309" s="167"/>
-      <c r="F309" s="167"/>
-      <c r="G309" s="167"/>
-      <c r="H309" s="167"/>
-      <c r="I309" s="167"/>
-      <c r="J309" s="167"/>
-      <c r="K309" s="168"/>
+      <c r="B309" s="163"/>
+      <c r="C309" s="164"/>
+      <c r="D309" s="164"/>
+      <c r="E309" s="164"/>
+      <c r="F309" s="164"/>
+      <c r="G309" s="164"/>
+      <c r="H309" s="164"/>
+      <c r="I309" s="164"/>
+      <c r="J309" s="164"/>
+      <c r="K309" s="165"/>
       <c r="L309" s="59"/>
       <c r="M309" s="2"/>
     </row>
     <row r="310" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="169"/>
-      <c r="C310" s="170"/>
-      <c r="D310" s="170"/>
-      <c r="E310" s="170"/>
-      <c r="F310" s="170"/>
-      <c r="G310" s="170"/>
-      <c r="H310" s="170"/>
-      <c r="I310" s="170"/>
-      <c r="J310" s="170"/>
-      <c r="K310" s="171"/>
+      <c r="B310" s="166"/>
+      <c r="C310" s="167"/>
+      <c r="D310" s="167"/>
+      <c r="E310" s="167"/>
+      <c r="F310" s="167"/>
+      <c r="G310" s="167"/>
+      <c r="H310" s="167"/>
+      <c r="I310" s="167"/>
+      <c r="J310" s="167"/>
+      <c r="K310" s="168"/>
       <c r="L310" s="59"/>
       <c r="M310" s="2"/>
     </row>
@@ -7316,78 +7315,78 @@
     </row>
     <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="163" t="s">
+      <c r="B321" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="164"/>
-      <c r="D321" s="164"/>
-      <c r="E321" s="164"/>
-      <c r="F321" s="164"/>
-      <c r="G321" s="164"/>
-      <c r="H321" s="164"/>
-      <c r="I321" s="164"/>
-      <c r="J321" s="164"/>
-      <c r="K321" s="165"/>
+      <c r="C321" s="161"/>
+      <c r="D321" s="161"/>
+      <c r="E321" s="161"/>
+      <c r="F321" s="161"/>
+      <c r="G321" s="161"/>
+      <c r="H321" s="161"/>
+      <c r="I321" s="161"/>
+      <c r="J321" s="161"/>
+      <c r="K321" s="162"/>
       <c r="L321" s="33"/>
       <c r="M321" s="2"/>
     </row>
     <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="166"/>
-      <c r="C322" s="167"/>
-      <c r="D322" s="167"/>
-      <c r="E322" s="167"/>
-      <c r="F322" s="167"/>
-      <c r="G322" s="167"/>
-      <c r="H322" s="167"/>
-      <c r="I322" s="167"/>
-      <c r="J322" s="167"/>
-      <c r="K322" s="168"/>
+      <c r="B322" s="163"/>
+      <c r="C322" s="164"/>
+      <c r="D322" s="164"/>
+      <c r="E322" s="164"/>
+      <c r="F322" s="164"/>
+      <c r="G322" s="164"/>
+      <c r="H322" s="164"/>
+      <c r="I322" s="164"/>
+      <c r="J322" s="164"/>
+      <c r="K322" s="165"/>
       <c r="L322" s="59"/>
       <c r="M322" s="2"/>
     </row>
     <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="166"/>
-      <c r="C323" s="167"/>
-      <c r="D323" s="167"/>
-      <c r="E323" s="167"/>
-      <c r="F323" s="167"/>
-      <c r="G323" s="167"/>
-      <c r="H323" s="167"/>
-      <c r="I323" s="167"/>
-      <c r="J323" s="167"/>
-      <c r="K323" s="168"/>
+      <c r="B323" s="163"/>
+      <c r="C323" s="164"/>
+      <c r="D323" s="164"/>
+      <c r="E323" s="164"/>
+      <c r="F323" s="164"/>
+      <c r="G323" s="164"/>
+      <c r="H323" s="164"/>
+      <c r="I323" s="164"/>
+      <c r="J323" s="164"/>
+      <c r="K323" s="165"/>
       <c r="L323" s="59"/>
       <c r="M323" s="2"/>
     </row>
     <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="166"/>
-      <c r="C324" s="167"/>
-      <c r="D324" s="167"/>
-      <c r="E324" s="167"/>
-      <c r="F324" s="167"/>
-      <c r="G324" s="167"/>
-      <c r="H324" s="167"/>
-      <c r="I324" s="167"/>
-      <c r="J324" s="167"/>
-      <c r="K324" s="168"/>
+      <c r="B324" s="163"/>
+      <c r="C324" s="164"/>
+      <c r="D324" s="164"/>
+      <c r="E324" s="164"/>
+      <c r="F324" s="164"/>
+      <c r="G324" s="164"/>
+      <c r="H324" s="164"/>
+      <c r="I324" s="164"/>
+      <c r="J324" s="164"/>
+      <c r="K324" s="165"/>
       <c r="L324" s="59"/>
       <c r="M324" s="2"/>
     </row>
     <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="169"/>
-      <c r="C325" s="170"/>
-      <c r="D325" s="170"/>
-      <c r="E325" s="170"/>
-      <c r="F325" s="170"/>
-      <c r="G325" s="170"/>
-      <c r="H325" s="170"/>
-      <c r="I325" s="170"/>
-      <c r="J325" s="170"/>
-      <c r="K325" s="171"/>
+      <c r="B325" s="166"/>
+      <c r="C325" s="167"/>
+      <c r="D325" s="167"/>
+      <c r="E325" s="167"/>
+      <c r="F325" s="167"/>
+      <c r="G325" s="167"/>
+      <c r="H325" s="167"/>
+      <c r="I325" s="167"/>
+      <c r="J325" s="167"/>
+      <c r="K325" s="168"/>
       <c r="L325" s="59"/>
       <c r="M325" s="2"/>
     </row>
@@ -7408,18 +7407,18 @@
     </row>
     <row r="327" spans="1:13" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="248" t="s">
+      <c r="B327" s="159" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="248"/>
-      <c r="D327" s="248"/>
-      <c r="E327" s="248"/>
-      <c r="F327" s="248"/>
-      <c r="G327" s="248"/>
-      <c r="H327" s="248"/>
-      <c r="I327" s="248"/>
-      <c r="J327" s="248"/>
-      <c r="K327" s="248"/>
+      <c r="C327" s="159"/>
+      <c r="D327" s="159"/>
+      <c r="E327" s="159"/>
+      <c r="F327" s="159"/>
+      <c r="G327" s="159"/>
+      <c r="H327" s="159"/>
+      <c r="I327" s="159"/>
+      <c r="J327" s="159"/>
+      <c r="K327" s="159"/>
       <c r="L327" s="19"/>
       <c r="M327" s="2"/>
     </row>
@@ -7527,74 +7526,74 @@
     </row>
     <row r="335" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="249" t="s">
+      <c r="B335" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="250"/>
-      <c r="D335" s="250"/>
-      <c r="E335" s="250"/>
-      <c r="F335" s="250"/>
-      <c r="G335" s="250"/>
-      <c r="H335" s="250"/>
-      <c r="I335" s="250"/>
-      <c r="J335" s="250"/>
-      <c r="K335" s="251"/>
+      <c r="C335" s="170"/>
+      <c r="D335" s="170"/>
+      <c r="E335" s="170"/>
+      <c r="F335" s="170"/>
+      <c r="G335" s="170"/>
+      <c r="H335" s="170"/>
+      <c r="I335" s="170"/>
+      <c r="J335" s="170"/>
+      <c r="K335" s="171"/>
       <c r="L335" s="33"/>
     </row>
     <row r="336" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="252"/>
-      <c r="C336" s="253"/>
-      <c r="D336" s="253"/>
-      <c r="E336" s="253"/>
-      <c r="F336" s="253"/>
-      <c r="G336" s="253"/>
-      <c r="H336" s="253"/>
-      <c r="I336" s="253"/>
-      <c r="J336" s="253"/>
-      <c r="K336" s="254"/>
+      <c r="B336" s="172"/>
+      <c r="C336" s="173"/>
+      <c r="D336" s="173"/>
+      <c r="E336" s="173"/>
+      <c r="F336" s="173"/>
+      <c r="G336" s="173"/>
+      <c r="H336" s="173"/>
+      <c r="I336" s="173"/>
+      <c r="J336" s="173"/>
+      <c r="K336" s="174"/>
       <c r="L336" s="59"/>
     </row>
     <row r="337" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="252"/>
-      <c r="C337" s="253"/>
-      <c r="D337" s="253"/>
-      <c r="E337" s="253"/>
-      <c r="F337" s="253"/>
-      <c r="G337" s="253"/>
-      <c r="H337" s="253"/>
-      <c r="I337" s="253"/>
-      <c r="J337" s="253"/>
-      <c r="K337" s="254"/>
+      <c r="B337" s="172"/>
+      <c r="C337" s="173"/>
+      <c r="D337" s="173"/>
+      <c r="E337" s="173"/>
+      <c r="F337" s="173"/>
+      <c r="G337" s="173"/>
+      <c r="H337" s="173"/>
+      <c r="I337" s="173"/>
+      <c r="J337" s="173"/>
+      <c r="K337" s="174"/>
       <c r="L337" s="59"/>
     </row>
     <row r="338" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="252"/>
-      <c r="C338" s="253"/>
-      <c r="D338" s="253"/>
-      <c r="E338" s="253"/>
-      <c r="F338" s="253"/>
-      <c r="G338" s="253"/>
-      <c r="H338" s="253"/>
-      <c r="I338" s="253"/>
-      <c r="J338" s="253"/>
-      <c r="K338" s="254"/>
+      <c r="B338" s="172"/>
+      <c r="C338" s="173"/>
+      <c r="D338" s="173"/>
+      <c r="E338" s="173"/>
+      <c r="F338" s="173"/>
+      <c r="G338" s="173"/>
+      <c r="H338" s="173"/>
+      <c r="I338" s="173"/>
+      <c r="J338" s="173"/>
+      <c r="K338" s="174"/>
       <c r="L338" s="59"/>
     </row>
     <row r="339" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="255"/>
-      <c r="C339" s="256"/>
-      <c r="D339" s="256"/>
-      <c r="E339" s="256"/>
-      <c r="F339" s="256"/>
-      <c r="G339" s="256"/>
-      <c r="H339" s="256"/>
-      <c r="I339" s="256"/>
-      <c r="J339" s="256"/>
-      <c r="K339" s="257"/>
+      <c r="B339" s="175"/>
+      <c r="C339" s="176"/>
+      <c r="D339" s="176"/>
+      <c r="E339" s="176"/>
+      <c r="F339" s="176"/>
+      <c r="G339" s="176"/>
+      <c r="H339" s="176"/>
+      <c r="I339" s="176"/>
+      <c r="J339" s="176"/>
+      <c r="K339" s="177"/>
       <c r="L339" s="59"/>
     </row>
     <row r="340" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7613,18 +7612,18 @@
     </row>
     <row r="341" spans="1:12" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="248" t="s">
+      <c r="B341" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="248"/>
-      <c r="D341" s="248"/>
-      <c r="E341" s="248"/>
-      <c r="F341" s="248"/>
-      <c r="G341" s="248"/>
-      <c r="H341" s="248"/>
-      <c r="I341" s="248"/>
-      <c r="J341" s="248"/>
-      <c r="K341" s="248"/>
+      <c r="C341" s="159"/>
+      <c r="D341" s="159"/>
+      <c r="E341" s="159"/>
+      <c r="F341" s="159"/>
+      <c r="G341" s="159"/>
+      <c r="H341" s="159"/>
+      <c r="I341" s="159"/>
+      <c r="J341" s="159"/>
+      <c r="K341" s="159"/>
       <c r="L341" s="59"/>
     </row>
     <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7670,12 +7669,12 @@
     </row>
     <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="173" t="s">
+      <c r="B345" s="156" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="173"/>
-      <c r="D345" s="173"/>
-      <c r="E345" s="173"/>
+      <c r="C345" s="156"/>
+      <c r="D345" s="156"/>
+      <c r="E345" s="156"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -7696,12 +7695,12 @@
     </row>
     <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="173" t="s">
+      <c r="B347" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="173"/>
-      <c r="D347" s="173"/>
-      <c r="E347" s="173"/>
+      <c r="C347" s="156"/>
+      <c r="D347" s="156"/>
+      <c r="E347" s="156"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -7724,13 +7723,13 @@
     </row>
     <row r="349" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="173" t="s">
+      <c r="B349" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="173"/>
-      <c r="D349" s="173"/>
-      <c r="E349" s="173"/>
-      <c r="F349" s="148"/>
+      <c r="C349" s="156"/>
+      <c r="D349" s="156"/>
+      <c r="E349" s="156"/>
+      <c r="F349" s="158"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -7751,13 +7750,13 @@
     </row>
     <row r="351" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="173" t="s">
+      <c r="B351" s="156" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="173"/>
-      <c r="D351" s="173"/>
-      <c r="E351" s="173"/>
-      <c r="F351" s="148"/>
+      <c r="C351" s="156"/>
+      <c r="D351" s="156"/>
+      <c r="E351" s="156"/>
+      <c r="F351" s="158"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -7778,13 +7777,13 @@
     </row>
     <row r="353" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="173" t="s">
+      <c r="B353" s="156" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="173"/>
-      <c r="D353" s="173"/>
-      <c r="E353" s="173"/>
-      <c r="F353" s="148"/>
+      <c r="C353" s="156"/>
+      <c r="D353" s="156"/>
+      <c r="E353" s="156"/>
+      <c r="F353" s="158"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -7851,78 +7850,78 @@
     </row>
     <row r="358" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="163" t="s">
+      <c r="B358" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="164"/>
-      <c r="D358" s="164"/>
-      <c r="E358" s="164"/>
-      <c r="F358" s="164"/>
-      <c r="G358" s="164"/>
-      <c r="H358" s="164"/>
-      <c r="I358" s="164"/>
-      <c r="J358" s="164"/>
-      <c r="K358" s="165"/>
+      <c r="C358" s="161"/>
+      <c r="D358" s="161"/>
+      <c r="E358" s="161"/>
+      <c r="F358" s="161"/>
+      <c r="G358" s="161"/>
+      <c r="H358" s="161"/>
+      <c r="I358" s="161"/>
+      <c r="J358" s="161"/>
+      <c r="K358" s="162"/>
       <c r="L358" s="33"/>
       <c r="M358" s="2"/>
     </row>
     <row r="359" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="166"/>
-      <c r="C359" s="167"/>
-      <c r="D359" s="167"/>
-      <c r="E359" s="167"/>
-      <c r="F359" s="167"/>
-      <c r="G359" s="167"/>
-      <c r="H359" s="167"/>
-      <c r="I359" s="167"/>
-      <c r="J359" s="167"/>
-      <c r="K359" s="168"/>
+      <c r="B359" s="163"/>
+      <c r="C359" s="164"/>
+      <c r="D359" s="164"/>
+      <c r="E359" s="164"/>
+      <c r="F359" s="164"/>
+      <c r="G359" s="164"/>
+      <c r="H359" s="164"/>
+      <c r="I359" s="164"/>
+      <c r="J359" s="164"/>
+      <c r="K359" s="165"/>
       <c r="L359" s="59"/>
       <c r="M359" s="2"/>
     </row>
     <row r="360" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="166"/>
-      <c r="C360" s="167"/>
-      <c r="D360" s="167"/>
-      <c r="E360" s="167"/>
-      <c r="F360" s="167"/>
-      <c r="G360" s="167"/>
-      <c r="H360" s="167"/>
-      <c r="I360" s="167"/>
-      <c r="J360" s="167"/>
-      <c r="K360" s="168"/>
+      <c r="B360" s="163"/>
+      <c r="C360" s="164"/>
+      <c r="D360" s="164"/>
+      <c r="E360" s="164"/>
+      <c r="F360" s="164"/>
+      <c r="G360" s="164"/>
+      <c r="H360" s="164"/>
+      <c r="I360" s="164"/>
+      <c r="J360" s="164"/>
+      <c r="K360" s="165"/>
       <c r="L360" s="59"/>
       <c r="M360" s="2"/>
     </row>
     <row r="361" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="166"/>
-      <c r="C361" s="167"/>
-      <c r="D361" s="167"/>
-      <c r="E361" s="167"/>
-      <c r="F361" s="167"/>
-      <c r="G361" s="167"/>
-      <c r="H361" s="167"/>
-      <c r="I361" s="167"/>
-      <c r="J361" s="167"/>
-      <c r="K361" s="168"/>
+      <c r="B361" s="163"/>
+      <c r="C361" s="164"/>
+      <c r="D361" s="164"/>
+      <c r="E361" s="164"/>
+      <c r="F361" s="164"/>
+      <c r="G361" s="164"/>
+      <c r="H361" s="164"/>
+      <c r="I361" s="164"/>
+      <c r="J361" s="164"/>
+      <c r="K361" s="165"/>
       <c r="L361" s="59"/>
       <c r="M361" s="2"/>
     </row>
     <row r="362" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="169"/>
-      <c r="C362" s="170"/>
-      <c r="D362" s="170"/>
-      <c r="E362" s="170"/>
-      <c r="F362" s="170"/>
-      <c r="G362" s="170"/>
-      <c r="H362" s="170"/>
-      <c r="I362" s="170"/>
-      <c r="J362" s="170"/>
-      <c r="K362" s="171"/>
+      <c r="B362" s="166"/>
+      <c r="C362" s="167"/>
+      <c r="D362" s="167"/>
+      <c r="E362" s="167"/>
+      <c r="F362" s="167"/>
+      <c r="G362" s="167"/>
+      <c r="H362" s="167"/>
+      <c r="I362" s="167"/>
+      <c r="J362" s="167"/>
+      <c r="K362" s="168"/>
       <c r="L362" s="59"/>
       <c r="M362" s="2"/>
     </row>
@@ -7993,27 +7992,27 @@
     </row>
     <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="238" t="s">
+      <c r="B367" s="182" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="239"/>
-      <c r="D367" s="227" t="s">
+      <c r="C367" s="183"/>
+      <c r="D367" s="154" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="228"/>
-      <c r="F367" s="228"/>
-      <c r="G367" s="228"/>
-      <c r="H367" s="228"/>
-      <c r="I367" s="228"/>
-      <c r="J367" s="228"/>
-      <c r="K367" s="229"/>
+      <c r="E367" s="178"/>
+      <c r="F367" s="178"/>
+      <c r="G367" s="178"/>
+      <c r="H367" s="178"/>
+      <c r="I367" s="178"/>
+      <c r="J367" s="178"/>
+      <c r="K367" s="155"/>
       <c r="L367" s="19"/>
       <c r="M367" s="2"/>
     </row>
     <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="227"/>
-      <c r="C368" s="229"/>
+      <c r="B368" s="154"/>
+      <c r="C368" s="155"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8027,18 +8026,18 @@
     </row>
     <row r="369" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="172" t="s">
+      <c r="B369" s="209" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="172"/>
-      <c r="D369" s="172"/>
-      <c r="E369" s="172"/>
-      <c r="F369" s="172"/>
-      <c r="G369" s="172"/>
-      <c r="H369" s="172"/>
-      <c r="I369" s="172"/>
-      <c r="J369" s="172"/>
-      <c r="K369" s="172"/>
+      <c r="C369" s="209"/>
+      <c r="D369" s="209"/>
+      <c r="E369" s="209"/>
+      <c r="F369" s="209"/>
+      <c r="G369" s="209"/>
+      <c r="H369" s="209"/>
+      <c r="I369" s="209"/>
+      <c r="J369" s="209"/>
+      <c r="K369" s="209"/>
       <c r="L369" s="12"/>
       <c r="M369" s="2"/>
     </row>
@@ -8121,20 +8120,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="216" t="s">
+      <c r="C375" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="216"/>
-      <c r="E375" s="217" t="s">
+      <c r="D375" s="189"/>
+      <c r="E375" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="217"/>
-      <c r="G375" s="217"/>
-      <c r="H375" s="217" t="s">
+      <c r="F375" s="188"/>
+      <c r="G375" s="188"/>
+      <c r="H375" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="217"/>
-      <c r="J375" s="217"/>
+      <c r="I375" s="188"/>
+      <c r="J375" s="188"/>
       <c r="K375" s="21"/>
       <c r="L375" s="17"/>
     </row>
@@ -8143,14 +8142,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="216"/>
-      <c r="D376" s="216"/>
-      <c r="E376" s="217"/>
-      <c r="F376" s="217"/>
-      <c r="G376" s="217"/>
-      <c r="H376" s="217"/>
-      <c r="I376" s="217"/>
-      <c r="J376" s="217"/>
+      <c r="C376" s="189"/>
+      <c r="D376" s="189"/>
+      <c r="E376" s="188"/>
+      <c r="F376" s="188"/>
+      <c r="G376" s="188"/>
+      <c r="H376" s="188"/>
+      <c r="I376" s="188"/>
+      <c r="J376" s="188"/>
       <c r="K376" s="33"/>
       <c r="L376" s="75"/>
     </row>
@@ -8159,14 +8158,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="216"/>
-      <c r="D377" s="216"/>
-      <c r="E377" s="217"/>
-      <c r="F377" s="217"/>
-      <c r="G377" s="217"/>
-      <c r="H377" s="217"/>
-      <c r="I377" s="217"/>
-      <c r="J377" s="217"/>
+      <c r="C377" s="189"/>
+      <c r="D377" s="189"/>
+      <c r="E377" s="188"/>
+      <c r="F377" s="188"/>
+      <c r="G377" s="188"/>
+      <c r="H377" s="188"/>
+      <c r="I377" s="188"/>
+      <c r="J377" s="188"/>
       <c r="K377" s="33"/>
       <c r="L377" s="33"/>
     </row>
@@ -8175,14 +8174,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="216"/>
-      <c r="D378" s="216"/>
-      <c r="E378" s="217"/>
-      <c r="F378" s="217"/>
-      <c r="G378" s="217"/>
-      <c r="H378" s="217"/>
-      <c r="I378" s="217"/>
-      <c r="J378" s="217"/>
+      <c r="C378" s="189"/>
+      <c r="D378" s="189"/>
+      <c r="E378" s="188"/>
+      <c r="F378" s="188"/>
+      <c r="G378" s="188"/>
+      <c r="H378" s="188"/>
+      <c r="I378" s="188"/>
+      <c r="J378" s="188"/>
       <c r="K378" s="33"/>
       <c r="L378" s="33"/>
     </row>
@@ -8191,14 +8190,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="216"/>
-      <c r="D379" s="216"/>
-      <c r="E379" s="217"/>
-      <c r="F379" s="217"/>
-      <c r="G379" s="217"/>
-      <c r="H379" s="217"/>
-      <c r="I379" s="217"/>
-      <c r="J379" s="217"/>
+      <c r="C379" s="189"/>
+      <c r="D379" s="189"/>
+      <c r="E379" s="188"/>
+      <c r="F379" s="188"/>
+      <c r="G379" s="188"/>
+      <c r="H379" s="188"/>
+      <c r="I379" s="188"/>
+      <c r="J379" s="188"/>
       <c r="K379" s="33"/>
       <c r="L379" s="33"/>
     </row>
@@ -8207,14 +8206,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="216"/>
-      <c r="D380" s="216"/>
-      <c r="E380" s="217"/>
-      <c r="F380" s="217"/>
-      <c r="G380" s="217"/>
-      <c r="H380" s="217"/>
-      <c r="I380" s="217"/>
-      <c r="J380" s="217"/>
+      <c r="C380" s="189"/>
+      <c r="D380" s="189"/>
+      <c r="E380" s="188"/>
+      <c r="F380" s="188"/>
+      <c r="G380" s="188"/>
+      <c r="H380" s="188"/>
+      <c r="I380" s="188"/>
+      <c r="J380" s="188"/>
       <c r="K380" s="33"/>
       <c r="L380" s="33"/>
     </row>
@@ -8223,14 +8222,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="216"/>
-      <c r="D381" s="216"/>
-      <c r="E381" s="217"/>
-      <c r="F381" s="217"/>
-      <c r="G381" s="217"/>
-      <c r="H381" s="217"/>
-      <c r="I381" s="217"/>
-      <c r="J381" s="217"/>
+      <c r="C381" s="189"/>
+      <c r="D381" s="189"/>
+      <c r="E381" s="188"/>
+      <c r="F381" s="188"/>
+      <c r="G381" s="188"/>
+      <c r="H381" s="188"/>
+      <c r="I381" s="188"/>
+      <c r="J381" s="188"/>
       <c r="K381" s="33"/>
       <c r="L381" s="33"/>
     </row>
@@ -8239,14 +8238,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="216"/>
-      <c r="D382" s="216"/>
-      <c r="E382" s="217"/>
-      <c r="F382" s="217"/>
-      <c r="G382" s="217"/>
-      <c r="H382" s="217"/>
-      <c r="I382" s="217"/>
-      <c r="J382" s="217"/>
+      <c r="C382" s="189"/>
+      <c r="D382" s="189"/>
+      <c r="E382" s="188"/>
+      <c r="F382" s="188"/>
+      <c r="G382" s="188"/>
+      <c r="H382" s="188"/>
+      <c r="I382" s="188"/>
+      <c r="J382" s="188"/>
       <c r="K382" s="33"/>
       <c r="L382" s="33"/>
     </row>
@@ -8361,52 +8360,52 @@
     </row>
     <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="216" t="s">
+      <c r="C392" s="189" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="216"/>
+      <c r="D392" s="189"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
     </row>
     <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="145" t="s">
+      <c r="B393" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="145" t="s">
+      <c r="C393" s="202" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="145" t="s">
+      <c r="D393" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="145" t="s">
+      <c r="E393" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="218" t="s">
+      <c r="F393" s="203" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="218" t="s">
+      <c r="G393" s="203" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="218" t="s">
+      <c r="H393" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="217" t="s">
+      <c r="I393" s="188" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="217"/>
+      <c r="J393" s="188"/>
       <c r="K393" s="24"/>
     </row>
     <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="145"/>
-      <c r="C394" s="145"/>
-      <c r="D394" s="145"/>
-      <c r="E394" s="145"/>
-      <c r="F394" s="219"/>
-      <c r="G394" s="219"/>
-      <c r="H394" s="219"/>
+      <c r="B394" s="202"/>
+      <c r="C394" s="202"/>
+      <c r="D394" s="202"/>
+      <c r="E394" s="202"/>
+      <c r="F394" s="204"/>
+      <c r="G394" s="204"/>
+      <c r="H394" s="204"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -8691,20 +8690,20 @@
     </row>
     <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="152" t="s">
+      <c r="B414" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="154"/>
-      <c r="D414" s="152" t="s">
+      <c r="C414" s="200"/>
+      <c r="D414" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="153"/>
-      <c r="F414" s="153"/>
-      <c r="G414" s="153"/>
-      <c r="H414" s="153"/>
-      <c r="I414" s="153"/>
-      <c r="J414" s="154"/>
-      <c r="K414" s="218" t="s">
+      <c r="E414" s="199"/>
+      <c r="F414" s="199"/>
+      <c r="G414" s="199"/>
+      <c r="H414" s="199"/>
+      <c r="I414" s="199"/>
+      <c r="J414" s="200"/>
+      <c r="K414" s="203" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8737,7 +8736,7 @@
       <c r="J415" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K415" s="219"/>
+      <c r="K415" s="204"/>
     </row>
     <row r="416" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -8968,22 +8967,22 @@
     </row>
     <row r="431" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="152" t="s">
+      <c r="B431" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="154"/>
-      <c r="D431" s="226" t="s">
+      <c r="C431" s="200"/>
+      <c r="D431" s="208" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="152" t="s">
+      <c r="E431" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="153"/>
-      <c r="G431" s="153"/>
-      <c r="H431" s="153"/>
-      <c r="I431" s="153"/>
-      <c r="J431" s="154"/>
-      <c r="K431" s="218" t="s">
+      <c r="F431" s="199"/>
+      <c r="G431" s="199"/>
+      <c r="H431" s="199"/>
+      <c r="I431" s="199"/>
+      <c r="J431" s="200"/>
+      <c r="K431" s="203" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8995,7 +8994,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="216"/>
+      <c r="D432" s="189"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9014,7 +9013,7 @@
       <c r="J432" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K432" s="219"/>
+      <c r="K432" s="204"/>
     </row>
     <row r="433" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9190,25 +9189,25 @@
     </row>
     <row r="445" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="233" t="s">
+      <c r="B445" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="234"/>
-      <c r="D445" s="152" t="s">
+      <c r="C445" s="195"/>
+      <c r="D445" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="153"/>
-      <c r="F445" s="153"/>
-      <c r="G445" s="153"/>
-      <c r="H445" s="153"/>
-      <c r="I445" s="153"/>
-      <c r="J445" s="154"/>
-      <c r="K445" s="237"/>
+      <c r="E445" s="199"/>
+      <c r="F445" s="199"/>
+      <c r="G445" s="199"/>
+      <c r="H445" s="199"/>
+      <c r="I445" s="199"/>
+      <c r="J445" s="200"/>
+      <c r="K445" s="201"/>
     </row>
     <row r="446" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="235"/>
-      <c r="C446" s="236"/>
+      <c r="B446" s="196"/>
+      <c r="C446" s="197"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9230,14 +9229,14 @@
       <c r="J446" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K446" s="237"/>
+      <c r="K446" s="201"/>
     </row>
     <row r="447" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="227" t="s">
+      <c r="B447" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="229"/>
+      <c r="C447" s="155"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9249,10 +9248,10 @@
     </row>
     <row r="448" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="227" t="s">
+      <c r="B448" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="229"/>
+      <c r="C448" s="155"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9264,10 +9263,10 @@
     </row>
     <row r="449" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="227" t="s">
+      <c r="B449" s="154" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="229"/>
+      <c r="C449" s="155"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9279,10 +9278,10 @@
     </row>
     <row r="450" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="152" t="s">
+      <c r="B450" s="198" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="154"/>
+      <c r="C450" s="200"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -9596,17 +9595,17 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="223" t="s">
+      <c r="C472" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="D472" s="224"/>
-      <c r="E472" s="224"/>
-      <c r="F472" s="224"/>
-      <c r="G472" s="224"/>
-      <c r="H472" s="224"/>
-      <c r="I472" s="224"/>
-      <c r="J472" s="224"/>
-      <c r="K472" s="225"/>
+      <c r="D472" s="148"/>
+      <c r="E472" s="148"/>
+      <c r="F472" s="148"/>
+      <c r="G472" s="148"/>
+      <c r="H472" s="148"/>
+      <c r="I472" s="148"/>
+      <c r="J472" s="148"/>
+      <c r="K472" s="149"/>
       <c r="L472" s="135"/>
     </row>
     <row r="473" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9640,10 +9639,10 @@
     <row r="475" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="216" t="s">
+      <c r="C475" s="189" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="216"/>
+      <c r="D475" s="189"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -9654,42 +9653,42 @@
     </row>
     <row r="476" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="145" t="s">
+      <c r="B476" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="145" t="s">
+      <c r="C476" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="145" t="s">
+      <c r="D476" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="145" t="s">
+      <c r="E476" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="218" t="s">
+      <c r="F476" s="203" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="218" t="s">
+      <c r="G476" s="203" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="218" t="s">
+      <c r="H476" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="220" t="s">
+      <c r="I476" s="205" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="221"/>
-      <c r="K476" s="222"/>
+      <c r="J476" s="206"/>
+      <c r="K476" s="207"/>
     </row>
     <row r="477" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="145"/>
-      <c r="C477" s="145"/>
-      <c r="D477" s="145"/>
-      <c r="E477" s="145"/>
-      <c r="F477" s="219"/>
-      <c r="G477" s="219"/>
-      <c r="H477" s="219"/>
+      <c r="B477" s="202"/>
+      <c r="C477" s="202"/>
+      <c r="D477" s="202"/>
+      <c r="E477" s="202"/>
+      <c r="F477" s="204"/>
+      <c r="G477" s="204"/>
+      <c r="H477" s="204"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -9825,10 +9824,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="210" t="s">
+      <c r="F484" s="184" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="212"/>
+      <c r="G484" s="185"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -9843,10 +9842,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="213" t="s">
+      <c r="F485" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="215"/>
+      <c r="G485" s="181"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -9861,10 +9860,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="213" t="s">
+      <c r="F486" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="G486" s="215"/>
+      <c r="G486" s="181"/>
       <c r="H486" s="127">
         <v>17290.75</v>
       </c>
@@ -9879,10 +9878,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="231" t="s">
+      <c r="F487" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="G487" s="232"/>
+      <c r="G487" s="193"/>
       <c r="H487" s="138">
         <f>SUM(H478:H486)+0.01</f>
         <v>348742.24</v>
@@ -10018,26 +10017,26 @@
     </row>
     <row r="496" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="233" t="s">
+      <c r="B496" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="C496" s="234"/>
-      <c r="D496" s="152" t="s">
+      <c r="C496" s="195"/>
+      <c r="D496" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="E496" s="153"/>
-      <c r="F496" s="153"/>
-      <c r="G496" s="153"/>
-      <c r="H496" s="153"/>
-      <c r="I496" s="153"/>
-      <c r="J496" s="154"/>
-      <c r="K496" s="237"/>
+      <c r="E496" s="199"/>
+      <c r="F496" s="199"/>
+      <c r="G496" s="199"/>
+      <c r="H496" s="199"/>
+      <c r="I496" s="199"/>
+      <c r="J496" s="200"/>
+      <c r="K496" s="201"/>
       <c r="L496" s="79"/>
     </row>
     <row r="497" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="235"/>
-      <c r="C497" s="236"/>
+      <c r="B497" s="196"/>
+      <c r="C497" s="197"/>
       <c r="D497" s="74">
         <v>1</v>
       </c>
@@ -10059,15 +10058,15 @@
       <c r="J497" s="74">
         <v>10</v>
       </c>
-      <c r="K497" s="237"/>
+      <c r="K497" s="201"/>
       <c r="L497" s="79"/>
     </row>
     <row r="498" spans="1:12" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="210" t="s">
+      <c r="B498" s="184" t="s">
         <v>342</v>
       </c>
-      <c r="C498" s="212"/>
+      <c r="C498" s="185"/>
       <c r="D498" s="102"/>
       <c r="E498" s="142">
         <v>3500</v>
@@ -10088,10 +10087,10 @@
     </row>
     <row r="499" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="227" t="s">
+      <c r="B499" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="C499" s="229"/>
+      <c r="C499" s="155"/>
       <c r="D499" s="81"/>
       <c r="E499" s="81"/>
       <c r="F499" s="81"/>
@@ -10104,10 +10103,10 @@
     </row>
     <row r="500" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="227" t="s">
+      <c r="B500" s="154" t="s">
         <v>220</v>
       </c>
-      <c r="C500" s="229"/>
+      <c r="C500" s="155"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10120,9 +10119,9 @@
     </row>
     <row r="501" spans="1:12" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="78"/>
-      <c r="B501" s="242"/>
-      <c r="C501" s="242"/>
-      <c r="D501" s="242"/>
+      <c r="B501" s="145"/>
+      <c r="C501" s="145"/>
+      <c r="D501" s="145"/>
       <c r="E501" s="39"/>
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
@@ -10519,12 +10518,12 @@
       <c r="K528" s="79"/>
     </row>
     <row r="529" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="182" t="s">
+      <c r="A529" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="B529" s="182"/>
-      <c r="C529" s="182"/>
-      <c r="D529" s="182"/>
+      <c r="B529" s="190"/>
+      <c r="C529" s="190"/>
+      <c r="D529" s="190"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="79"/>
@@ -10596,34 +10595,34 @@
       <c r="J534" s="78"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A535" s="230" t="s">
+      <c r="A535" s="191" t="s">
         <v>248</v>
       </c>
-      <c r="B535" s="230"/>
-      <c r="C535" s="230"/>
-      <c r="D535" s="230"/>
-      <c r="E535" s="230"/>
-      <c r="F535" s="230"/>
-      <c r="G535" s="230"/>
-      <c r="H535" s="230"/>
-      <c r="I535" s="230"/>
-      <c r="J535" s="230"/>
-      <c r="K535" s="230"/>
+      <c r="B535" s="191"/>
+      <c r="C535" s="191"/>
+      <c r="D535" s="191"/>
+      <c r="E535" s="191"/>
+      <c r="F535" s="191"/>
+      <c r="G535" s="191"/>
+      <c r="H535" s="191"/>
+      <c r="I535" s="191"/>
+      <c r="J535" s="191"/>
+      <c r="K535" s="191"/>
     </row>
     <row r="536" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="230" t="s">
+      <c r="A536" s="191" t="s">
         <v>271</v>
       </c>
-      <c r="B536" s="230"/>
-      <c r="C536" s="230"/>
-      <c r="D536" s="230"/>
-      <c r="E536" s="230"/>
-      <c r="F536" s="230"/>
-      <c r="G536" s="230"/>
-      <c r="H536" s="230"/>
-      <c r="I536" s="230"/>
-      <c r="J536" s="230"/>
-      <c r="K536" s="230"/>
+      <c r="B536" s="191"/>
+      <c r="C536" s="191"/>
+      <c r="D536" s="191"/>
+      <c r="E536" s="191"/>
+      <c r="F536" s="191"/>
+      <c r="G536" s="191"/>
+      <c r="H536" s="191"/>
+      <c r="I536" s="191"/>
+      <c r="J536" s="191"/>
+      <c r="K536" s="191"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="79"/>
@@ -10652,19 +10651,19 @@
       <c r="J538" s="78"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A539" s="230" t="s">
+      <c r="A539" s="191" t="s">
         <v>250</v>
       </c>
-      <c r="B539" s="230"/>
-      <c r="C539" s="230"/>
-      <c r="D539" s="230"/>
-      <c r="E539" s="230"/>
-      <c r="F539" s="230"/>
-      <c r="G539" s="230"/>
-      <c r="H539" s="230"/>
-      <c r="I539" s="230"/>
-      <c r="J539" s="230"/>
-      <c r="K539" s="230"/>
+      <c r="B539" s="191"/>
+      <c r="C539" s="191"/>
+      <c r="D539" s="191"/>
+      <c r="E539" s="191"/>
+      <c r="F539" s="191"/>
+      <c r="G539" s="191"/>
+      <c r="H539" s="191"/>
+      <c r="I539" s="191"/>
+      <c r="J539" s="191"/>
+      <c r="K539" s="191"/>
     </row>
     <row r="540" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="78"/>
@@ -10680,6 +10679,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:K245"/>
+    <mergeCell ref="B246:K246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:K280"/>
+    <mergeCell ref="D268:K268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:K227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:K162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:K264"/>
+    <mergeCell ref="B369:K369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:K216"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B129:K129"/>
+    <mergeCell ref="B143:K143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:K123"/>
+    <mergeCell ref="B193:K197"/>
+    <mergeCell ref="B200:K204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:K476"/>
+    <mergeCell ref="C472:K472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="K414:K415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="K431:K432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A535:K535"/>
+    <mergeCell ref="A536:K536"/>
+    <mergeCell ref="A539:K539"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B496:C497"/>
+    <mergeCell ref="D496:J496"/>
+    <mergeCell ref="K496:K497"/>
+    <mergeCell ref="B498:C498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="K445:K446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="B501:D501"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -10704,134 +10831,6 @@
     <mergeCell ref="D367:K367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:K237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A535:K535"/>
-    <mergeCell ref="A536:K536"/>
-    <mergeCell ref="A539:K539"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B496:C497"/>
-    <mergeCell ref="D496:J496"/>
-    <mergeCell ref="K496:K497"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="K445:K446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:K476"/>
-    <mergeCell ref="C472:K472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="K414:K415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="K431:K432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:K369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:K216"/>
-    <mergeCell ref="B126:K126"/>
-    <mergeCell ref="B129:K129"/>
-    <mergeCell ref="B143:K143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:K123"/>
-    <mergeCell ref="B193:K197"/>
-    <mergeCell ref="B200:K204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:K245"/>
-    <mergeCell ref="B246:K246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:K280"/>
-    <mergeCell ref="D268:K268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:K227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:K162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:K264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IE santa rosa.xlsx
+++ b/14.0 FORMATO N°07-C REGISTRO DE IOARR/F 7C IE santa rosa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0005\14.0 FORMATO N°07-C REGISTRO DE IOARR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5082EF-2336-426D-8BAB-9DEFFF467E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71593423-8C6F-4F4B-B466-FB45D9616ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEP N° 54411 SR" sheetId="1" r:id="rId1"/>
@@ -1032,15 +1032,9 @@
     <t>OFICINA  DE FORMULACIÓN Y EVALUACIÓN DE INVERSIONES</t>
   </si>
   <si>
-    <t>SUB GERENCIA DE INFRAESTRUCTURA</t>
-  </si>
-  <si>
     <t>GOBIERNO REGIONAL DE APURIMAC SEDE CENTRAL</t>
   </si>
   <si>
-    <t>BALTAZAR LANTARON NUÑEZ</t>
-  </si>
-  <si>
     <t>GRAU</t>
   </si>
   <si>
@@ -1059,9 +1053,6 @@
     <t>JUAN FRANCISCO CISNEROS SULLCAHUAMAN</t>
   </si>
   <si>
-    <t>047 SEDE CENTRAL</t>
-  </si>
-  <si>
     <t>0200253</t>
   </si>
   <si>
@@ -1084,6 +1075,15 @@
   </si>
   <si>
     <t>INSTITUCION ADUCATIVA PRIMARIA  N°54411 ANDRES "AVELINO CACERES" - SANTA ROSA</t>
+  </si>
+  <si>
+    <t>GERENCIA REGIONAL DE INFRAESTRUCTURA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL AZURIN SOLIS</t>
+  </si>
+  <si>
+    <t>047 GOBIERNO REGIONAL DE APURÍMAC</t>
   </si>
 </sst>
 </file>
@@ -1981,18 +1981,351 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,15 +2335,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2018,15 +2342,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,321 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2638,8 +2638,8 @@
   </sheetPr>
   <dimension ref="A3:P543"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="51" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="85" zoomScaleNormal="51" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2661,52 +2661,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="229" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="232"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="233" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="190"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="236"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="205" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2740,18 +2740,18 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="265" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="267"/>
-      <c r="K8" s="268"/>
+      <c r="B8" s="162" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2947,10 +2947,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="250" t="s">
+      <c r="D21" s="161" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="250"/>
+      <c r="E21" s="161"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2979,10 +2979,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="250" t="s">
-        <v>331</v>
-      </c>
-      <c r="E23" s="250"/>
+      <c r="D23" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="161"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3044,14 +3044,14 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="251" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="269"/>
+      <c r="F27" s="165" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="155"/>
       <c r="L27" s="79"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3069,22 +3069,22 @@
     </row>
     <row r="29" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="238"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="252" t="s">
-        <v>332</v>
-      </c>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="254"/>
+      <c r="G29" s="166" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3103,11 +3103,11 @@
     </row>
     <row r="31" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="247" t="s">
+      <c r="B31" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="247"/>
-      <c r="D31" s="248"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>17</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I31" s="129" t="s">
         <v>18</v>
@@ -3126,7 +3126,7 @@
       <c r="J31" s="141">
         <v>1</v>
       </c>
-      <c r="K31" s="270"/>
+      <c r="K31" s="156"/>
       <c r="L31" s="17"/>
       <c r="M31" s="89"/>
     </row>
@@ -3268,12 +3268,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="222" t="s">
+      <c r="G40" s="194" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="224"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="196"/>
       <c r="K40" s="19"/>
       <c r="L40" s="78"/>
     </row>
@@ -3286,12 +3286,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="222" t="s">
+      <c r="G41" s="194" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="223"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="224"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
       <c r="K41" s="19"/>
       <c r="L41" s="78"/>
     </row>
@@ -3304,12 +3304,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="222" t="s">
+      <c r="G42" s="194" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="224"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
       <c r="K42" s="19"/>
       <c r="L42" s="78"/>
     </row>
@@ -3322,12 +3322,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="222" t="s">
+      <c r="G43" s="194" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="223"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="224"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="196"/>
       <c r="K43" s="19"/>
       <c r="L43" s="78"/>
     </row>
@@ -3371,12 +3371,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="222" t="s">
+      <c r="G46" s="194" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="223"/>
-      <c r="I46" s="223"/>
-      <c r="J46" s="224"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="196"/>
       <c r="K46" s="19"/>
       <c r="L46" s="78"/>
     </row>
@@ -3389,12 +3389,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="222" t="s">
+      <c r="G47" s="194" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="223"/>
-      <c r="I47" s="223"/>
-      <c r="J47" s="224"/>
+      <c r="H47" s="195"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="196"/>
       <c r="K47" s="19"/>
       <c r="L47" s="78"/>
     </row>
@@ -3407,12 +3407,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="219" t="s">
+      <c r="G48" s="216" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="220"/>
-      <c r="I48" s="220"/>
-      <c r="J48" s="221"/>
+      <c r="H48" s="267"/>
+      <c r="I48" s="267"/>
+      <c r="J48" s="217"/>
       <c r="K48" s="145"/>
       <c r="L48" s="78"/>
     </row>
@@ -3426,7 +3426,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="131" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H49" s="132"/>
       <c r="I49" s="132"/>
@@ -3479,12 +3479,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="222" t="s">
+      <c r="G52" s="194" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="223"/>
-      <c r="I52" s="223"/>
-      <c r="J52" s="224"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="196"/>
       <c r="K52" s="19"/>
       <c r="L52" s="78"/>
     </row>
@@ -3497,12 +3497,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="222" t="s">
-        <v>327</v>
-      </c>
-      <c r="H53" s="223"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="224"/>
+      <c r="G53" s="194" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" s="195"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="196"/>
       <c r="K53" s="19"/>
       <c r="L53" s="78"/>
     </row>
@@ -3516,7 +3516,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="131" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H54" s="132"/>
       <c r="I54" s="132"/>
@@ -3538,7 +3538,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="131" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="H55" s="132"/>
       <c r="I55" s="132"/>
@@ -3592,7 +3592,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="131" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H58" s="132"/>
       <c r="I58" s="132"/>
@@ -3688,7 +3688,7 @@
       <c r="C64" s="89"/>
       <c r="D64" s="89"/>
       <c r="E64" s="130" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89"/>
@@ -3751,14 +3751,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="236" t="s">
-        <v>343</v>
-      </c>
-      <c r="F68" s="237"/>
-      <c r="G68" s="237"/>
-      <c r="H68" s="237"/>
-      <c r="I68" s="237"/>
-      <c r="J68" s="238"/>
+      <c r="E68" s="169" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" s="193"/>
+      <c r="G68" s="193"/>
+      <c r="H68" s="193"/>
+      <c r="I68" s="193"/>
+      <c r="J68" s="170"/>
       <c r="K68" s="12"/>
       <c r="L68" s="137"/>
     </row>
@@ -3823,11 +3823,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="154" t="s">
+      <c r="F72" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
+      <c r="G72" s="218"/>
+      <c r="H72" s="218"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3839,17 +3839,17 @@
         <v>313</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="155" t="s">
-        <v>338</v>
-      </c>
-      <c r="G73" s="155"/>
-      <c r="H73" s="155"/>
+      <c r="F73" s="268" t="s">
+        <v>335</v>
+      </c>
+      <c r="G73" s="268"/>
+      <c r="H73" s="268"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3981,10 +3981,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="226" t="s">
+      <c r="D82" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="226"/>
+      <c r="E82" s="203"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -4070,17 +4070,17 @@
     </row>
     <row r="87" spans="1:12" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="159" t="s">
+      <c r="B87" s="270" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="159"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="159"/>
-      <c r="F87" s="159"/>
-      <c r="G87" s="159"/>
-      <c r="H87" s="159"/>
-      <c r="I87" s="159"/>
-      <c r="J87" s="159"/>
+      <c r="C87" s="270"/>
+      <c r="D87" s="270"/>
+      <c r="E87" s="270"/>
+      <c r="F87" s="270"/>
+      <c r="G87" s="270"/>
+      <c r="H87" s="270"/>
+      <c r="I87" s="270"/>
+      <c r="J87" s="270"/>
       <c r="K87" s="153"/>
       <c r="L87" s="79"/>
     </row>
@@ -4247,10 +4247,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="164" t="s">
+      <c r="E98" s="272" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="165"/>
+      <c r="F98" s="273"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4430,13 +4430,13 @@
     </row>
     <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="210" t="s">
+      <c r="B110" s="255" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="210"/>
-      <c r="D110" s="210"/>
-      <c r="E110" s="210"/>
-      <c r="F110" s="211"/>
+      <c r="C110" s="255"/>
+      <c r="D110" s="255"/>
+      <c r="E110" s="255"/>
+      <c r="F110" s="256"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4451,8 +4451,8 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="212"/>
-      <c r="H111" s="212"/>
+      <c r="G111" s="257"/>
+      <c r="H111" s="257"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="151"/>
@@ -4460,13 +4460,13 @@
     </row>
     <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="210" t="s">
+      <c r="B112" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="210"/>
-      <c r="D112" s="210"/>
-      <c r="E112" s="210"/>
-      <c r="F112" s="211"/>
+      <c r="C112" s="255"/>
+      <c r="D112" s="255"/>
+      <c r="E112" s="255"/>
+      <c r="F112" s="256"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4598,47 +4598,47 @@
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="213" t="s">
+      <c r="B121" s="258" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="214"/>
-      <c r="D121" s="214"/>
-      <c r="E121" s="214"/>
-      <c r="F121" s="214"/>
-      <c r="G121" s="214"/>
-      <c r="H121" s="214"/>
-      <c r="I121" s="214"/>
-      <c r="J121" s="214"/>
-      <c r="K121" s="214"/>
-      <c r="L121" s="215"/>
+      <c r="C121" s="259"/>
+      <c r="D121" s="259"/>
+      <c r="E121" s="259"/>
+      <c r="F121" s="259"/>
+      <c r="G121" s="259"/>
+      <c r="H121" s="259"/>
+      <c r="I121" s="259"/>
+      <c r="J121" s="259"/>
+      <c r="K121" s="259"/>
+      <c r="L121" s="260"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="166"/>
-      <c r="C122" s="167"/>
-      <c r="D122" s="167"/>
-      <c r="E122" s="167"/>
-      <c r="F122" s="167"/>
-      <c r="G122" s="167"/>
-      <c r="H122" s="167"/>
-      <c r="I122" s="167"/>
-      <c r="J122" s="167"/>
-      <c r="K122" s="167"/>
-      <c r="L122" s="168"/>
+      <c r="B122" s="261"/>
+      <c r="C122" s="262"/>
+      <c r="D122" s="262"/>
+      <c r="E122" s="262"/>
+      <c r="F122" s="262"/>
+      <c r="G122" s="262"/>
+      <c r="H122" s="262"/>
+      <c r="I122" s="262"/>
+      <c r="J122" s="262"/>
+      <c r="K122" s="262"/>
+      <c r="L122" s="263"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="216"/>
-      <c r="C123" s="217"/>
-      <c r="D123" s="217"/>
-      <c r="E123" s="217"/>
-      <c r="F123" s="217"/>
-      <c r="G123" s="217"/>
-      <c r="H123" s="217"/>
-      <c r="I123" s="217"/>
-      <c r="J123" s="217"/>
-      <c r="K123" s="217"/>
-      <c r="L123" s="218"/>
+      <c r="B123" s="264"/>
+      <c r="C123" s="265"/>
+      <c r="D123" s="265"/>
+      <c r="E123" s="265"/>
+      <c r="F123" s="265"/>
+      <c r="G123" s="265"/>
+      <c r="H123" s="265"/>
+      <c r="I123" s="265"/>
+      <c r="J123" s="265"/>
+      <c r="K123" s="265"/>
+      <c r="L123" s="266"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4672,19 +4672,19 @@
     </row>
     <row r="126" spans="1:12" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="203" t="s">
+      <c r="B126" s="248" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="204"/>
-      <c r="D126" s="204"/>
-      <c r="E126" s="204"/>
-      <c r="F126" s="204"/>
-      <c r="G126" s="204"/>
-      <c r="H126" s="204"/>
-      <c r="I126" s="204"/>
-      <c r="J126" s="204"/>
-      <c r="K126" s="204"/>
-      <c r="L126" s="205"/>
+      <c r="C126" s="249"/>
+      <c r="D126" s="249"/>
+      <c r="E126" s="249"/>
+      <c r="F126" s="249"/>
+      <c r="G126" s="249"/>
+      <c r="H126" s="249"/>
+      <c r="I126" s="249"/>
+      <c r="J126" s="249"/>
+      <c r="K126" s="249"/>
+      <c r="L126" s="250"/>
     </row>
     <row r="127" spans="1:12" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4718,19 +4718,19 @@
     </row>
     <row r="129" spans="1:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="206" t="s">
+      <c r="B129" s="251" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="207"/>
-      <c r="D129" s="207"/>
-      <c r="E129" s="207"/>
-      <c r="F129" s="207"/>
-      <c r="G129" s="207"/>
-      <c r="H129" s="207"/>
-      <c r="I129" s="207"/>
-      <c r="J129" s="207"/>
-      <c r="K129" s="207"/>
-      <c r="L129" s="208"/>
+      <c r="C129" s="252"/>
+      <c r="D129" s="252"/>
+      <c r="E129" s="252"/>
+      <c r="F129" s="252"/>
+      <c r="G129" s="252"/>
+      <c r="H129" s="252"/>
+      <c r="I129" s="252"/>
+      <c r="J129" s="252"/>
+      <c r="K129" s="252"/>
+      <c r="L129" s="253"/>
     </row>
     <row r="130" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4929,19 +4929,19 @@
     </row>
     <row r="143" spans="1:12" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="209" t="s">
+      <c r="B143" s="254" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="209"/>
-      <c r="D143" s="209"/>
-      <c r="E143" s="209"/>
-      <c r="F143" s="209"/>
-      <c r="G143" s="209"/>
-      <c r="H143" s="209"/>
-      <c r="I143" s="209"/>
-      <c r="J143" s="209"/>
-      <c r="K143" s="209"/>
-      <c r="L143" s="209"/>
+      <c r="C143" s="254"/>
+      <c r="D143" s="254"/>
+      <c r="E143" s="254"/>
+      <c r="F143" s="254"/>
+      <c r="G143" s="254"/>
+      <c r="H143" s="254"/>
+      <c r="I143" s="254"/>
+      <c r="J143" s="254"/>
+      <c r="K143" s="254"/>
+      <c r="L143" s="254"/>
     </row>
     <row r="144" spans="1:12" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4959,11 +4959,11 @@
     </row>
     <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="156" t="s">
+      <c r="B145" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="156"/>
-      <c r="D145" s="156"/>
+      <c r="C145" s="172"/>
+      <c r="D145" s="172"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4987,11 +4987,11 @@
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="156" t="s">
+      <c r="B147" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="156"/>
-      <c r="D147" s="156"/>
+      <c r="C147" s="172"/>
+      <c r="D147" s="172"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -5015,11 +5015,11 @@
     </row>
     <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="156" t="s">
+      <c r="B149" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="156"/>
-      <c r="D149" s="156"/>
+      <c r="C149" s="172"/>
+      <c r="D149" s="172"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -5041,12 +5041,12 @@
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="156" t="s">
+      <c r="B151" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="156"/>
-      <c r="D151" s="156"/>
-      <c r="E151" s="156"/>
+      <c r="C151" s="172"/>
+      <c r="D151" s="172"/>
+      <c r="E151" s="172"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -5069,13 +5069,13 @@
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="156" t="s">
+      <c r="B153" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="156"/>
-      <c r="D153" s="156"/>
-      <c r="E153" s="156"/>
-      <c r="F153" s="157"/>
+      <c r="C153" s="172"/>
+      <c r="D153" s="172"/>
+      <c r="E153" s="172"/>
+      <c r="F153" s="173"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -5203,19 +5203,19 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="169" t="s">
+      <c r="B162" s="274" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="170"/>
-      <c r="D162" s="170"/>
-      <c r="E162" s="170"/>
-      <c r="F162" s="170"/>
-      <c r="G162" s="170"/>
-      <c r="H162" s="170"/>
-      <c r="I162" s="170"/>
-      <c r="J162" s="170"/>
-      <c r="K162" s="170"/>
-      <c r="L162" s="171"/>
+      <c r="C162" s="275"/>
+      <c r="D162" s="275"/>
+      <c r="E162" s="275"/>
+      <c r="F162" s="275"/>
+      <c r="G162" s="275"/>
+      <c r="H162" s="275"/>
+      <c r="I162" s="275"/>
+      <c r="J162" s="275"/>
+      <c r="K162" s="275"/>
+      <c r="L162" s="276"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5433,12 +5433,12 @@
     </row>
     <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="156" t="s">
+      <c r="B179" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="156"/>
-      <c r="D179" s="156"/>
-      <c r="E179" s="156"/>
+      <c r="C179" s="172"/>
+      <c r="D179" s="172"/>
+      <c r="E179" s="172"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5465,13 +5465,13 @@
     </row>
     <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="156" t="s">
+      <c r="B181" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="156"/>
-      <c r="D181" s="156"/>
-      <c r="E181" s="156"/>
-      <c r="F181" s="157"/>
+      <c r="C181" s="172"/>
+      <c r="D181" s="172"/>
+      <c r="E181" s="172"/>
+      <c r="F181" s="173"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5525,13 +5525,13 @@
     </row>
     <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="156" t="s">
+      <c r="B185" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="156"/>
-      <c r="D185" s="156"/>
-      <c r="E185" s="156"/>
-      <c r="F185" s="157"/>
+      <c r="C185" s="172"/>
+      <c r="D185" s="172"/>
+      <c r="E185" s="172"/>
+      <c r="F185" s="173"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5644,79 +5644,79 @@
     </row>
     <row r="193" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="172" t="s">
+      <c r="B193" s="175" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="173"/>
-      <c r="D193" s="173"/>
-      <c r="E193" s="173"/>
-      <c r="F193" s="173"/>
-      <c r="G193" s="173"/>
-      <c r="H193" s="173"/>
-      <c r="I193" s="173"/>
-      <c r="J193" s="173"/>
-      <c r="K193" s="173"/>
-      <c r="L193" s="174"/>
+      <c r="C193" s="176"/>
+      <c r="D193" s="176"/>
+      <c r="E193" s="176"/>
+      <c r="F193" s="176"/>
+      <c r="G193" s="176"/>
+      <c r="H193" s="176"/>
+      <c r="I193" s="176"/>
+      <c r="J193" s="176"/>
+      <c r="K193" s="176"/>
+      <c r="L193" s="177"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="175"/>
-      <c r="C194" s="176"/>
-      <c r="D194" s="176"/>
-      <c r="E194" s="176"/>
-      <c r="F194" s="176"/>
-      <c r="G194" s="176"/>
-      <c r="H194" s="176"/>
-      <c r="I194" s="176"/>
-      <c r="J194" s="176"/>
-      <c r="K194" s="176"/>
-      <c r="L194" s="177"/>
+      <c r="B194" s="178"/>
+      <c r="C194" s="179"/>
+      <c r="D194" s="179"/>
+      <c r="E194" s="179"/>
+      <c r="F194" s="179"/>
+      <c r="G194" s="179"/>
+      <c r="H194" s="179"/>
+      <c r="I194" s="179"/>
+      <c r="J194" s="179"/>
+      <c r="K194" s="179"/>
+      <c r="L194" s="180"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="175"/>
-      <c r="C195" s="176"/>
-      <c r="D195" s="176"/>
-      <c r="E195" s="176"/>
-      <c r="F195" s="176"/>
-      <c r="G195" s="176"/>
-      <c r="H195" s="176"/>
-      <c r="I195" s="176"/>
-      <c r="J195" s="176"/>
-      <c r="K195" s="176"/>
-      <c r="L195" s="177"/>
+      <c r="B195" s="178"/>
+      <c r="C195" s="179"/>
+      <c r="D195" s="179"/>
+      <c r="E195" s="179"/>
+      <c r="F195" s="179"/>
+      <c r="G195" s="179"/>
+      <c r="H195" s="179"/>
+      <c r="I195" s="179"/>
+      <c r="J195" s="179"/>
+      <c r="K195" s="179"/>
+      <c r="L195" s="180"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="175"/>
-      <c r="C196" s="176"/>
-      <c r="D196" s="176"/>
-      <c r="E196" s="176"/>
-      <c r="F196" s="176"/>
-      <c r="G196" s="176"/>
-      <c r="H196" s="176"/>
-      <c r="I196" s="176"/>
-      <c r="J196" s="176"/>
-      <c r="K196" s="176"/>
-      <c r="L196" s="177"/>
+      <c r="B196" s="178"/>
+      <c r="C196" s="179"/>
+      <c r="D196" s="179"/>
+      <c r="E196" s="179"/>
+      <c r="F196" s="179"/>
+      <c r="G196" s="179"/>
+      <c r="H196" s="179"/>
+      <c r="I196" s="179"/>
+      <c r="J196" s="179"/>
+      <c r="K196" s="179"/>
+      <c r="L196" s="180"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="178"/>
-      <c r="C197" s="179"/>
-      <c r="D197" s="179"/>
-      <c r="E197" s="179"/>
-      <c r="F197" s="179"/>
-      <c r="G197" s="179"/>
-      <c r="H197" s="179"/>
-      <c r="I197" s="179"/>
-      <c r="J197" s="179"/>
-      <c r="K197" s="179"/>
-      <c r="L197" s="180"/>
+      <c r="B197" s="181"/>
+      <c r="C197" s="182"/>
+      <c r="D197" s="182"/>
+      <c r="E197" s="182"/>
+      <c r="F197" s="182"/>
+      <c r="G197" s="182"/>
+      <c r="H197" s="182"/>
+      <c r="I197" s="182"/>
+      <c r="J197" s="182"/>
+      <c r="K197" s="182"/>
+      <c r="L197" s="183"/>
       <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5753,79 +5753,79 @@
     </row>
     <row r="200" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="172" t="s">
+      <c r="B200" s="175" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="173"/>
-      <c r="D200" s="173"/>
-      <c r="E200" s="173"/>
-      <c r="F200" s="173"/>
-      <c r="G200" s="173"/>
-      <c r="H200" s="173"/>
-      <c r="I200" s="173"/>
-      <c r="J200" s="173"/>
-      <c r="K200" s="173"/>
-      <c r="L200" s="174"/>
+      <c r="C200" s="176"/>
+      <c r="D200" s="176"/>
+      <c r="E200" s="176"/>
+      <c r="F200" s="176"/>
+      <c r="G200" s="176"/>
+      <c r="H200" s="176"/>
+      <c r="I200" s="176"/>
+      <c r="J200" s="176"/>
+      <c r="K200" s="176"/>
+      <c r="L200" s="177"/>
       <c r="M200" s="33"/>
     </row>
     <row r="201" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="175"/>
-      <c r="C201" s="176"/>
-      <c r="D201" s="176"/>
-      <c r="E201" s="176"/>
-      <c r="F201" s="176"/>
-      <c r="G201" s="176"/>
-      <c r="H201" s="176"/>
-      <c r="I201" s="176"/>
-      <c r="J201" s="176"/>
-      <c r="K201" s="176"/>
-      <c r="L201" s="177"/>
+      <c r="B201" s="178"/>
+      <c r="C201" s="179"/>
+      <c r="D201" s="179"/>
+      <c r="E201" s="179"/>
+      <c r="F201" s="179"/>
+      <c r="G201" s="179"/>
+      <c r="H201" s="179"/>
+      <c r="I201" s="179"/>
+      <c r="J201" s="179"/>
+      <c r="K201" s="179"/>
+      <c r="L201" s="180"/>
       <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="175"/>
-      <c r="C202" s="176"/>
-      <c r="D202" s="176"/>
-      <c r="E202" s="176"/>
-      <c r="F202" s="176"/>
-      <c r="G202" s="176"/>
-      <c r="H202" s="176"/>
-      <c r="I202" s="176"/>
-      <c r="J202" s="176"/>
-      <c r="K202" s="176"/>
-      <c r="L202" s="177"/>
+      <c r="B202" s="178"/>
+      <c r="C202" s="179"/>
+      <c r="D202" s="179"/>
+      <c r="E202" s="179"/>
+      <c r="F202" s="179"/>
+      <c r="G202" s="179"/>
+      <c r="H202" s="179"/>
+      <c r="I202" s="179"/>
+      <c r="J202" s="179"/>
+      <c r="K202" s="179"/>
+      <c r="L202" s="180"/>
       <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="175"/>
-      <c r="C203" s="176"/>
-      <c r="D203" s="176"/>
-      <c r="E203" s="176"/>
-      <c r="F203" s="176"/>
-      <c r="G203" s="176"/>
-      <c r="H203" s="176"/>
-      <c r="I203" s="176"/>
-      <c r="J203" s="176"/>
-      <c r="K203" s="176"/>
-      <c r="L203" s="177"/>
+      <c r="B203" s="178"/>
+      <c r="C203" s="179"/>
+      <c r="D203" s="179"/>
+      <c r="E203" s="179"/>
+      <c r="F203" s="179"/>
+      <c r="G203" s="179"/>
+      <c r="H203" s="179"/>
+      <c r="I203" s="179"/>
+      <c r="J203" s="179"/>
+      <c r="K203" s="179"/>
+      <c r="L203" s="180"/>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="178"/>
-      <c r="C204" s="179"/>
-      <c r="D204" s="179"/>
-      <c r="E204" s="179"/>
-      <c r="F204" s="179"/>
-      <c r="G204" s="179"/>
-      <c r="H204" s="179"/>
-      <c r="I204" s="179"/>
-      <c r="J204" s="179"/>
-      <c r="K204" s="179"/>
-      <c r="L204" s="180"/>
+      <c r="B204" s="181"/>
+      <c r="C204" s="182"/>
+      <c r="D204" s="182"/>
+      <c r="E204" s="182"/>
+      <c r="F204" s="182"/>
+      <c r="G204" s="182"/>
+      <c r="H204" s="182"/>
+      <c r="I204" s="182"/>
+      <c r="J204" s="182"/>
+      <c r="K204" s="182"/>
+      <c r="L204" s="183"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5972,49 +5972,49 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="194" t="s">
+      <c r="B214" s="239" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="195"/>
-      <c r="D214" s="195"/>
-      <c r="E214" s="195"/>
-      <c r="F214" s="195"/>
-      <c r="G214" s="195"/>
-      <c r="H214" s="195"/>
-      <c r="I214" s="195"/>
-      <c r="J214" s="195"/>
-      <c r="K214" s="195"/>
-      <c r="L214" s="196"/>
+      <c r="C214" s="240"/>
+      <c r="D214" s="240"/>
+      <c r="E214" s="240"/>
+      <c r="F214" s="240"/>
+      <c r="G214" s="240"/>
+      <c r="H214" s="240"/>
+      <c r="I214" s="240"/>
+      <c r="J214" s="240"/>
+      <c r="K214" s="240"/>
+      <c r="L214" s="241"/>
       <c r="M214" s="33"/>
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="197"/>
-      <c r="C215" s="198"/>
-      <c r="D215" s="198"/>
-      <c r="E215" s="198"/>
-      <c r="F215" s="198"/>
-      <c r="G215" s="198"/>
-      <c r="H215" s="198"/>
-      <c r="I215" s="198"/>
-      <c r="J215" s="198"/>
-      <c r="K215" s="198"/>
-      <c r="L215" s="199"/>
+      <c r="B215" s="242"/>
+      <c r="C215" s="243"/>
+      <c r="D215" s="243"/>
+      <c r="E215" s="243"/>
+      <c r="F215" s="243"/>
+      <c r="G215" s="243"/>
+      <c r="H215" s="243"/>
+      <c r="I215" s="243"/>
+      <c r="J215" s="243"/>
+      <c r="K215" s="243"/>
+      <c r="L215" s="244"/>
       <c r="M215" s="59"/>
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="200"/>
-      <c r="C216" s="201"/>
-      <c r="D216" s="201"/>
-      <c r="E216" s="201"/>
-      <c r="F216" s="201"/>
-      <c r="G216" s="201"/>
-      <c r="H216" s="201"/>
-      <c r="I216" s="201"/>
-      <c r="J216" s="201"/>
-      <c r="K216" s="201"/>
-      <c r="L216" s="202"/>
+      <c r="B216" s="245"/>
+      <c r="C216" s="246"/>
+      <c r="D216" s="246"/>
+      <c r="E216" s="246"/>
+      <c r="F216" s="246"/>
+      <c r="G216" s="246"/>
+      <c r="H216" s="246"/>
+      <c r="I216" s="246"/>
+      <c r="J216" s="246"/>
+      <c r="K216" s="246"/>
+      <c r="L216" s="247"/>
       <c r="M216" s="59"/>
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -6049,10 +6049,10 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="156" t="s">
+      <c r="B219" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="156"/>
+      <c r="C219" s="172"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -6177,19 +6177,19 @@
     </row>
     <row r="227" spans="1:14" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="166" t="s">
+      <c r="B227" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="167"/>
-      <c r="D227" s="167"/>
-      <c r="E227" s="167"/>
-      <c r="F227" s="167"/>
-      <c r="G227" s="167"/>
-      <c r="H227" s="167"/>
-      <c r="I227" s="167"/>
-      <c r="J227" s="167"/>
-      <c r="K227" s="167"/>
-      <c r="L227" s="168"/>
+      <c r="C227" s="262"/>
+      <c r="D227" s="262"/>
+      <c r="E227" s="262"/>
+      <c r="F227" s="262"/>
+      <c r="G227" s="262"/>
+      <c r="H227" s="262"/>
+      <c r="I227" s="262"/>
+      <c r="J227" s="262"/>
+      <c r="K227" s="262"/>
+      <c r="L227" s="263"/>
     </row>
     <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6298,51 +6298,51 @@
     </row>
     <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="256" t="s">
+      <c r="B235" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="257"/>
-      <c r="D235" s="257"/>
-      <c r="E235" s="257"/>
-      <c r="F235" s="257"/>
-      <c r="G235" s="257"/>
-      <c r="H235" s="257"/>
-      <c r="I235" s="257"/>
-      <c r="J235" s="257"/>
-      <c r="K235" s="257"/>
-      <c r="L235" s="258"/>
+      <c r="C235" s="185"/>
+      <c r="D235" s="185"/>
+      <c r="E235" s="185"/>
+      <c r="F235" s="185"/>
+      <c r="G235" s="185"/>
+      <c r="H235" s="185"/>
+      <c r="I235" s="185"/>
+      <c r="J235" s="185"/>
+      <c r="K235" s="185"/>
+      <c r="L235" s="186"/>
       <c r="M235" s="33"/>
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="259"/>
-      <c r="C236" s="260"/>
-      <c r="D236" s="260"/>
-      <c r="E236" s="260"/>
-      <c r="F236" s="260"/>
-      <c r="G236" s="260"/>
-      <c r="H236" s="260"/>
-      <c r="I236" s="260"/>
-      <c r="J236" s="260"/>
-      <c r="K236" s="260"/>
-      <c r="L236" s="261"/>
+      <c r="B236" s="187"/>
+      <c r="C236" s="188"/>
+      <c r="D236" s="188"/>
+      <c r="E236" s="188"/>
+      <c r="F236" s="188"/>
+      <c r="G236" s="188"/>
+      <c r="H236" s="188"/>
+      <c r="I236" s="188"/>
+      <c r="J236" s="188"/>
+      <c r="K236" s="188"/>
+      <c r="L236" s="189"/>
       <c r="M236" s="59"/>
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="262"/>
-      <c r="C237" s="263"/>
-      <c r="D237" s="263"/>
-      <c r="E237" s="263"/>
-      <c r="F237" s="263"/>
-      <c r="G237" s="263"/>
-      <c r="H237" s="263"/>
-      <c r="I237" s="263"/>
-      <c r="J237" s="263"/>
-      <c r="K237" s="263"/>
-      <c r="L237" s="264"/>
+      <c r="B237" s="190"/>
+      <c r="C237" s="191"/>
+      <c r="D237" s="191"/>
+      <c r="E237" s="191"/>
+      <c r="F237" s="191"/>
+      <c r="G237" s="191"/>
+      <c r="H237" s="191"/>
+      <c r="I237" s="191"/>
+      <c r="J237" s="191"/>
+      <c r="K237" s="191"/>
+      <c r="L237" s="192"/>
       <c r="M237" s="59"/>
       <c r="N237" s="2"/>
     </row>
@@ -6457,35 +6457,35 @@
     </row>
     <row r="245" spans="1:12" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="159" t="s">
+      <c r="B245" s="270" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="159"/>
-      <c r="D245" s="159"/>
-      <c r="E245" s="159"/>
-      <c r="F245" s="159"/>
-      <c r="G245" s="159"/>
-      <c r="H245" s="159"/>
-      <c r="I245" s="159"/>
-      <c r="J245" s="159"/>
-      <c r="K245" s="159"/>
-      <c r="L245" s="159"/>
+      <c r="C245" s="270"/>
+      <c r="D245" s="270"/>
+      <c r="E245" s="270"/>
+      <c r="F245" s="270"/>
+      <c r="G245" s="270"/>
+      <c r="H245" s="270"/>
+      <c r="I245" s="270"/>
+      <c r="J245" s="270"/>
+      <c r="K245" s="270"/>
+      <c r="L245" s="270"/>
     </row>
     <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="159" t="s">
+      <c r="B246" s="270" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="159"/>
-      <c r="D246" s="159"/>
-      <c r="E246" s="159"/>
-      <c r="F246" s="159"/>
-      <c r="G246" s="159"/>
-      <c r="H246" s="159"/>
-      <c r="I246" s="159"/>
-      <c r="J246" s="159"/>
-      <c r="K246" s="159"/>
-      <c r="L246" s="159"/>
+      <c r="C246" s="270"/>
+      <c r="D246" s="270"/>
+      <c r="E246" s="270"/>
+      <c r="F246" s="270"/>
+      <c r="G246" s="270"/>
+      <c r="H246" s="270"/>
+      <c r="I246" s="270"/>
+      <c r="J246" s="270"/>
+      <c r="K246" s="270"/>
+      <c r="L246" s="270"/>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6691,83 +6691,83 @@
     </row>
     <row r="260" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="172" t="s">
+      <c r="B260" s="175" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="173"/>
-      <c r="D260" s="173"/>
-      <c r="E260" s="173"/>
-      <c r="F260" s="173"/>
-      <c r="G260" s="173"/>
-      <c r="H260" s="173"/>
-      <c r="I260" s="173"/>
-      <c r="J260" s="173"/>
-      <c r="K260" s="173"/>
-      <c r="L260" s="174"/>
+      <c r="C260" s="176"/>
+      <c r="D260" s="176"/>
+      <c r="E260" s="176"/>
+      <c r="F260" s="176"/>
+      <c r="G260" s="176"/>
+      <c r="H260" s="176"/>
+      <c r="I260" s="176"/>
+      <c r="J260" s="176"/>
+      <c r="K260" s="176"/>
+      <c r="L260" s="177"/>
       <c r="M260" s="33"/>
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="175"/>
-      <c r="C261" s="176"/>
-      <c r="D261" s="176"/>
-      <c r="E261" s="176"/>
-      <c r="F261" s="176"/>
-      <c r="G261" s="176"/>
-      <c r="H261" s="176"/>
-      <c r="I261" s="176"/>
-      <c r="J261" s="176"/>
-      <c r="K261" s="176"/>
-      <c r="L261" s="177"/>
+      <c r="B261" s="178"/>
+      <c r="C261" s="179"/>
+      <c r="D261" s="179"/>
+      <c r="E261" s="179"/>
+      <c r="F261" s="179"/>
+      <c r="G261" s="179"/>
+      <c r="H261" s="179"/>
+      <c r="I261" s="179"/>
+      <c r="J261" s="179"/>
+      <c r="K261" s="179"/>
+      <c r="L261" s="180"/>
       <c r="M261" s="59"/>
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="175"/>
-      <c r="C262" s="176"/>
-      <c r="D262" s="176"/>
-      <c r="E262" s="176"/>
-      <c r="F262" s="176"/>
-      <c r="G262" s="176"/>
-      <c r="H262" s="176"/>
-      <c r="I262" s="176"/>
-      <c r="J262" s="176"/>
-      <c r="K262" s="176"/>
-      <c r="L262" s="177"/>
+      <c r="B262" s="178"/>
+      <c r="C262" s="179"/>
+      <c r="D262" s="179"/>
+      <c r="E262" s="179"/>
+      <c r="F262" s="179"/>
+      <c r="G262" s="179"/>
+      <c r="H262" s="179"/>
+      <c r="I262" s="179"/>
+      <c r="J262" s="179"/>
+      <c r="K262" s="179"/>
+      <c r="L262" s="180"/>
       <c r="M262" s="59"/>
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="175"/>
-      <c r="C263" s="176"/>
-      <c r="D263" s="176"/>
-      <c r="E263" s="176"/>
-      <c r="F263" s="176"/>
-      <c r="G263" s="176"/>
-      <c r="H263" s="176"/>
-      <c r="I263" s="176"/>
-      <c r="J263" s="176"/>
-      <c r="K263" s="176"/>
-      <c r="L263" s="177"/>
+      <c r="B263" s="178"/>
+      <c r="C263" s="179"/>
+      <c r="D263" s="179"/>
+      <c r="E263" s="179"/>
+      <c r="F263" s="179"/>
+      <c r="G263" s="179"/>
+      <c r="H263" s="179"/>
+      <c r="I263" s="179"/>
+      <c r="J263" s="179"/>
+      <c r="K263" s="179"/>
+      <c r="L263" s="180"/>
       <c r="M263" s="59"/>
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="178"/>
-      <c r="C264" s="179"/>
-      <c r="D264" s="179"/>
-      <c r="E264" s="179"/>
-      <c r="F264" s="179"/>
-      <c r="G264" s="179"/>
-      <c r="H264" s="179"/>
-      <c r="I264" s="179"/>
-      <c r="J264" s="179"/>
-      <c r="K264" s="179"/>
-      <c r="L264" s="180"/>
+      <c r="B264" s="181"/>
+      <c r="C264" s="182"/>
+      <c r="D264" s="182"/>
+      <c r="E264" s="182"/>
+      <c r="F264" s="182"/>
+      <c r="G264" s="182"/>
+      <c r="H264" s="182"/>
+      <c r="I264" s="182"/>
+      <c r="J264" s="182"/>
+      <c r="K264" s="182"/>
+      <c r="L264" s="183"/>
       <c r="M264" s="59"/>
       <c r="N264" s="2"/>
     </row>
@@ -6823,28 +6823,28 @@
     </row>
     <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="154" t="s">
+      <c r="B268" s="218" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="154"/>
-      <c r="D268" s="161" t="s">
+      <c r="C268" s="218"/>
+      <c r="D268" s="212" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="162"/>
-      <c r="F268" s="162"/>
-      <c r="G268" s="162"/>
-      <c r="H268" s="162"/>
-      <c r="I268" s="162"/>
-      <c r="J268" s="162"/>
-      <c r="K268" s="162"/>
-      <c r="L268" s="163"/>
+      <c r="E268" s="213"/>
+      <c r="F268" s="213"/>
+      <c r="G268" s="213"/>
+      <c r="H268" s="213"/>
+      <c r="I268" s="213"/>
+      <c r="J268" s="213"/>
+      <c r="K268" s="213"/>
+      <c r="L268" s="214"/>
       <c r="M268" s="33"/>
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="158"/>
-      <c r="C269" s="158"/>
+      <c r="B269" s="269"/>
+      <c r="C269" s="269"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6859,8 +6859,8 @@
     </row>
     <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="158"/>
-      <c r="C270" s="158"/>
+      <c r="B270" s="269"/>
+      <c r="C270" s="269"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6875,8 +6875,8 @@
     </row>
     <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="158"/>
-      <c r="C271" s="158"/>
+      <c r="B271" s="269"/>
+      <c r="C271" s="269"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6891,8 +6891,8 @@
     </row>
     <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="158"/>
-      <c r="C272" s="158"/>
+      <c r="B272" s="269"/>
+      <c r="C272" s="269"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6957,83 +6957,83 @@
     </row>
     <row r="276" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="160" t="s">
+      <c r="B276" s="271" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="160"/>
-      <c r="D276" s="160"/>
-      <c r="E276" s="160"/>
-      <c r="F276" s="160"/>
-      <c r="G276" s="160"/>
-      <c r="H276" s="160"/>
-      <c r="I276" s="160"/>
-      <c r="J276" s="160"/>
-      <c r="K276" s="160"/>
-      <c r="L276" s="160"/>
+      <c r="C276" s="271"/>
+      <c r="D276" s="271"/>
+      <c r="E276" s="271"/>
+      <c r="F276" s="271"/>
+      <c r="G276" s="271"/>
+      <c r="H276" s="271"/>
+      <c r="I276" s="271"/>
+      <c r="J276" s="271"/>
+      <c r="K276" s="271"/>
+      <c r="L276" s="271"/>
       <c r="M276" s="33"/>
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="160"/>
-      <c r="C277" s="160"/>
-      <c r="D277" s="160"/>
-      <c r="E277" s="160"/>
-      <c r="F277" s="160"/>
-      <c r="G277" s="160"/>
-      <c r="H277" s="160"/>
-      <c r="I277" s="160"/>
-      <c r="J277" s="160"/>
-      <c r="K277" s="160"/>
-      <c r="L277" s="160"/>
+      <c r="B277" s="271"/>
+      <c r="C277" s="271"/>
+      <c r="D277" s="271"/>
+      <c r="E277" s="271"/>
+      <c r="F277" s="271"/>
+      <c r="G277" s="271"/>
+      <c r="H277" s="271"/>
+      <c r="I277" s="271"/>
+      <c r="J277" s="271"/>
+      <c r="K277" s="271"/>
+      <c r="L277" s="271"/>
       <c r="M277" s="59"/>
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="160"/>
-      <c r="C278" s="160"/>
-      <c r="D278" s="160"/>
-      <c r="E278" s="160"/>
-      <c r="F278" s="160"/>
-      <c r="G278" s="160"/>
-      <c r="H278" s="160"/>
-      <c r="I278" s="160"/>
-      <c r="J278" s="160"/>
-      <c r="K278" s="160"/>
-      <c r="L278" s="160"/>
+      <c r="B278" s="271"/>
+      <c r="C278" s="271"/>
+      <c r="D278" s="271"/>
+      <c r="E278" s="271"/>
+      <c r="F278" s="271"/>
+      <c r="G278" s="271"/>
+      <c r="H278" s="271"/>
+      <c r="I278" s="271"/>
+      <c r="J278" s="271"/>
+      <c r="K278" s="271"/>
+      <c r="L278" s="271"/>
       <c r="M278" s="59"/>
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="160"/>
-      <c r="C279" s="160"/>
-      <c r="D279" s="160"/>
-      <c r="E279" s="160"/>
-      <c r="F279" s="160"/>
-      <c r="G279" s="160"/>
-      <c r="H279" s="160"/>
-      <c r="I279" s="160"/>
-      <c r="J279" s="160"/>
-      <c r="K279" s="160"/>
-      <c r="L279" s="160"/>
+      <c r="B279" s="271"/>
+      <c r="C279" s="271"/>
+      <c r="D279" s="271"/>
+      <c r="E279" s="271"/>
+      <c r="F279" s="271"/>
+      <c r="G279" s="271"/>
+      <c r="H279" s="271"/>
+      <c r="I279" s="271"/>
+      <c r="J279" s="271"/>
+      <c r="K279" s="271"/>
+      <c r="L279" s="271"/>
       <c r="M279" s="59"/>
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="160"/>
-      <c r="C280" s="160"/>
-      <c r="D280" s="160"/>
-      <c r="E280" s="160"/>
-      <c r="F280" s="160"/>
-      <c r="G280" s="160"/>
-      <c r="H280" s="160"/>
-      <c r="I280" s="160"/>
-      <c r="J280" s="160"/>
-      <c r="K280" s="160"/>
-      <c r="L280" s="160"/>
+      <c r="B280" s="271"/>
+      <c r="C280" s="271"/>
+      <c r="D280" s="271"/>
+      <c r="E280" s="271"/>
+      <c r="F280" s="271"/>
+      <c r="G280" s="271"/>
+      <c r="H280" s="271"/>
+      <c r="I280" s="271"/>
+      <c r="J280" s="271"/>
+      <c r="K280" s="271"/>
+      <c r="L280" s="271"/>
       <c r="M280" s="59"/>
       <c r="N280" s="2"/>
     </row>
@@ -7089,12 +7089,12 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="156" t="s">
+      <c r="B284" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="156"/>
-      <c r="D284" s="156"/>
-      <c r="E284" s="157"/>
+      <c r="C284" s="172"/>
+      <c r="D284" s="172"/>
+      <c r="E284" s="173"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -7105,10 +7105,10 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="156"/>
-      <c r="C285" s="156"/>
-      <c r="D285" s="156"/>
-      <c r="E285" s="156"/>
+      <c r="B285" s="172"/>
+      <c r="C285" s="172"/>
+      <c r="D285" s="172"/>
+      <c r="E285" s="172"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -7119,12 +7119,12 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="156" t="s">
+      <c r="B286" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="156"/>
-      <c r="D286" s="156"/>
-      <c r="E286" s="157"/>
+      <c r="C286" s="172"/>
+      <c r="D286" s="172"/>
+      <c r="E286" s="173"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -7137,10 +7137,10 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="156"/>
-      <c r="C287" s="156"/>
-      <c r="D287" s="156"/>
-      <c r="E287" s="156"/>
+      <c r="B287" s="172"/>
+      <c r="C287" s="172"/>
+      <c r="D287" s="172"/>
+      <c r="E287" s="172"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -7151,12 +7151,12 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="156" t="s">
+      <c r="B288" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="156"/>
-      <c r="D288" s="156"/>
-      <c r="E288" s="157"/>
+      <c r="C288" s="172"/>
+      <c r="D288" s="172"/>
+      <c r="E288" s="173"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -7181,12 +7181,12 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="156" t="s">
+      <c r="B290" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="156"/>
-      <c r="D290" s="156"/>
-      <c r="E290" s="157"/>
+      <c r="C290" s="172"/>
+      <c r="D290" s="172"/>
+      <c r="E290" s="173"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -7211,12 +7211,12 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="156" t="s">
+      <c r="B292" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="156"/>
-      <c r="D292" s="156"/>
-      <c r="E292" s="157"/>
+      <c r="C292" s="172"/>
+      <c r="D292" s="172"/>
+      <c r="E292" s="173"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -7319,82 +7319,82 @@
     </row>
     <row r="299" spans="1:14" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="172" t="s">
+      <c r="B299" s="175" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="173"/>
-      <c r="D299" s="173"/>
-      <c r="E299" s="173"/>
-      <c r="F299" s="173"/>
-      <c r="G299" s="173"/>
-      <c r="H299" s="173"/>
-      <c r="I299" s="173"/>
-      <c r="J299" s="173"/>
-      <c r="K299" s="173"/>
-      <c r="L299" s="174"/>
+      <c r="C299" s="176"/>
+      <c r="D299" s="176"/>
+      <c r="E299" s="176"/>
+      <c r="F299" s="176"/>
+      <c r="G299" s="176"/>
+      <c r="H299" s="176"/>
+      <c r="I299" s="176"/>
+      <c r="J299" s="176"/>
+      <c r="K299" s="176"/>
+      <c r="L299" s="177"/>
       <c r="M299" s="20"/>
     </row>
     <row r="300" spans="1:14" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="175"/>
-      <c r="C300" s="176"/>
-      <c r="D300" s="176"/>
-      <c r="E300" s="176"/>
-      <c r="F300" s="176"/>
-      <c r="G300" s="176"/>
-      <c r="H300" s="176"/>
-      <c r="I300" s="176"/>
-      <c r="J300" s="176"/>
-      <c r="K300" s="176"/>
-      <c r="L300" s="177"/>
+      <c r="B300" s="178"/>
+      <c r="C300" s="179"/>
+      <c r="D300" s="179"/>
+      <c r="E300" s="179"/>
+      <c r="F300" s="179"/>
+      <c r="G300" s="179"/>
+      <c r="H300" s="179"/>
+      <c r="I300" s="179"/>
+      <c r="J300" s="179"/>
+      <c r="K300" s="179"/>
+      <c r="L300" s="180"/>
       <c r="M300" s="59"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="175"/>
-      <c r="C301" s="176"/>
-      <c r="D301" s="176"/>
-      <c r="E301" s="176"/>
-      <c r="F301" s="176"/>
-      <c r="G301" s="176"/>
-      <c r="H301" s="176"/>
-      <c r="I301" s="176"/>
-      <c r="J301" s="176"/>
-      <c r="K301" s="176"/>
-      <c r="L301" s="177"/>
+      <c r="B301" s="178"/>
+      <c r="C301" s="179"/>
+      <c r="D301" s="179"/>
+      <c r="E301" s="179"/>
+      <c r="F301" s="179"/>
+      <c r="G301" s="179"/>
+      <c r="H301" s="179"/>
+      <c r="I301" s="179"/>
+      <c r="J301" s="179"/>
+      <c r="K301" s="179"/>
+      <c r="L301" s="180"/>
       <c r="M301" s="59"/>
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="175"/>
-      <c r="C302" s="176"/>
-      <c r="D302" s="176"/>
-      <c r="E302" s="176"/>
-      <c r="F302" s="176"/>
-      <c r="G302" s="176"/>
-      <c r="H302" s="176"/>
-      <c r="I302" s="176"/>
-      <c r="J302" s="176"/>
-      <c r="K302" s="176"/>
-      <c r="L302" s="177"/>
+      <c r="B302" s="178"/>
+      <c r="C302" s="179"/>
+      <c r="D302" s="179"/>
+      <c r="E302" s="179"/>
+      <c r="F302" s="179"/>
+      <c r="G302" s="179"/>
+      <c r="H302" s="179"/>
+      <c r="I302" s="179"/>
+      <c r="J302" s="179"/>
+      <c r="K302" s="179"/>
+      <c r="L302" s="180"/>
       <c r="M302" s="59"/>
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="178"/>
-      <c r="C303" s="179"/>
-      <c r="D303" s="179"/>
-      <c r="E303" s="179"/>
-      <c r="F303" s="179"/>
-      <c r="G303" s="179"/>
-      <c r="H303" s="179"/>
-      <c r="I303" s="179"/>
-      <c r="J303" s="179"/>
-      <c r="K303" s="179"/>
-      <c r="L303" s="180"/>
+      <c r="B303" s="181"/>
+      <c r="C303" s="182"/>
+      <c r="D303" s="182"/>
+      <c r="E303" s="182"/>
+      <c r="F303" s="182"/>
+      <c r="G303" s="182"/>
+      <c r="H303" s="182"/>
+      <c r="I303" s="182"/>
+      <c r="J303" s="182"/>
+      <c r="K303" s="182"/>
+      <c r="L303" s="183"/>
       <c r="M303" s="59"/>
       <c r="N303" s="2"/>
     </row>
@@ -7433,83 +7433,83 @@
     </row>
     <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="172" t="s">
+      <c r="B306" s="175" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="173"/>
-      <c r="D306" s="173"/>
-      <c r="E306" s="173"/>
-      <c r="F306" s="173"/>
-      <c r="G306" s="173"/>
-      <c r="H306" s="173"/>
-      <c r="I306" s="173"/>
-      <c r="J306" s="173"/>
-      <c r="K306" s="173"/>
-      <c r="L306" s="174"/>
+      <c r="C306" s="176"/>
+      <c r="D306" s="176"/>
+      <c r="E306" s="176"/>
+      <c r="F306" s="176"/>
+      <c r="G306" s="176"/>
+      <c r="H306" s="176"/>
+      <c r="I306" s="176"/>
+      <c r="J306" s="176"/>
+      <c r="K306" s="176"/>
+      <c r="L306" s="177"/>
       <c r="M306" s="33"/>
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="175"/>
-      <c r="C307" s="176"/>
-      <c r="D307" s="176"/>
-      <c r="E307" s="176"/>
-      <c r="F307" s="176"/>
-      <c r="G307" s="176"/>
-      <c r="H307" s="176"/>
-      <c r="I307" s="176"/>
-      <c r="J307" s="176"/>
-      <c r="K307" s="176"/>
-      <c r="L307" s="177"/>
+      <c r="B307" s="178"/>
+      <c r="C307" s="179"/>
+      <c r="D307" s="179"/>
+      <c r="E307" s="179"/>
+      <c r="F307" s="179"/>
+      <c r="G307" s="179"/>
+      <c r="H307" s="179"/>
+      <c r="I307" s="179"/>
+      <c r="J307" s="179"/>
+      <c r="K307" s="179"/>
+      <c r="L307" s="180"/>
       <c r="M307" s="59"/>
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="175"/>
-      <c r="C308" s="176"/>
-      <c r="D308" s="176"/>
-      <c r="E308" s="176"/>
-      <c r="F308" s="176"/>
-      <c r="G308" s="176"/>
-      <c r="H308" s="176"/>
-      <c r="I308" s="176"/>
-      <c r="J308" s="176"/>
-      <c r="K308" s="176"/>
-      <c r="L308" s="177"/>
+      <c r="B308" s="178"/>
+      <c r="C308" s="179"/>
+      <c r="D308" s="179"/>
+      <c r="E308" s="179"/>
+      <c r="F308" s="179"/>
+      <c r="G308" s="179"/>
+      <c r="H308" s="179"/>
+      <c r="I308" s="179"/>
+      <c r="J308" s="179"/>
+      <c r="K308" s="179"/>
+      <c r="L308" s="180"/>
       <c r="M308" s="59"/>
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="175"/>
-      <c r="C309" s="176"/>
-      <c r="D309" s="176"/>
-      <c r="E309" s="176"/>
-      <c r="F309" s="176"/>
-      <c r="G309" s="176"/>
-      <c r="H309" s="176"/>
-      <c r="I309" s="176"/>
-      <c r="J309" s="176"/>
-      <c r="K309" s="176"/>
-      <c r="L309" s="177"/>
+      <c r="B309" s="178"/>
+      <c r="C309" s="179"/>
+      <c r="D309" s="179"/>
+      <c r="E309" s="179"/>
+      <c r="F309" s="179"/>
+      <c r="G309" s="179"/>
+      <c r="H309" s="179"/>
+      <c r="I309" s="179"/>
+      <c r="J309" s="179"/>
+      <c r="K309" s="179"/>
+      <c r="L309" s="180"/>
       <c r="M309" s="59"/>
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="178"/>
-      <c r="C310" s="179"/>
-      <c r="D310" s="179"/>
-      <c r="E310" s="179"/>
-      <c r="F310" s="179"/>
-      <c r="G310" s="179"/>
-      <c r="H310" s="179"/>
-      <c r="I310" s="179"/>
-      <c r="J310" s="179"/>
-      <c r="K310" s="179"/>
-      <c r="L310" s="180"/>
+      <c r="B310" s="181"/>
+      <c r="C310" s="182"/>
+      <c r="D310" s="182"/>
+      <c r="E310" s="182"/>
+      <c r="F310" s="182"/>
+      <c r="G310" s="182"/>
+      <c r="H310" s="182"/>
+      <c r="I310" s="182"/>
+      <c r="J310" s="182"/>
+      <c r="K310" s="182"/>
+      <c r="L310" s="183"/>
       <c r="M310" s="59"/>
       <c r="N310" s="2"/>
     </row>
@@ -7689,83 +7689,83 @@
     </row>
     <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="172" t="s">
+      <c r="B321" s="175" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="173"/>
-      <c r="D321" s="173"/>
-      <c r="E321" s="173"/>
-      <c r="F321" s="173"/>
-      <c r="G321" s="173"/>
-      <c r="H321" s="173"/>
-      <c r="I321" s="173"/>
-      <c r="J321" s="173"/>
-      <c r="K321" s="173"/>
-      <c r="L321" s="174"/>
+      <c r="C321" s="176"/>
+      <c r="D321" s="176"/>
+      <c r="E321" s="176"/>
+      <c r="F321" s="176"/>
+      <c r="G321" s="176"/>
+      <c r="H321" s="176"/>
+      <c r="I321" s="176"/>
+      <c r="J321" s="176"/>
+      <c r="K321" s="176"/>
+      <c r="L321" s="177"/>
       <c r="M321" s="33"/>
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="175"/>
-      <c r="C322" s="176"/>
-      <c r="D322" s="176"/>
-      <c r="E322" s="176"/>
-      <c r="F322" s="176"/>
-      <c r="G322" s="176"/>
-      <c r="H322" s="176"/>
-      <c r="I322" s="176"/>
-      <c r="J322" s="176"/>
-      <c r="K322" s="176"/>
-      <c r="L322" s="177"/>
+      <c r="B322" s="178"/>
+      <c r="C322" s="179"/>
+      <c r="D322" s="179"/>
+      <c r="E322" s="179"/>
+      <c r="F322" s="179"/>
+      <c r="G322" s="179"/>
+      <c r="H322" s="179"/>
+      <c r="I322" s="179"/>
+      <c r="J322" s="179"/>
+      <c r="K322" s="179"/>
+      <c r="L322" s="180"/>
       <c r="M322" s="59"/>
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="175"/>
-      <c r="C323" s="176"/>
-      <c r="D323" s="176"/>
-      <c r="E323" s="176"/>
-      <c r="F323" s="176"/>
-      <c r="G323" s="176"/>
-      <c r="H323" s="176"/>
-      <c r="I323" s="176"/>
-      <c r="J323" s="176"/>
-      <c r="K323" s="176"/>
-      <c r="L323" s="177"/>
+      <c r="B323" s="178"/>
+      <c r="C323" s="179"/>
+      <c r="D323" s="179"/>
+      <c r="E323" s="179"/>
+      <c r="F323" s="179"/>
+      <c r="G323" s="179"/>
+      <c r="H323" s="179"/>
+      <c r="I323" s="179"/>
+      <c r="J323" s="179"/>
+      <c r="K323" s="179"/>
+      <c r="L323" s="180"/>
       <c r="M323" s="59"/>
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="175"/>
-      <c r="C324" s="176"/>
-      <c r="D324" s="176"/>
-      <c r="E324" s="176"/>
-      <c r="F324" s="176"/>
-      <c r="G324" s="176"/>
-      <c r="H324" s="176"/>
-      <c r="I324" s="176"/>
-      <c r="J324" s="176"/>
-      <c r="K324" s="176"/>
-      <c r="L324" s="177"/>
+      <c r="B324" s="178"/>
+      <c r="C324" s="179"/>
+      <c r="D324" s="179"/>
+      <c r="E324" s="179"/>
+      <c r="F324" s="179"/>
+      <c r="G324" s="179"/>
+      <c r="H324" s="179"/>
+      <c r="I324" s="179"/>
+      <c r="J324" s="179"/>
+      <c r="K324" s="179"/>
+      <c r="L324" s="180"/>
       <c r="M324" s="59"/>
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="178"/>
-      <c r="C325" s="179"/>
-      <c r="D325" s="179"/>
-      <c r="E325" s="179"/>
-      <c r="F325" s="179"/>
-      <c r="G325" s="179"/>
-      <c r="H325" s="179"/>
-      <c r="I325" s="179"/>
-      <c r="J325" s="179"/>
-      <c r="K325" s="179"/>
-      <c r="L325" s="180"/>
+      <c r="B325" s="181"/>
+      <c r="C325" s="182"/>
+      <c r="D325" s="182"/>
+      <c r="E325" s="182"/>
+      <c r="F325" s="182"/>
+      <c r="G325" s="182"/>
+      <c r="H325" s="182"/>
+      <c r="I325" s="182"/>
+      <c r="J325" s="182"/>
+      <c r="K325" s="182"/>
+      <c r="L325" s="183"/>
       <c r="M325" s="59"/>
       <c r="N325" s="2"/>
     </row>
@@ -7787,19 +7787,19 @@
     </row>
     <row r="327" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="255" t="s">
+      <c r="B327" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="255"/>
-      <c r="D327" s="255"/>
-      <c r="E327" s="255"/>
-      <c r="F327" s="255"/>
-      <c r="G327" s="255"/>
-      <c r="H327" s="255"/>
-      <c r="I327" s="255"/>
-      <c r="J327" s="255"/>
-      <c r="K327" s="255"/>
-      <c r="L327" s="255"/>
+      <c r="C327" s="174"/>
+      <c r="D327" s="174"/>
+      <c r="E327" s="174"/>
+      <c r="F327" s="174"/>
+      <c r="G327" s="174"/>
+      <c r="H327" s="174"/>
+      <c r="I327" s="174"/>
+      <c r="J327" s="174"/>
+      <c r="K327" s="174"/>
+      <c r="L327" s="174"/>
       <c r="M327" s="19"/>
       <c r="N327" s="2"/>
     </row>
@@ -7914,79 +7914,79 @@
     </row>
     <row r="335" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="256" t="s">
+      <c r="B335" s="184" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="257"/>
-      <c r="D335" s="257"/>
-      <c r="E335" s="257"/>
-      <c r="F335" s="257"/>
-      <c r="G335" s="257"/>
-      <c r="H335" s="257"/>
-      <c r="I335" s="257"/>
-      <c r="J335" s="257"/>
-      <c r="K335" s="257"/>
-      <c r="L335" s="258"/>
+      <c r="C335" s="185"/>
+      <c r="D335" s="185"/>
+      <c r="E335" s="185"/>
+      <c r="F335" s="185"/>
+      <c r="G335" s="185"/>
+      <c r="H335" s="185"/>
+      <c r="I335" s="185"/>
+      <c r="J335" s="185"/>
+      <c r="K335" s="185"/>
+      <c r="L335" s="186"/>
       <c r="M335" s="33"/>
     </row>
     <row r="336" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="259"/>
-      <c r="C336" s="260"/>
-      <c r="D336" s="260"/>
-      <c r="E336" s="260"/>
-      <c r="F336" s="260"/>
-      <c r="G336" s="260"/>
-      <c r="H336" s="260"/>
-      <c r="I336" s="260"/>
-      <c r="J336" s="260"/>
-      <c r="K336" s="260"/>
-      <c r="L336" s="261"/>
+      <c r="B336" s="187"/>
+      <c r="C336" s="188"/>
+      <c r="D336" s="188"/>
+      <c r="E336" s="188"/>
+      <c r="F336" s="188"/>
+      <c r="G336" s="188"/>
+      <c r="H336" s="188"/>
+      <c r="I336" s="188"/>
+      <c r="J336" s="188"/>
+      <c r="K336" s="188"/>
+      <c r="L336" s="189"/>
       <c r="M336" s="59"/>
     </row>
     <row r="337" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="259"/>
-      <c r="C337" s="260"/>
-      <c r="D337" s="260"/>
-      <c r="E337" s="260"/>
-      <c r="F337" s="260"/>
-      <c r="G337" s="260"/>
-      <c r="H337" s="260"/>
-      <c r="I337" s="260"/>
-      <c r="J337" s="260"/>
-      <c r="K337" s="260"/>
-      <c r="L337" s="261"/>
+      <c r="B337" s="187"/>
+      <c r="C337" s="188"/>
+      <c r="D337" s="188"/>
+      <c r="E337" s="188"/>
+      <c r="F337" s="188"/>
+      <c r="G337" s="188"/>
+      <c r="H337" s="188"/>
+      <c r="I337" s="188"/>
+      <c r="J337" s="188"/>
+      <c r="K337" s="188"/>
+      <c r="L337" s="189"/>
       <c r="M337" s="59"/>
     </row>
     <row r="338" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="259"/>
-      <c r="C338" s="260"/>
-      <c r="D338" s="260"/>
-      <c r="E338" s="260"/>
-      <c r="F338" s="260"/>
-      <c r="G338" s="260"/>
-      <c r="H338" s="260"/>
-      <c r="I338" s="260"/>
-      <c r="J338" s="260"/>
-      <c r="K338" s="260"/>
-      <c r="L338" s="261"/>
+      <c r="B338" s="187"/>
+      <c r="C338" s="188"/>
+      <c r="D338" s="188"/>
+      <c r="E338" s="188"/>
+      <c r="F338" s="188"/>
+      <c r="G338" s="188"/>
+      <c r="H338" s="188"/>
+      <c r="I338" s="188"/>
+      <c r="J338" s="188"/>
+      <c r="K338" s="188"/>
+      <c r="L338" s="189"/>
       <c r="M338" s="59"/>
     </row>
     <row r="339" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="262"/>
-      <c r="C339" s="263"/>
-      <c r="D339" s="263"/>
-      <c r="E339" s="263"/>
-      <c r="F339" s="263"/>
-      <c r="G339" s="263"/>
-      <c r="H339" s="263"/>
-      <c r="I339" s="263"/>
-      <c r="J339" s="263"/>
-      <c r="K339" s="263"/>
-      <c r="L339" s="264"/>
+      <c r="B339" s="190"/>
+      <c r="C339" s="191"/>
+      <c r="D339" s="191"/>
+      <c r="E339" s="191"/>
+      <c r="F339" s="191"/>
+      <c r="G339" s="191"/>
+      <c r="H339" s="191"/>
+      <c r="I339" s="191"/>
+      <c r="J339" s="191"/>
+      <c r="K339" s="191"/>
+      <c r="L339" s="192"/>
       <c r="M339" s="59"/>
     </row>
     <row r="340" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8006,19 +8006,19 @@
     </row>
     <row r="341" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="255" t="s">
+      <c r="B341" s="174" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="255"/>
-      <c r="D341" s="255"/>
-      <c r="E341" s="255"/>
-      <c r="F341" s="255"/>
-      <c r="G341" s="255"/>
-      <c r="H341" s="255"/>
-      <c r="I341" s="255"/>
-      <c r="J341" s="255"/>
-      <c r="K341" s="255"/>
-      <c r="L341" s="255"/>
+      <c r="C341" s="174"/>
+      <c r="D341" s="174"/>
+      <c r="E341" s="174"/>
+      <c r="F341" s="174"/>
+      <c r="G341" s="174"/>
+      <c r="H341" s="174"/>
+      <c r="I341" s="174"/>
+      <c r="J341" s="174"/>
+      <c r="K341" s="174"/>
+      <c r="L341" s="174"/>
       <c r="M341" s="59"/>
     </row>
     <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -8067,12 +8067,12 @@
     </row>
     <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="182" t="s">
+      <c r="B345" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="182"/>
-      <c r="D345" s="182"/>
-      <c r="E345" s="182"/>
+      <c r="C345" s="171"/>
+      <c r="D345" s="171"/>
+      <c r="E345" s="171"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -8095,12 +8095,12 @@
     </row>
     <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="182" t="s">
+      <c r="B347" s="171" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="182"/>
-      <c r="D347" s="182"/>
-      <c r="E347" s="182"/>
+      <c r="C347" s="171"/>
+      <c r="D347" s="171"/>
+      <c r="E347" s="171"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -8125,13 +8125,13 @@
     </row>
     <row r="349" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="182" t="s">
+      <c r="B349" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="182"/>
-      <c r="D349" s="182"/>
-      <c r="E349" s="182"/>
-      <c r="F349" s="157"/>
+      <c r="C349" s="171"/>
+      <c r="D349" s="171"/>
+      <c r="E349" s="171"/>
+      <c r="F349" s="173"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -8154,13 +8154,13 @@
     </row>
     <row r="351" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="182" t="s">
+      <c r="B351" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="182"/>
-      <c r="D351" s="182"/>
-      <c r="E351" s="182"/>
-      <c r="F351" s="157"/>
+      <c r="C351" s="171"/>
+      <c r="D351" s="171"/>
+      <c r="E351" s="171"/>
+      <c r="F351" s="173"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -8183,13 +8183,13 @@
     </row>
     <row r="353" spans="1:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="182" t="s">
+      <c r="B353" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="182"/>
-      <c r="D353" s="182"/>
-      <c r="E353" s="182"/>
-      <c r="F353" s="157"/>
+      <c r="C353" s="171"/>
+      <c r="D353" s="171"/>
+      <c r="E353" s="171"/>
+      <c r="F353" s="173"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -8261,83 +8261,83 @@
     </row>
     <row r="358" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="172" t="s">
+      <c r="B358" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="173"/>
-      <c r="D358" s="173"/>
-      <c r="E358" s="173"/>
-      <c r="F358" s="173"/>
-      <c r="G358" s="173"/>
-      <c r="H358" s="173"/>
-      <c r="I358" s="173"/>
-      <c r="J358" s="173"/>
-      <c r="K358" s="173"/>
-      <c r="L358" s="174"/>
+      <c r="C358" s="176"/>
+      <c r="D358" s="176"/>
+      <c r="E358" s="176"/>
+      <c r="F358" s="176"/>
+      <c r="G358" s="176"/>
+      <c r="H358" s="176"/>
+      <c r="I358" s="176"/>
+      <c r="J358" s="176"/>
+      <c r="K358" s="176"/>
+      <c r="L358" s="177"/>
       <c r="M358" s="33"/>
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="175"/>
-      <c r="C359" s="176"/>
-      <c r="D359" s="176"/>
-      <c r="E359" s="176"/>
-      <c r="F359" s="176"/>
-      <c r="G359" s="176"/>
-      <c r="H359" s="176"/>
-      <c r="I359" s="176"/>
-      <c r="J359" s="176"/>
-      <c r="K359" s="176"/>
-      <c r="L359" s="177"/>
+      <c r="B359" s="178"/>
+      <c r="C359" s="179"/>
+      <c r="D359" s="179"/>
+      <c r="E359" s="179"/>
+      <c r="F359" s="179"/>
+      <c r="G359" s="179"/>
+      <c r="H359" s="179"/>
+      <c r="I359" s="179"/>
+      <c r="J359" s="179"/>
+      <c r="K359" s="179"/>
+      <c r="L359" s="180"/>
       <c r="M359" s="59"/>
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="175"/>
-      <c r="C360" s="176"/>
-      <c r="D360" s="176"/>
-      <c r="E360" s="176"/>
-      <c r="F360" s="176"/>
-      <c r="G360" s="176"/>
-      <c r="H360" s="176"/>
-      <c r="I360" s="176"/>
-      <c r="J360" s="176"/>
-      <c r="K360" s="176"/>
-      <c r="L360" s="177"/>
+      <c r="B360" s="178"/>
+      <c r="C360" s="179"/>
+      <c r="D360" s="179"/>
+      <c r="E360" s="179"/>
+      <c r="F360" s="179"/>
+      <c r="G360" s="179"/>
+      <c r="H360" s="179"/>
+      <c r="I360" s="179"/>
+      <c r="J360" s="179"/>
+      <c r="K360" s="179"/>
+      <c r="L360" s="180"/>
       <c r="M360" s="59"/>
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="175"/>
-      <c r="C361" s="176"/>
-      <c r="D361" s="176"/>
-      <c r="E361" s="176"/>
-      <c r="F361" s="176"/>
-      <c r="G361" s="176"/>
-      <c r="H361" s="176"/>
-      <c r="I361" s="176"/>
-      <c r="J361" s="176"/>
-      <c r="K361" s="176"/>
-      <c r="L361" s="177"/>
+      <c r="B361" s="178"/>
+      <c r="C361" s="179"/>
+      <c r="D361" s="179"/>
+      <c r="E361" s="179"/>
+      <c r="F361" s="179"/>
+      <c r="G361" s="179"/>
+      <c r="H361" s="179"/>
+      <c r="I361" s="179"/>
+      <c r="J361" s="179"/>
+      <c r="K361" s="179"/>
+      <c r="L361" s="180"/>
       <c r="M361" s="59"/>
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="178"/>
-      <c r="C362" s="179"/>
-      <c r="D362" s="179"/>
-      <c r="E362" s="179"/>
-      <c r="F362" s="179"/>
-      <c r="G362" s="179"/>
-      <c r="H362" s="179"/>
-      <c r="I362" s="179"/>
-      <c r="J362" s="179"/>
-      <c r="K362" s="179"/>
-      <c r="L362" s="180"/>
+      <c r="B362" s="181"/>
+      <c r="C362" s="182"/>
+      <c r="D362" s="182"/>
+      <c r="E362" s="182"/>
+      <c r="F362" s="182"/>
+      <c r="G362" s="182"/>
+      <c r="H362" s="182"/>
+      <c r="I362" s="182"/>
+      <c r="J362" s="182"/>
+      <c r="K362" s="182"/>
+      <c r="L362" s="183"/>
       <c r="M362" s="59"/>
       <c r="N362" s="2"/>
     </row>
@@ -8412,28 +8412,28 @@
     </row>
     <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="245" t="s">
+      <c r="B367" s="197" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="246"/>
-      <c r="D367" s="236" t="s">
+      <c r="C367" s="198"/>
+      <c r="D367" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="237"/>
-      <c r="F367" s="237"/>
-      <c r="G367" s="237"/>
-      <c r="H367" s="237"/>
-      <c r="I367" s="237"/>
-      <c r="J367" s="237"/>
-      <c r="K367" s="237"/>
-      <c r="L367" s="238"/>
+      <c r="E367" s="193"/>
+      <c r="F367" s="193"/>
+      <c r="G367" s="193"/>
+      <c r="H367" s="193"/>
+      <c r="I367" s="193"/>
+      <c r="J367" s="193"/>
+      <c r="K367" s="193"/>
+      <c r="L367" s="170"/>
       <c r="M367" s="19"/>
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="236"/>
-      <c r="C368" s="238"/>
+      <c r="B368" s="169"/>
+      <c r="C368" s="170"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8448,19 +8448,19 @@
     </row>
     <row r="369" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="181" t="s">
+      <c r="B369" s="228" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="181"/>
-      <c r="D369" s="181"/>
-      <c r="E369" s="181"/>
-      <c r="F369" s="181"/>
-      <c r="G369" s="181"/>
-      <c r="H369" s="181"/>
-      <c r="I369" s="181"/>
-      <c r="J369" s="181"/>
-      <c r="K369" s="181"/>
-      <c r="L369" s="181"/>
+      <c r="C369" s="228"/>
+      <c r="D369" s="228"/>
+      <c r="E369" s="228"/>
+      <c r="F369" s="228"/>
+      <c r="G369" s="228"/>
+      <c r="H369" s="228"/>
+      <c r="I369" s="228"/>
+      <c r="J369" s="228"/>
+      <c r="K369" s="228"/>
+      <c r="L369" s="228"/>
       <c r="M369" s="12"/>
       <c r="N369" s="2"/>
     </row>
@@ -8548,20 +8548,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="225" t="s">
+      <c r="C375" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="225"/>
-      <c r="E375" s="226" t="s">
+      <c r="D375" s="204"/>
+      <c r="E375" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="226"/>
-      <c r="G375" s="226"/>
-      <c r="H375" s="226" t="s">
+      <c r="F375" s="203"/>
+      <c r="G375" s="203"/>
+      <c r="H375" s="203" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="226"/>
-      <c r="J375" s="226"/>
+      <c r="I375" s="203"/>
+      <c r="J375" s="203"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
       <c r="M375" s="17"/>
@@ -8571,14 +8571,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="225"/>
-      <c r="D376" s="225"/>
-      <c r="E376" s="226"/>
-      <c r="F376" s="226"/>
-      <c r="G376" s="226"/>
-      <c r="H376" s="226"/>
-      <c r="I376" s="226"/>
-      <c r="J376" s="226"/>
+      <c r="C376" s="204"/>
+      <c r="D376" s="204"/>
+      <c r="E376" s="203"/>
+      <c r="F376" s="203"/>
+      <c r="G376" s="203"/>
+      <c r="H376" s="203"/>
+      <c r="I376" s="203"/>
+      <c r="J376" s="203"/>
       <c r="K376" s="21"/>
       <c r="L376" s="33"/>
       <c r="M376" s="75"/>
@@ -8588,14 +8588,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="225"/>
-      <c r="D377" s="225"/>
-      <c r="E377" s="226"/>
-      <c r="F377" s="226"/>
-      <c r="G377" s="226"/>
-      <c r="H377" s="226"/>
-      <c r="I377" s="226"/>
-      <c r="J377" s="226"/>
+      <c r="C377" s="204"/>
+      <c r="D377" s="204"/>
+      <c r="E377" s="203"/>
+      <c r="F377" s="203"/>
+      <c r="G377" s="203"/>
+      <c r="H377" s="203"/>
+      <c r="I377" s="203"/>
+      <c r="J377" s="203"/>
       <c r="K377" s="21"/>
       <c r="L377" s="33"/>
       <c r="M377" s="33"/>
@@ -8605,14 +8605,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="225"/>
-      <c r="D378" s="225"/>
-      <c r="E378" s="226"/>
-      <c r="F378" s="226"/>
-      <c r="G378" s="226"/>
-      <c r="H378" s="226"/>
-      <c r="I378" s="226"/>
-      <c r="J378" s="226"/>
+      <c r="C378" s="204"/>
+      <c r="D378" s="204"/>
+      <c r="E378" s="203"/>
+      <c r="F378" s="203"/>
+      <c r="G378" s="203"/>
+      <c r="H378" s="203"/>
+      <c r="I378" s="203"/>
+      <c r="J378" s="203"/>
       <c r="K378" s="21"/>
       <c r="L378" s="33"/>
       <c r="M378" s="33"/>
@@ -8622,14 +8622,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="225"/>
-      <c r="D379" s="225"/>
-      <c r="E379" s="226"/>
-      <c r="F379" s="226"/>
-      <c r="G379" s="226"/>
-      <c r="H379" s="226"/>
-      <c r="I379" s="226"/>
-      <c r="J379" s="226"/>
+      <c r="C379" s="204"/>
+      <c r="D379" s="204"/>
+      <c r="E379" s="203"/>
+      <c r="F379" s="203"/>
+      <c r="G379" s="203"/>
+      <c r="H379" s="203"/>
+      <c r="I379" s="203"/>
+      <c r="J379" s="203"/>
       <c r="K379" s="21"/>
       <c r="L379" s="33"/>
       <c r="M379" s="33"/>
@@ -8639,14 +8639,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="225"/>
-      <c r="D380" s="225"/>
-      <c r="E380" s="226"/>
-      <c r="F380" s="226"/>
-      <c r="G380" s="226"/>
-      <c r="H380" s="226"/>
-      <c r="I380" s="226"/>
-      <c r="J380" s="226"/>
+      <c r="C380" s="204"/>
+      <c r="D380" s="204"/>
+      <c r="E380" s="203"/>
+      <c r="F380" s="203"/>
+      <c r="G380" s="203"/>
+      <c r="H380" s="203"/>
+      <c r="I380" s="203"/>
+      <c r="J380" s="203"/>
       <c r="K380" s="21"/>
       <c r="L380" s="33"/>
       <c r="M380" s="33"/>
@@ -8656,14 +8656,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="225"/>
-      <c r="D381" s="225"/>
-      <c r="E381" s="226"/>
-      <c r="F381" s="226"/>
-      <c r="G381" s="226"/>
-      <c r="H381" s="226"/>
-      <c r="I381" s="226"/>
-      <c r="J381" s="226"/>
+      <c r="C381" s="204"/>
+      <c r="D381" s="204"/>
+      <c r="E381" s="203"/>
+      <c r="F381" s="203"/>
+      <c r="G381" s="203"/>
+      <c r="H381" s="203"/>
+      <c r="I381" s="203"/>
+      <c r="J381" s="203"/>
       <c r="K381" s="21"/>
       <c r="L381" s="33"/>
       <c r="M381" s="33"/>
@@ -8673,14 +8673,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="225"/>
-      <c r="D382" s="225"/>
-      <c r="E382" s="226"/>
-      <c r="F382" s="226"/>
-      <c r="G382" s="226"/>
-      <c r="H382" s="226"/>
-      <c r="I382" s="226"/>
-      <c r="J382" s="226"/>
+      <c r="C382" s="204"/>
+      <c r="D382" s="204"/>
+      <c r="E382" s="203"/>
+      <c r="F382" s="203"/>
+      <c r="G382" s="203"/>
+      <c r="H382" s="203"/>
+      <c r="I382" s="203"/>
+      <c r="J382" s="203"/>
       <c r="K382" s="21"/>
       <c r="L382" s="33"/>
       <c r="M382" s="33"/>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="225" t="s">
+      <c r="C392" s="204" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="225"/>
+      <c r="D392" s="204"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -8816,43 +8816,43 @@
     </row>
     <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="154" t="s">
+      <c r="B393" s="218" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="154" t="s">
+      <c r="C393" s="218" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="154" t="s">
+      <c r="D393" s="218" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="154" t="s">
+      <c r="E393" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="227" t="s">
+      <c r="F393" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="227" t="s">
+      <c r="G393" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="227" t="s">
+      <c r="H393" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="226" t="s">
+      <c r="I393" s="203" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="226"/>
+      <c r="J393" s="203"/>
       <c r="K393" s="21"/>
       <c r="L393" s="24"/>
     </row>
     <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="154"/>
-      <c r="C394" s="154"/>
-      <c r="D394" s="154"/>
-      <c r="E394" s="154"/>
-      <c r="F394" s="228"/>
-      <c r="G394" s="228"/>
-      <c r="H394" s="228"/>
+      <c r="B394" s="218"/>
+      <c r="C394" s="218"/>
+      <c r="D394" s="218"/>
+      <c r="E394" s="218"/>
+      <c r="F394" s="220"/>
+      <c r="G394" s="220"/>
+      <c r="H394" s="220"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -8875,7 +8875,7 @@
       <c r="H395" s="38"/>
       <c r="I395" s="118"/>
       <c r="J395" s="118"/>
-      <c r="K395" s="271"/>
+      <c r="K395" s="157"/>
       <c r="L395" s="24"/>
     </row>
     <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -9157,21 +9157,21 @@
     </row>
     <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="161" t="s">
+      <c r="B414" s="212" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="163"/>
-      <c r="D414" s="161" t="s">
+      <c r="C414" s="214"/>
+      <c r="D414" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="162"/>
-      <c r="F414" s="162"/>
-      <c r="G414" s="162"/>
-      <c r="H414" s="162"/>
-      <c r="I414" s="162"/>
-      <c r="J414" s="163"/>
+      <c r="E414" s="213"/>
+      <c r="F414" s="213"/>
+      <c r="G414" s="213"/>
+      <c r="H414" s="213"/>
+      <c r="I414" s="213"/>
+      <c r="J414" s="214"/>
       <c r="K414" s="148"/>
-      <c r="L414" s="227" t="s">
+      <c r="L414" s="219" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9204,8 +9204,8 @@
       <c r="J415" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K415" s="272"/>
-      <c r="L415" s="228"/>
+      <c r="K415" s="158"/>
+      <c r="L415" s="220"/>
     </row>
     <row r="416" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -9451,23 +9451,23 @@
     </row>
     <row r="431" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="161" t="s">
+      <c r="B431" s="212" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="163"/>
-      <c r="D431" s="235" t="s">
+      <c r="C431" s="214"/>
+      <c r="D431" s="227" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="161" t="s">
+      <c r="E431" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="162"/>
-      <c r="G431" s="162"/>
-      <c r="H431" s="162"/>
-      <c r="I431" s="162"/>
-      <c r="J431" s="163"/>
+      <c r="F431" s="213"/>
+      <c r="G431" s="213"/>
+      <c r="H431" s="213"/>
+      <c r="I431" s="213"/>
+      <c r="J431" s="214"/>
       <c r="K431" s="148"/>
-      <c r="L431" s="227" t="s">
+      <c r="L431" s="219" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="225"/>
+      <c r="D432" s="204"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9498,8 +9498,8 @@
       <c r="J432" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K432" s="272"/>
-      <c r="L432" s="228"/>
+      <c r="K432" s="158"/>
+      <c r="L432" s="220"/>
     </row>
     <row r="433" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9687,26 +9687,26 @@
     </row>
     <row r="445" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="240" t="s">
+      <c r="B445" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="241"/>
-      <c r="D445" s="161" t="s">
+      <c r="C445" s="209"/>
+      <c r="D445" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="162"/>
-      <c r="F445" s="162"/>
-      <c r="G445" s="162"/>
-      <c r="H445" s="162"/>
-      <c r="I445" s="162"/>
-      <c r="J445" s="163"/>
+      <c r="E445" s="213"/>
+      <c r="F445" s="213"/>
+      <c r="G445" s="213"/>
+      <c r="H445" s="213"/>
+      <c r="I445" s="213"/>
+      <c r="J445" s="214"/>
       <c r="K445" s="21"/>
-      <c r="L445" s="244"/>
+      <c r="L445" s="215"/>
     </row>
     <row r="446" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="242"/>
-      <c r="C446" s="243"/>
+      <c r="B446" s="210"/>
+      <c r="C446" s="211"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9729,14 +9729,14 @@
         <v>180</v>
       </c>
       <c r="K446" s="21"/>
-      <c r="L446" s="244"/>
+      <c r="L446" s="215"/>
     </row>
     <row r="447" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="236" t="s">
+      <c r="B447" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="238"/>
+      <c r="C447" s="170"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9748,10 +9748,10 @@
     </row>
     <row r="448" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="236" t="s">
+      <c r="B448" s="169" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="238"/>
+      <c r="C448" s="170"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9763,10 +9763,10 @@
     </row>
     <row r="449" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="236" t="s">
+      <c r="B449" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="238"/>
+      <c r="C449" s="170"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9778,10 +9778,10 @@
     </row>
     <row r="450" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="161" t="s">
+      <c r="B450" s="212" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="163"/>
+      <c r="C450" s="214"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -10117,18 +10117,18 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="232" t="s">
-        <v>339</v>
-      </c>
-      <c r="D472" s="233"/>
-      <c r="E472" s="233"/>
-      <c r="F472" s="233"/>
-      <c r="G472" s="233"/>
-      <c r="H472" s="233"/>
-      <c r="I472" s="233"/>
-      <c r="J472" s="233"/>
-      <c r="K472" s="233"/>
-      <c r="L472" s="234"/>
+      <c r="C472" s="224" t="s">
+        <v>336</v>
+      </c>
+      <c r="D472" s="225"/>
+      <c r="E472" s="225"/>
+      <c r="F472" s="225"/>
+      <c r="G472" s="225"/>
+      <c r="H472" s="225"/>
+      <c r="I472" s="225"/>
+      <c r="J472" s="225"/>
+      <c r="K472" s="225"/>
+      <c r="L472" s="226"/>
       <c r="M472" s="135"/>
     </row>
     <row r="473" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10164,10 +10164,10 @@
     <row r="475" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="225" t="s">
+      <c r="C475" s="204" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="225"/>
+      <c r="D475" s="204"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -10179,43 +10179,43 @@
     </row>
     <row r="476" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="154" t="s">
+      <c r="B476" s="218" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="154" t="s">
+      <c r="C476" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="154" t="s">
+      <c r="D476" s="218" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="154" t="s">
+      <c r="E476" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="227" t="s">
+      <c r="F476" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="227" t="s">
+      <c r="G476" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="227" t="s">
+      <c r="H476" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="229" t="s">
+      <c r="I476" s="221" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="230"/>
-      <c r="K476" s="230"/>
-      <c r="L476" s="231"/>
+      <c r="J476" s="222"/>
+      <c r="K476" s="222"/>
+      <c r="L476" s="223"/>
     </row>
     <row r="477" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="154"/>
-      <c r="C477" s="154"/>
-      <c r="D477" s="154"/>
-      <c r="E477" s="154"/>
-      <c r="F477" s="228"/>
-      <c r="G477" s="228"/>
-      <c r="H477" s="228"/>
+      <c r="B477" s="218"/>
+      <c r="C477" s="218"/>
+      <c r="D477" s="218"/>
+      <c r="E477" s="218"/>
+      <c r="F477" s="220"/>
+      <c r="G477" s="220"/>
+      <c r="H477" s="220"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -10357,10 +10357,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="274" t="s">
+      <c r="F484" s="199" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="274"/>
+      <c r="G484" s="199"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -10379,10 +10379,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="275" t="s">
+      <c r="F485" s="200" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="275"/>
+      <c r="G485" s="200"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -10404,10 +10404,10 @@
       <c r="C486" s="79"/>
       <c r="D486" s="79"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="275" t="s">
+      <c r="F486" s="200" t="s">
         <v>195</v>
       </c>
-      <c r="G486" s="275"/>
+      <c r="G486" s="200"/>
       <c r="H486" s="127">
         <v>17290.75</v>
       </c>
@@ -10426,10 +10426,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="276" t="s">
+      <c r="F487" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="G487" s="276"/>
+      <c r="G487" s="207"/>
       <c r="H487" s="138">
         <f>SUM(H478:H486)+0.01</f>
         <v>369853.66000000003</v>
@@ -10513,7 +10513,7 @@
       <c r="D492" s="79"/>
       <c r="E492" s="79"/>
       <c r="F492" s="119" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G492" s="78"/>
       <c r="H492" s="79"/>
@@ -10574,27 +10574,27 @@
     </row>
     <row r="496" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
-      <c r="B496" s="240" t="s">
+      <c r="B496" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="C496" s="241"/>
-      <c r="D496" s="161" t="s">
+      <c r="C496" s="209"/>
+      <c r="D496" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="E496" s="162"/>
-      <c r="F496" s="162"/>
-      <c r="G496" s="162"/>
-      <c r="H496" s="162"/>
-      <c r="I496" s="162"/>
-      <c r="J496" s="163"/>
+      <c r="E496" s="213"/>
+      <c r="F496" s="213"/>
+      <c r="G496" s="213"/>
+      <c r="H496" s="213"/>
+      <c r="I496" s="213"/>
+      <c r="J496" s="214"/>
       <c r="K496" s="21"/>
-      <c r="L496" s="244"/>
+      <c r="L496" s="215"/>
       <c r="M496" s="79"/>
     </row>
     <row r="497" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="242"/>
-      <c r="C497" s="243"/>
+      <c r="B497" s="210"/>
+      <c r="C497" s="211"/>
       <c r="D497" s="74">
         <v>1</v>
       </c>
@@ -10617,15 +10617,15 @@
         <v>10</v>
       </c>
       <c r="K497" s="21"/>
-      <c r="L497" s="244"/>
+      <c r="L497" s="215"/>
       <c r="M497" s="79"/>
     </row>
     <row r="498" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="219" t="s">
-        <v>340</v>
-      </c>
-      <c r="C498" s="221"/>
+      <c r="B498" s="216" t="s">
+        <v>337</v>
+      </c>
+      <c r="C498" s="217"/>
       <c r="D498" s="102"/>
       <c r="E498" s="142">
         <v>3500</v>
@@ -10641,16 +10641,16 @@
       <c r="J498" s="142">
         <v>3500</v>
       </c>
-      <c r="K498" s="273"/>
+      <c r="K498" s="159"/>
       <c r="L498" s="39"/>
       <c r="M498" s="79"/>
     </row>
     <row r="499" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="236" t="s">
+      <c r="B499" s="169" t="s">
         <v>178</v>
       </c>
-      <c r="C499" s="238"/>
+      <c r="C499" s="170"/>
       <c r="D499" s="81"/>
       <c r="E499" s="81"/>
       <c r="F499" s="81"/>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="500" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="236" t="s">
+      <c r="B500" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="C500" s="238"/>
+      <c r="C500" s="170"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10681,9 +10681,9 @@
     </row>
     <row r="501" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="78"/>
-      <c r="B501" s="249"/>
-      <c r="C501" s="249"/>
-      <c r="D501" s="249"/>
+      <c r="B501" s="160"/>
+      <c r="C501" s="160"/>
+      <c r="D501" s="160"/>
       <c r="E501" s="39"/>
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
@@ -11106,12 +11106,12 @@
       <c r="L528" s="79"/>
     </row>
     <row r="529" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="191" t="s">
+      <c r="A529" s="205" t="s">
         <v>246</v>
       </c>
-      <c r="B529" s="191"/>
-      <c r="C529" s="191"/>
-      <c r="D529" s="191"/>
+      <c r="B529" s="205"/>
+      <c r="C529" s="205"/>
+      <c r="D529" s="205"/>
       <c r="I529" s="79"/>
       <c r="J529" s="79"/>
       <c r="K529" s="151"/>
@@ -11189,36 +11189,36 @@
       <c r="K534" s="150"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A535" s="239" t="s">
+      <c r="A535" s="206" t="s">
         <v>248</v>
       </c>
-      <c r="B535" s="239"/>
-      <c r="C535" s="239"/>
-      <c r="D535" s="239"/>
-      <c r="E535" s="239"/>
-      <c r="F535" s="239"/>
-      <c r="G535" s="239"/>
-      <c r="H535" s="239"/>
-      <c r="I535" s="239"/>
-      <c r="J535" s="239"/>
-      <c r="K535" s="239"/>
-      <c r="L535" s="239"/>
+      <c r="B535" s="206"/>
+      <c r="C535" s="206"/>
+      <c r="D535" s="206"/>
+      <c r="E535" s="206"/>
+      <c r="F535" s="206"/>
+      <c r="G535" s="206"/>
+      <c r="H535" s="206"/>
+      <c r="I535" s="206"/>
+      <c r="J535" s="206"/>
+      <c r="K535" s="206"/>
+      <c r="L535" s="206"/>
     </row>
     <row r="536" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="239" t="s">
+      <c r="A536" s="206" t="s">
         <v>271</v>
       </c>
-      <c r="B536" s="239"/>
-      <c r="C536" s="239"/>
-      <c r="D536" s="239"/>
-      <c r="E536" s="239"/>
-      <c r="F536" s="239"/>
-      <c r="G536" s="239"/>
-      <c r="H536" s="239"/>
-      <c r="I536" s="239"/>
-      <c r="J536" s="239"/>
-      <c r="K536" s="239"/>
-      <c r="L536" s="239"/>
+      <c r="B536" s="206"/>
+      <c r="C536" s="206"/>
+      <c r="D536" s="206"/>
+      <c r="E536" s="206"/>
+      <c r="F536" s="206"/>
+      <c r="G536" s="206"/>
+      <c r="H536" s="206"/>
+      <c r="I536" s="206"/>
+      <c r="J536" s="206"/>
+      <c r="K536" s="206"/>
+      <c r="L536" s="206"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537" s="79"/>
@@ -11249,20 +11249,20 @@
       <c r="K538" s="150"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="239" t="s">
+      <c r="A539" s="206" t="s">
         <v>250</v>
       </c>
-      <c r="B539" s="239"/>
-      <c r="C539" s="239"/>
-      <c r="D539" s="239"/>
-      <c r="E539" s="239"/>
-      <c r="F539" s="239"/>
-      <c r="G539" s="239"/>
-      <c r="H539" s="239"/>
-      <c r="I539" s="239"/>
-      <c r="J539" s="239"/>
-      <c r="K539" s="239"/>
-      <c r="L539" s="239"/>
+      <c r="B539" s="206"/>
+      <c r="C539" s="206"/>
+      <c r="D539" s="206"/>
+      <c r="E539" s="206"/>
+      <c r="F539" s="206"/>
+      <c r="G539" s="206"/>
+      <c r="H539" s="206"/>
+      <c r="I539" s="206"/>
+      <c r="J539" s="206"/>
+      <c r="K539" s="206"/>
+      <c r="L539" s="206"/>
     </row>
     <row r="540" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="78"/>
@@ -11278,6 +11278,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:L245"/>
+    <mergeCell ref="B246:L246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:L280"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:L227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:L162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:L264"/>
+    <mergeCell ref="B369:L369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:L216"/>
+    <mergeCell ref="B126:L126"/>
+    <mergeCell ref="B129:L129"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:L123"/>
+    <mergeCell ref="B193:L197"/>
+    <mergeCell ref="B200:L204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="C472:L472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="L431:L432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A535:L535"/>
+    <mergeCell ref="A536:L536"/>
+    <mergeCell ref="A539:L539"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B496:C497"/>
+    <mergeCell ref="D496:J496"/>
+    <mergeCell ref="L496:L497"/>
+    <mergeCell ref="B498:C498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="L445:L446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="B501:D501"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -11302,134 +11430,6 @@
     <mergeCell ref="D367:L367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:L237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A535:L535"/>
-    <mergeCell ref="A536:L536"/>
-    <mergeCell ref="A539:L539"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B496:C497"/>
-    <mergeCell ref="D496:J496"/>
-    <mergeCell ref="L496:L497"/>
-    <mergeCell ref="B498:C498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="L445:L446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="C472:L472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="L431:L432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:L369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:L216"/>
-    <mergeCell ref="B126:L126"/>
-    <mergeCell ref="B129:L129"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:L123"/>
-    <mergeCell ref="B193:L197"/>
-    <mergeCell ref="B200:L204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:L245"/>
-    <mergeCell ref="B246:L246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:L280"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:L227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:L162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:L264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
